--- a/Data/ScriptData/Advocate_ArchitectDataBlueprinting.xlsx
+++ b/Data/ScriptData/Advocate_ArchitectDataBlueprinting.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Omnicell_Blueprinting_Tool\Data\ScriptData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70571EFF-312A-4FF4-AB7B-ADC1A9D9F561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C897C30B-6F60-470E-8C9D-2240C3485CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2265" yWindow="690" windowWidth="23910" windowHeight="14415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24930" yWindow="915" windowWidth="22200" windowHeight="14415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VisioData" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
     <author>Doug Vidakovich</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{A3856540-2A7D-4F32-9DAA-D6863B596B4B}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{23F258D9-1ECF-47DA-8B2F-3F0B88B29C2C}">
       <text>
         <r>
           <rPr>
@@ -60,11 +60,12 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
+if the first character is ';' this line will be ignored. This is concidered a comment.
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{2C58DBFA-D082-43D3-9A8C-B1F609470680}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{AF6E03B1-8AF6-454C-AEB4-442370390D4B}">
       <text>
         <r>
           <rPr>
@@ -91,7 +92,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{78C66964-03C3-4C36-BD13-79480B7AFFBF}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{89A89032-B67E-4AA5-957E-7DE4C065E1CB}">
       <text>
         <r>
           <rPr>
@@ -114,7 +115,18 @@
           <t xml:space="preserve">
 the ShapeImage value must be first and exactly the same as the ShapeImage value.
 Followed by ':' character
-followed by a unique value which makes this value unique to all other ShapeKey values</t>
+followed by a unique value which makes this value unique to all other ShapeKey values
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>easy was to set this field is use the stencil name + ':' + row value</t>
         </r>
         <r>
           <rPr>
@@ -128,7 +140,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{623C1581-E966-4EB4-9B66-7D6FEE18CCF7}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{D35BEA42-F808-4BD7-A828-07911C0D01EE}">
       <text>
         <r>
           <rPr>
@@ -154,7 +166,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{A71CAD57-4F41-4F15-AF0C-1230FC9CC194}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{22984143-7D8C-4A0C-803E-3C096D1BD9AC}">
       <text>
         <r>
           <rPr>
@@ -220,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="351">
   <si>
     <t>Shape</t>
   </si>
@@ -766,9 +778,6 @@
   </si>
   <si>
     <t>Shape Type</t>
-  </si>
-  <si>
-    <t>Shape Key</t>
   </si>
   <si>
     <t>Shape Image</t>
@@ -1068,9 +1077,6 @@
     <t>;Integrations</t>
   </si>
   <si>
-    <t>TableCell</t>
-  </si>
-  <si>
     <t>TableCell:R1C1</t>
   </si>
   <si>
@@ -1134,9 +1140,6 @@
     <t>C:\Omnicell_Blueprinting_Tool\Data\Templates\OC_BlueprintingTemplate.vstx</t>
   </si>
   <si>
-    <t>C:\Omnicell_Blueprinting_Tool\Data\Stencils\Advocate_CustomStencils.vssx</t>
-  </si>
-  <si>
     <t>Line Pattern</t>
   </si>
   <si>
@@ -1249,6 +1252,78 @@
   </si>
   <si>
     <t>;0</t>
+  </si>
+  <si>
+    <t>Unique Key</t>
+  </si>
+  <si>
+    <t>Shape Label Font Size</t>
+  </si>
+  <si>
+    <t>C:\Omnicell\Projects\AdvocateAurora\Data\Stencils\Advocate_CustomStencils.vssx</t>
+  </si>
+  <si>
+    <t>OC_Logo</t>
+  </si>
+  <si>
+    <t>OC_Footer</t>
+  </si>
+  <si>
+    <t>OC_Group4</t>
+  </si>
+  <si>
+    <t>OC_Server</t>
+  </si>
+  <si>
+    <t>OC_IconKey2</t>
+  </si>
+  <si>
+    <t>OC_LineLedgen</t>
+  </si>
+  <si>
+    <t>OC_Ethernet2</t>
+  </si>
+  <si>
+    <t>OC_PortsLDAP_info</t>
+  </si>
+  <si>
+    <t>OC_DashOutline</t>
+  </si>
+  <si>
+    <t>OC_DB</t>
+  </si>
+  <si>
+    <t>OC_OISInterfaces</t>
+  </si>
+  <si>
+    <t>OC_Title</t>
+  </si>
+  <si>
+    <t>OC_Group2</t>
+  </si>
+  <si>
+    <t>OC_BlisterPackager</t>
+  </si>
+  <si>
+    <t>OC_CPM</t>
+  </si>
+  <si>
+    <t>OC_YuyamaPackager</t>
+  </si>
+  <si>
+    <t>OC_Carousel</t>
+  </si>
+  <si>
+    <t>OC_XR2</t>
+  </si>
+  <si>
+    <t>OC_AIO</t>
+  </si>
+  <si>
+    <t>OC_TagLabeler</t>
+  </si>
+  <si>
+    <t>OC_TableCell</t>
   </si>
 </sst>
 </file>
@@ -2423,11 +2498,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AF113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E103" sqref="E103"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2435,7 +2511,7 @@
     <col min="1" max="1" width="24.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" style="2" customWidth="1"/>
     <col min="3" max="3" width="22.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" style="2" customWidth="1"/>
     <col min="5" max="5" width="27.42578125" style="2" customWidth="1"/>
     <col min="6" max="6" width="18.42578125" style="2" customWidth="1"/>
     <col min="7" max="7" width="8.85546875" style="2" hidden="1" customWidth="1"/>
@@ -2467,46 +2543,46 @@
   <sheetData>
     <row r="1" spans="1:32" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B1" s="49" t="s">
         <v>176</v>
       </c>
       <c r="C1" s="49" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1" s="49" t="s">
         <v>177</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="E1" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>179</v>
-      </c>
       <c r="F1" s="5" t="s">
-        <v>180</v>
+        <v>328</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>199</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>200</v>
       </c>
       <c r="O1" s="6" t="s">
         <v>17</v>
@@ -2515,7 +2591,7 @@
         <v>16</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R1" s="50" t="s">
         <v>12</v>
@@ -2530,42 +2606,42 @@
         <v>15</v>
       </c>
       <c r="V1" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="W1" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="X1" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="X1" s="33" t="s">
+      <c r="Y1" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="Y1" s="33" t="s">
+      <c r="Z1" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="Z1" s="33" t="s">
+      <c r="AA1" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="AA1" s="33" t="s">
+      <c r="AB1" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="AB1" s="9" t="s">
+      <c r="AC1" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="AC1" s="34" t="s">
+      <c r="AD1" s="34" t="s">
         <v>189</v>
       </c>
-      <c r="AD1" s="34" t="s">
+      <c r="AE1" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="AE1" s="34" t="s">
+      <c r="AF1" s="34" t="s">
         <v>191</v>
-      </c>
-      <c r="AF1" s="34" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -2601,17 +2677,17 @@
     </row>
     <row r="3" spans="1:32" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C3" s="44" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D3" s="21"/>
       <c r="E3" s="21" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
@@ -2654,14 +2730,14 @@
         <v>0</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="17" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
@@ -2704,14 +2780,14 @@
         <v>0</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>291</v>
+        <v>329</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="17" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
@@ -2751,7 +2827,7 @@
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -2796,7 +2872,7 @@
         <v>60</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>1</v>
+        <v>330</v>
       </c>
       <c r="E7" s="21"/>
       <c r="F7" s="21"/>
@@ -2843,22 +2919,22 @@
         <v>0</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
       <c r="I8" s="21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K8" s="21"/>
       <c r="L8" s="21"/>
@@ -2902,10 +2978,10 @@
         <v>59</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>3</v>
+        <v>331</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F9" s="21">
         <v>9</v>
@@ -2992,7 +3068,7 @@
         <v>97</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="E11" s="21" t="s">
         <v>32</v>
@@ -3044,7 +3120,7 @@
         <v>98</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E12" s="21" t="s">
         <v>99</v>
@@ -3074,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="V12" s="24" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="W12" s="21"/>
       <c r="X12" s="23"/>
@@ -3086,7 +3162,7 @@
       </c>
       <c r="AC12" s="23"/>
       <c r="AD12" s="19" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AE12" s="19" t="s">
         <v>27</v>
@@ -3106,7 +3182,7 @@
         <v>95</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E13" s="21" t="s">
         <v>47</v>
@@ -3136,7 +3212,7 @@
         <v>0</v>
       </c>
       <c r="V13" s="24" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="W13" s="21"/>
       <c r="X13" s="23"/>
@@ -3148,7 +3224,7 @@
       </c>
       <c r="AC13" s="23"/>
       <c r="AD13" s="19" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AE13" s="19" t="s">
         <v>27</v>
@@ -3168,7 +3244,7 @@
         <v>94</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E14" s="21" t="s">
         <v>49</v>
@@ -3198,7 +3274,7 @@
         <v>0</v>
       </c>
       <c r="V14" s="24" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="W14" s="21" t="s">
         <v>58</v>
@@ -3207,7 +3283,7 @@
         <v>46</v>
       </c>
       <c r="Y14" s="19" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="Z14" s="23" t="s">
         <v>30</v>
@@ -3220,7 +3296,7 @@
       </c>
       <c r="AC14" s="23"/>
       <c r="AD14" s="19" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AE14" s="19" t="s">
         <v>27</v>
@@ -3240,7 +3316,7 @@
         <v>96</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E15" s="21" t="s">
         <v>48</v>
@@ -3270,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="V15" s="24" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="W15" s="21"/>
       <c r="X15" s="23"/>
@@ -3282,7 +3358,7 @@
       </c>
       <c r="AC15" s="23"/>
       <c r="AD15" s="19" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AE15" s="19" t="s">
         <v>27</v>
@@ -3302,7 +3378,7 @@
         <v>61</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>50</v>
+        <v>333</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>93</v>
@@ -3332,7 +3408,7 @@
         <v>0</v>
       </c>
       <c r="V16" s="24" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="W16" s="23" t="s">
         <v>58</v>
@@ -3341,7 +3417,7 @@
         <v>55</v>
       </c>
       <c r="Y16" s="19" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="Z16" s="23" t="s">
         <v>29</v>
@@ -3356,7 +3432,7 @@
         <v>56</v>
       </c>
       <c r="AD16" s="19" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AE16" s="23" t="s">
         <v>30</v>
@@ -3372,7 +3448,7 @@
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
@@ -3414,7 +3490,7 @@
         <v>92</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>89</v>
+        <v>334</v>
       </c>
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
@@ -3464,7 +3540,7 @@
         <v>63</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>50</v>
+        <v>333</v>
       </c>
       <c r="E19" s="17" t="s">
         <v>41</v>
@@ -3518,7 +3594,7 @@
         <v>64</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>50</v>
+        <v>333</v>
       </c>
       <c r="E20" s="17" t="s">
         <v>42</v>
@@ -3572,7 +3648,7 @@
         <v>65</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>50</v>
+        <v>333</v>
       </c>
       <c r="E21" s="17" t="s">
         <v>43</v>
@@ -3626,7 +3702,7 @@
         <v>66</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>34</v>
+        <v>335</v>
       </c>
       <c r="E22" s="17" t="s">
         <v>35</v>
@@ -3680,7 +3756,7 @@
         <v>67</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>34</v>
+        <v>335</v>
       </c>
       <c r="E23" s="17" t="s">
         <v>36</v>
@@ -3734,10 +3810,10 @@
         <v>68</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>34</v>
+        <v>335</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F24" s="17"/>
       <c r="G24" s="17"/>
@@ -3784,7 +3860,7 @@
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
@@ -3826,10 +3902,10 @@
         <v>58</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>40</v>
+        <v>336</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F26" s="21"/>
       <c r="G26" s="21"/>
@@ -3867,7 +3943,7 @@
       <c r="AE26" s="19"/>
       <c r="AF26" s="23"/>
     </row>
-    <row r="27" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="23">
         <v>1</v>
       </c>
@@ -3878,7 +3954,7 @@
         <v>57</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>4</v>
+        <v>337</v>
       </c>
       <c r="E27" s="21"/>
       <c r="F27" s="21"/>
@@ -3964,7 +4040,7 @@
         <v>79</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>50</v>
+        <v>333</v>
       </c>
       <c r="E29" s="21" t="s">
         <v>44</v>
@@ -4003,7 +4079,7 @@
       </c>
       <c r="X29" s="23"/>
       <c r="Y29" s="19" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="Z29" s="23" t="s">
         <v>27</v>
@@ -4018,7 +4094,7 @@
         <v>53</v>
       </c>
       <c r="AD29" s="23" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="AE29" s="23" t="s">
         <v>30</v>
@@ -4038,7 +4114,7 @@
         <v>80</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>50</v>
+        <v>333</v>
       </c>
       <c r="E30" s="21" t="s">
         <v>45</v>
@@ -4077,7 +4153,7 @@
       </c>
       <c r="X30" s="23"/>
       <c r="Y30" s="19" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="Z30" s="23" t="s">
         <v>27</v>
@@ -4099,13 +4175,13 @@
         <v>0</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>314</v>
+        <v>338</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F31" s="21" t="s">
         <v>172</v>
@@ -4192,10 +4268,10 @@
         <v>169</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>314</v>
+        <v>338</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F33" s="21" t="s">
         <v>172</v>
@@ -4246,7 +4322,7 @@
         <v>81</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>50</v>
+        <v>333</v>
       </c>
       <c r="E34" s="21" t="s">
         <v>173</v>
@@ -4285,7 +4361,7 @@
       </c>
       <c r="X34" s="23"/>
       <c r="Y34" s="19" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="Z34" s="23" t="s">
         <v>27</v>
@@ -4310,10 +4386,10 @@
         <v>82</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>18</v>
+        <v>339</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F35" s="21"/>
       <c r="G35" s="21"/>
@@ -4350,7 +4426,7 @@
       </c>
       <c r="AC35" s="23"/>
       <c r="AD35" s="19" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AE35" s="23" t="s">
         <v>27</v>
@@ -4370,10 +4446,10 @@
         <v>83</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>18</v>
+        <v>339</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F36" s="21"/>
       <c r="G36" s="21"/>
@@ -4410,7 +4486,7 @@
       </c>
       <c r="AC36" s="23"/>
       <c r="AD36" s="19" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AE36" s="23" t="s">
         <v>27</v>
@@ -4430,7 +4506,7 @@
         <v>84</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>50</v>
+        <v>333</v>
       </c>
       <c r="E37" s="21" t="s">
         <v>174</v>
@@ -4469,7 +4545,7 @@
       </c>
       <c r="X37" s="23"/>
       <c r="Y37" s="19" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="Z37" s="23" t="s">
         <v>27</v>
@@ -4482,7 +4558,7 @@
       </c>
       <c r="AC37" s="23"/>
       <c r="AD37" s="19" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AE37" s="23" t="s">
         <v>27</v>
@@ -4502,7 +4578,7 @@
         <v>91</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>11</v>
+        <v>340</v>
       </c>
       <c r="E38" s="21"/>
       <c r="F38" s="21"/>
@@ -4540,7 +4616,7 @@
       </c>
       <c r="AC38" s="23"/>
       <c r="AD38" s="19" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AE38" s="23" t="s">
         <v>27</v>
@@ -4593,13 +4669,13 @@
         <v>0</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>314</v>
+        <v>338</v>
       </c>
       <c r="E40" s="21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F40" s="21" t="s">
         <v>172</v>
@@ -4650,10 +4726,10 @@
         <v>85</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>50</v>
+        <v>333</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F41" s="21"/>
       <c r="G41" s="21"/>
@@ -4689,7 +4765,7 @@
       </c>
       <c r="X41" s="23"/>
       <c r="Y41" s="19" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="Z41" s="23" t="s">
         <v>27</v>
@@ -4714,10 +4790,10 @@
         <v>86</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>50</v>
+        <v>333</v>
       </c>
       <c r="E42" s="21" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F42" s="21"/>
       <c r="G42" s="21"/>
@@ -4753,7 +4829,7 @@
       </c>
       <c r="X42" s="23"/>
       <c r="Y42" s="19" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="Z42" s="23" t="s">
         <v>27</v>
@@ -4766,7 +4842,7 @@
       </c>
       <c r="AC42" s="23"/>
       <c r="AD42" s="19" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AE42" s="23" t="s">
         <v>27</v>
@@ -4786,7 +4862,7 @@
         <v>90</v>
       </c>
       <c r="D43" s="21" t="s">
-        <v>11</v>
+        <v>340</v>
       </c>
       <c r="E43" s="21" t="s">
         <v>51</v>
@@ -4826,7 +4902,7 @@
       </c>
       <c r="AC43" s="23"/>
       <c r="AD43" s="19" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AE43" s="23" t="s">
         <v>27</v>
@@ -4882,7 +4958,7 @@
         <v>125</v>
       </c>
       <c r="D45" s="21" t="s">
-        <v>1</v>
+        <v>330</v>
       </c>
       <c r="E45" s="21"/>
       <c r="F45" s="21"/>
@@ -4932,10 +5008,10 @@
         <v>126</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>2</v>
+        <v>341</v>
       </c>
       <c r="E46" s="21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F46" s="21"/>
       <c r="G46" s="21"/>
@@ -4984,10 +5060,10 @@
         <v>127</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>3</v>
+        <v>331</v>
       </c>
       <c r="E47" s="21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F47" s="32">
         <v>10</v>
@@ -5074,7 +5150,7 @@
         <v>88</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>87</v>
+        <v>342</v>
       </c>
       <c r="E49" s="21" t="s">
         <v>154</v>
@@ -5126,10 +5202,10 @@
         <v>130</v>
       </c>
       <c r="D50" s="21" t="s">
-        <v>40</v>
+        <v>336</v>
       </c>
       <c r="E50" s="21" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F50" s="21"/>
       <c r="G50" s="21"/>
@@ -5214,7 +5290,7 @@
         <v>75</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>5</v>
+        <v>343</v>
       </c>
       <c r="E52" s="17" t="s">
         <v>115</v>
@@ -5254,7 +5330,7 @@
       </c>
       <c r="AC52" s="19"/>
       <c r="AD52" s="19" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AE52" s="19" t="s">
         <v>28</v>
@@ -5272,7 +5348,7 @@
         <v>76</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>10</v>
+        <v>344</v>
       </c>
       <c r="E53" s="17" t="s">
         <v>116</v>
@@ -5312,7 +5388,7 @@
       </c>
       <c r="AC53" s="19"/>
       <c r="AD53" s="19" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AE53" s="19" t="s">
         <v>28</v>
@@ -5330,7 +5406,7 @@
         <v>77</v>
       </c>
       <c r="D54" s="28" t="s">
-        <v>5</v>
+        <v>343</v>
       </c>
       <c r="E54" s="28" t="s">
         <v>117</v>
@@ -5370,7 +5446,7 @@
       </c>
       <c r="AC54" s="27"/>
       <c r="AD54" s="27" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AE54" s="27" t="s">
         <v>28</v>
@@ -5388,7 +5464,7 @@
         <v>78</v>
       </c>
       <c r="D55" s="28" t="s">
-        <v>10</v>
+        <v>344</v>
       </c>
       <c r="E55" s="28" t="s">
         <v>118</v>
@@ -5428,7 +5504,7 @@
       </c>
       <c r="AC55" s="27"/>
       <c r="AD55" s="27" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AE55" s="27" t="s">
         <v>28</v>
@@ -5446,7 +5522,7 @@
         <v>73</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>6</v>
+        <v>345</v>
       </c>
       <c r="E56" s="17" t="s">
         <v>114</v>
@@ -5486,7 +5562,7 @@
       </c>
       <c r="AC56" s="19"/>
       <c r="AD56" s="19" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AE56" s="19" t="s">
         <v>28</v>
@@ -5504,7 +5580,7 @@
         <v>74</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>10</v>
+        <v>344</v>
       </c>
       <c r="E57" s="17" t="s">
         <v>119</v>
@@ -5544,7 +5620,7 @@
       </c>
       <c r="AC57" s="19"/>
       <c r="AD57" s="19" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AE57" s="19" t="s">
         <v>28</v>
@@ -5562,7 +5638,7 @@
         <v>71</v>
       </c>
       <c r="D58" s="28" t="s">
-        <v>7</v>
+        <v>346</v>
       </c>
       <c r="E58" s="28" t="s">
         <v>120</v>
@@ -5602,7 +5678,7 @@
       </c>
       <c r="AC58" s="27"/>
       <c r="AD58" s="27" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AE58" s="27" t="s">
         <v>28</v>
@@ -5620,7 +5696,7 @@
         <v>105</v>
       </c>
       <c r="D59" s="28" t="s">
-        <v>10</v>
+        <v>344</v>
       </c>
       <c r="E59" s="28" t="s">
         <v>112</v>
@@ -5660,7 +5736,7 @@
       </c>
       <c r="AC59" s="27"/>
       <c r="AD59" s="27" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AE59" s="27" t="s">
         <v>28</v>
@@ -5678,7 +5754,7 @@
         <v>72</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>7</v>
+        <v>346</v>
       </c>
       <c r="E60" s="17" t="s">
         <v>121</v>
@@ -5718,7 +5794,7 @@
       </c>
       <c r="AC60" s="19"/>
       <c r="AD60" s="19" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AE60" s="19" t="s">
         <v>28</v>
@@ -5736,7 +5812,7 @@
         <v>106</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>10</v>
+        <v>344</v>
       </c>
       <c r="E61" s="17" t="s">
         <v>111</v>
@@ -5776,7 +5852,7 @@
       </c>
       <c r="AC61" s="19"/>
       <c r="AD61" s="19" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AE61" s="19" t="s">
         <v>28</v>
@@ -5794,7 +5870,7 @@
         <v>101</v>
       </c>
       <c r="D62" s="28" t="s">
-        <v>7</v>
+        <v>346</v>
       </c>
       <c r="E62" s="28" t="s">
         <v>122</v>
@@ -5834,7 +5910,7 @@
       </c>
       <c r="AC62" s="27"/>
       <c r="AD62" s="27" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AE62" s="27" t="s">
         <v>28</v>
@@ -5852,7 +5928,7 @@
         <v>103</v>
       </c>
       <c r="D63" s="28" t="s">
-        <v>10</v>
+        <v>344</v>
       </c>
       <c r="E63" s="28" t="s">
         <v>110</v>
@@ -5892,7 +5968,7 @@
       </c>
       <c r="AC63" s="27"/>
       <c r="AD63" s="27" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AE63" s="27" t="s">
         <v>28</v>
@@ -5910,10 +5986,10 @@
         <v>102</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>7</v>
+        <v>346</v>
       </c>
       <c r="E64" s="17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F64" s="17"/>
       <c r="G64" s="17"/>
@@ -5950,7 +6026,7 @@
       </c>
       <c r="AC64" s="19"/>
       <c r="AD64" s="19" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="AE64" s="19" t="s">
         <v>28</v>
@@ -5970,10 +6046,10 @@
         <v>104</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>10</v>
+        <v>344</v>
       </c>
       <c r="E65" s="17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F65" s="17"/>
       <c r="G65" s="17"/>
@@ -6010,7 +6086,7 @@
       </c>
       <c r="AC65" s="19"/>
       <c r="AD65" s="19" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="AE65" s="19" t="s">
         <v>28</v>
@@ -6027,13 +6103,13 @@
         <v>0</v>
       </c>
       <c r="C66" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="D66" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="E66" s="21" t="s">
         <v>224</v>
-      </c>
-      <c r="D66" s="21" t="s">
-        <v>314</v>
-      </c>
-      <c r="E66" s="21" t="s">
-        <v>225</v>
       </c>
       <c r="F66" s="21"/>
       <c r="G66" s="21"/>
@@ -6084,7 +6160,7 @@
         <v>69</v>
       </c>
       <c r="D67" s="28" t="s">
-        <v>9</v>
+        <v>347</v>
       </c>
       <c r="E67" s="28" t="s">
         <v>8</v>
@@ -6124,7 +6200,7 @@
       </c>
       <c r="AC67" s="27"/>
       <c r="AD67" s="27" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AE67" s="27" t="s">
         <v>28</v>
@@ -6142,7 +6218,7 @@
         <v>107</v>
       </c>
       <c r="D68" s="28" t="s">
-        <v>10</v>
+        <v>344</v>
       </c>
       <c r="E68" s="28" t="s">
         <v>124</v>
@@ -6182,7 +6258,7 @@
       </c>
       <c r="AC68" s="27"/>
       <c r="AD68" s="27" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AE68" s="27" t="s">
         <v>28</v>
@@ -6200,7 +6276,7 @@
         <v>70</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>9</v>
+        <v>347</v>
       </c>
       <c r="E69" s="17" t="s">
         <v>33</v>
@@ -6240,7 +6316,7 @@
       </c>
       <c r="AC69" s="19"/>
       <c r="AD69" s="19" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AE69" s="19" t="s">
         <v>28</v>
@@ -6258,7 +6334,7 @@
         <v>108</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>10</v>
+        <v>344</v>
       </c>
       <c r="E70" s="17" t="s">
         <v>123</v>
@@ -6298,7 +6374,7 @@
       </c>
       <c r="AC70" s="19"/>
       <c r="AD70" s="19" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AE70" s="19" t="s">
         <v>28</v>
@@ -6316,7 +6392,7 @@
         <v>100</v>
       </c>
       <c r="D71" s="28" t="s">
-        <v>10</v>
+        <v>344</v>
       </c>
       <c r="E71" s="28" t="s">
         <v>113</v>
@@ -6356,7 +6432,7 @@
       </c>
       <c r="AC71" s="27"/>
       <c r="AD71" s="27" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AE71" s="27" t="s">
         <v>27</v>
@@ -6410,7 +6486,7 @@
         <v>158</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>109</v>
+        <v>348</v>
       </c>
       <c r="E73" s="17" t="s">
         <v>159</v>
@@ -6450,7 +6526,7 @@
       </c>
       <c r="AC73" s="19"/>
       <c r="AD73" s="19" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AE73" s="19" t="s">
         <v>28</v>
@@ -6468,7 +6544,7 @@
         <v>168</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>156</v>
+        <v>349</v>
       </c>
       <c r="E74" s="17" t="s">
         <v>167</v>
@@ -6508,7 +6584,7 @@
       </c>
       <c r="AC74" s="19"/>
       <c r="AD74" s="19" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AE74" s="19" t="s">
         <v>28</v>
@@ -6562,7 +6638,7 @@
         <v>131</v>
       </c>
       <c r="D76" s="21" t="s">
-        <v>87</v>
+        <v>342</v>
       </c>
       <c r="E76" s="21" t="s">
         <v>155</v>
@@ -6614,7 +6690,7 @@
         <v>132</v>
       </c>
       <c r="D77" s="21" t="s">
-        <v>4</v>
+        <v>337</v>
       </c>
       <c r="E77" s="21"/>
       <c r="F77" s="21"/>
@@ -6700,7 +6776,7 @@
         <v>134</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>5</v>
+        <v>343</v>
       </c>
       <c r="E79" s="17" t="s">
         <v>115</v>
@@ -6740,7 +6816,7 @@
       </c>
       <c r="AC79" s="19"/>
       <c r="AD79" s="19" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AE79" s="19" t="s">
         <v>28</v>
@@ -6758,7 +6834,7 @@
         <v>133</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>10</v>
+        <v>344</v>
       </c>
       <c r="E80" s="17" t="s">
         <v>116</v>
@@ -6798,7 +6874,7 @@
       </c>
       <c r="AC80" s="19"/>
       <c r="AD80" s="19" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AE80" s="19" t="s">
         <v>28</v>
@@ -6816,7 +6892,7 @@
         <v>152</v>
       </c>
       <c r="D81" s="28" t="s">
-        <v>5</v>
+        <v>343</v>
       </c>
       <c r="E81" s="28" t="s">
         <v>117</v>
@@ -6856,7 +6932,7 @@
       </c>
       <c r="AC81" s="27"/>
       <c r="AD81" s="27" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AE81" s="27" t="s">
         <v>28</v>
@@ -6874,7 +6950,7 @@
         <v>135</v>
       </c>
       <c r="D82" s="28" t="s">
-        <v>10</v>
+        <v>344</v>
       </c>
       <c r="E82" s="28" t="s">
         <v>118</v>
@@ -6914,7 +6990,7 @@
       </c>
       <c r="AC82" s="27"/>
       <c r="AD82" s="27" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AE82" s="27" t="s">
         <v>28</v>
@@ -6932,7 +7008,7 @@
         <v>136</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>6</v>
+        <v>345</v>
       </c>
       <c r="E83" s="17" t="s">
         <v>153</v>
@@ -6972,7 +7048,7 @@
       </c>
       <c r="AC83" s="19"/>
       <c r="AD83" s="19" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AE83" s="19" t="s">
         <v>28</v>
@@ -6990,7 +7066,7 @@
         <v>137</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>10</v>
+        <v>344</v>
       </c>
       <c r="E84" s="17" t="s">
         <v>119</v>
@@ -7030,7 +7106,7 @@
       </c>
       <c r="AC84" s="19"/>
       <c r="AD84" s="19" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AE84" s="19" t="s">
         <v>28</v>
@@ -7048,7 +7124,7 @@
         <v>138</v>
       </c>
       <c r="D85" s="28" t="s">
-        <v>7</v>
+        <v>346</v>
       </c>
       <c r="E85" s="28" t="s">
         <v>120</v>
@@ -7088,7 +7164,7 @@
       </c>
       <c r="AC85" s="27"/>
       <c r="AD85" s="27" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AE85" s="27" t="s">
         <v>28</v>
@@ -7106,7 +7182,7 @@
         <v>139</v>
       </c>
       <c r="D86" s="28" t="s">
-        <v>10</v>
+        <v>344</v>
       </c>
       <c r="E86" s="28" t="s">
         <v>112</v>
@@ -7146,7 +7222,7 @@
       </c>
       <c r="AC86" s="27"/>
       <c r="AD86" s="27" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AE86" s="27" t="s">
         <v>28</v>
@@ -7164,7 +7240,7 @@
         <v>140</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>7</v>
+        <v>346</v>
       </c>
       <c r="E87" s="17" t="s">
         <v>121</v>
@@ -7204,7 +7280,7 @@
       </c>
       <c r="AC87" s="19"/>
       <c r="AD87" s="19" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AE87" s="19" t="s">
         <v>28</v>
@@ -7222,7 +7298,7 @@
         <v>142</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>10</v>
+        <v>344</v>
       </c>
       <c r="E88" s="17" t="s">
         <v>111</v>
@@ -7262,7 +7338,7 @@
       </c>
       <c r="AC88" s="19"/>
       <c r="AD88" s="19" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AE88" s="19" t="s">
         <v>28</v>
@@ -7280,7 +7356,7 @@
         <v>143</v>
       </c>
       <c r="D89" s="28" t="s">
-        <v>7</v>
+        <v>346</v>
       </c>
       <c r="E89" s="28" t="s">
         <v>122</v>
@@ -7320,7 +7396,7 @@
       </c>
       <c r="AC89" s="27"/>
       <c r="AD89" s="27" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AE89" s="27" t="s">
         <v>28</v>
@@ -7338,7 +7414,7 @@
         <v>144</v>
       </c>
       <c r="D90" s="28" t="s">
-        <v>10</v>
+        <v>344</v>
       </c>
       <c r="E90" s="28" t="s">
         <v>110</v>
@@ -7378,7 +7454,7 @@
       </c>
       <c r="AC90" s="27"/>
       <c r="AD90" s="27" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AE90" s="27" t="s">
         <v>28</v>
@@ -7396,10 +7472,10 @@
         <v>145</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>7</v>
+        <v>346</v>
       </c>
       <c r="E91" s="17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F91" s="17"/>
       <c r="G91" s="17"/>
@@ -7436,7 +7512,7 @@
       </c>
       <c r="AC91" s="19"/>
       <c r="AD91" s="19" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="AE91" s="19" t="s">
         <v>28</v>
@@ -7456,10 +7532,10 @@
         <v>146</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>10</v>
+        <v>344</v>
       </c>
       <c r="E92" s="17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F92" s="17"/>
       <c r="G92" s="17"/>
@@ -7496,7 +7572,7 @@
       </c>
       <c r="AC92" s="19"/>
       <c r="AD92" s="19" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="AE92" s="19" t="s">
         <v>28</v>
@@ -7513,13 +7589,13 @@
         <v>0</v>
       </c>
       <c r="C93" s="21" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D93" s="21" t="s">
-        <v>314</v>
+        <v>338</v>
       </c>
       <c r="E93" s="21" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F93" s="21"/>
       <c r="G93" s="21"/>
@@ -7570,7 +7646,7 @@
         <v>147</v>
       </c>
       <c r="D94" s="28" t="s">
-        <v>9</v>
+        <v>347</v>
       </c>
       <c r="E94" s="28" t="s">
         <v>8</v>
@@ -7610,7 +7686,7 @@
       </c>
       <c r="AC94" s="27"/>
       <c r="AD94" s="27" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AE94" s="27" t="s">
         <v>28</v>
@@ -7628,7 +7704,7 @@
         <v>148</v>
       </c>
       <c r="D95" s="28" t="s">
-        <v>10</v>
+        <v>344</v>
       </c>
       <c r="E95" s="28" t="s">
         <v>124</v>
@@ -7668,7 +7744,7 @@
       </c>
       <c r="AC95" s="27"/>
       <c r="AD95" s="27" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AE95" s="27" t="s">
         <v>28</v>
@@ -7686,7 +7762,7 @@
         <v>149</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>9</v>
+        <v>347</v>
       </c>
       <c r="E96" s="17" t="s">
         <v>33</v>
@@ -7726,7 +7802,7 @@
       </c>
       <c r="AC96" s="19"/>
       <c r="AD96" s="19" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AE96" s="19" t="s">
         <v>28</v>
@@ -7744,7 +7820,7 @@
         <v>150</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>10</v>
+        <v>344</v>
       </c>
       <c r="E97" s="17" t="s">
         <v>123</v>
@@ -7784,7 +7860,7 @@
       </c>
       <c r="AC97" s="19"/>
       <c r="AD97" s="19" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AE97" s="19" t="s">
         <v>28</v>
@@ -7802,7 +7878,7 @@
         <v>151</v>
       </c>
       <c r="D98" s="28" t="s">
-        <v>10</v>
+        <v>344</v>
       </c>
       <c r="E98" s="28" t="s">
         <v>129</v>
@@ -7842,7 +7918,7 @@
       </c>
       <c r="AC98" s="27"/>
       <c r="AD98" s="27" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AE98" s="27" t="s">
         <v>27</v>
@@ -7896,7 +7972,7 @@
         <v>141</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>109</v>
+        <v>348</v>
       </c>
       <c r="E100" s="17" t="s">
         <v>157</v>
@@ -7936,7 +8012,7 @@
       </c>
       <c r="AC100" s="19"/>
       <c r="AD100" s="19" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AE100" s="19" t="s">
         <v>28</v>
@@ -7954,7 +8030,7 @@
         <v>166</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>156</v>
+        <v>349</v>
       </c>
       <c r="E101" s="17" t="s">
         <v>167</v>
@@ -7994,7 +8070,7 @@
       </c>
       <c r="AC101" s="19"/>
       <c r="AD101" s="19" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AE101" s="19" t="s">
         <v>28</v>
@@ -8048,7 +8124,7 @@
         <v>171</v>
       </c>
       <c r="D103" s="21" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E103" s="32" t="s">
         <v>175</v>
@@ -8090,7 +8166,7 @@
       </c>
       <c r="AC103" s="23"/>
       <c r="AD103" s="19" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AE103" s="19" t="s">
         <v>27</v>
@@ -8101,7 +8177,7 @@
     </row>
     <row r="104" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A104" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B104" s="10"/>
       <c r="C104" s="10"/>
@@ -8143,13 +8219,13 @@
         <v>0</v>
       </c>
       <c r="C105" s="40" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D105" s="40" t="s">
-        <v>269</v>
+        <v>350</v>
       </c>
       <c r="E105" s="41" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F105" s="41">
         <v>8</v>
@@ -8199,13 +8275,13 @@
         <v>0</v>
       </c>
       <c r="C106" s="40" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D106" s="40" t="s">
-        <v>269</v>
+        <v>350</v>
       </c>
       <c r="E106" s="41" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F106" s="41">
         <v>8</v>
@@ -8255,13 +8331,13 @@
         <v>0</v>
       </c>
       <c r="C107" s="40" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D107" s="40" t="s">
-        <v>269</v>
+        <v>350</v>
       </c>
       <c r="E107" s="41" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F107" s="41">
         <v>8</v>
@@ -8311,13 +8387,13 @@
         <v>0</v>
       </c>
       <c r="C108" s="21" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D108" s="21" t="s">
-        <v>269</v>
+        <v>350</v>
       </c>
       <c r="E108" s="32" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F108" s="32">
         <v>8</v>
@@ -8365,13 +8441,13 @@
         <v>0</v>
       </c>
       <c r="C109" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="D109" s="21" t="s">
+        <v>350</v>
+      </c>
+      <c r="E109" s="32" t="s">
         <v>274</v>
-      </c>
-      <c r="D109" s="21" t="s">
-        <v>269</v>
-      </c>
-      <c r="E109" s="32" t="s">
-        <v>276</v>
       </c>
       <c r="F109" s="32">
         <v>8</v>
@@ -8419,13 +8495,13 @@
         <v>0</v>
       </c>
       <c r="C110" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="D110" s="21" t="s">
+        <v>350</v>
+      </c>
+      <c r="E110" s="32" t="s">
         <v>275</v>
-      </c>
-      <c r="D110" s="21" t="s">
-        <v>269</v>
-      </c>
-      <c r="E110" s="32" t="s">
-        <v>277</v>
       </c>
       <c r="F110" s="32">
         <v>8</v>
@@ -8473,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="C111" s="40" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D111" s="40" t="s">
-        <v>269</v>
+        <v>350</v>
       </c>
       <c r="E111" s="41" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F111" s="41">
         <v>8</v>
@@ -8508,7 +8584,7 @@
         <v>0</v>
       </c>
       <c r="V111" s="43" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="W111" s="40"/>
       <c r="X111" s="39"/>
@@ -8529,13 +8605,13 @@
         <v>0</v>
       </c>
       <c r="C112" s="40" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D112" s="40" t="s">
-        <v>269</v>
+        <v>350</v>
       </c>
       <c r="E112" s="41" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F112" s="41">
         <v>8</v>
@@ -8564,7 +8640,7 @@
         <v>0</v>
       </c>
       <c r="V112" s="43" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="W112" s="40"/>
       <c r="X112" s="39"/>
@@ -8585,10 +8661,10 @@
         <v>0</v>
       </c>
       <c r="C113" s="40" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D113" s="40" t="s">
-        <v>269</v>
+        <v>350</v>
       </c>
       <c r="E113" s="41" t="s">
         <v>48</v>
@@ -8620,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="V113" s="43" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="W113" s="40"/>
       <c r="X113" s="39"/>
@@ -8639,7 +8715,7 @@
   <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5EA153F9-C5B8-4862-A9CE-AB94CB69D12A}">
           <x14:formula1>
             <xm:f>Tables!#REF!</xm:f>
@@ -8670,12 +8746,6 @@
           </x14:formula1>
           <xm:sqref>Y2:Y113 AD2:AD113</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{000CBC19-A464-4694-A3AD-9D82A1CE6A27}">
-          <x14:formula1>
-            <xm:f>Tables!$I$2:$I$49</xm:f>
-          </x14:formula1>
-          <xm:sqref>D2:D113</xm:sqref>
-        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -8684,6 +8754,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8F0DF1A-7900-47BA-8B9D-42C3E7E31390}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8701,7 +8772,7 @@
   <sheetData>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="54" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B2" s="55"/>
       <c r="C2" s="55"/>
@@ -8727,13 +8798,13 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="57" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B4" s="57"/>
       <c r="C4" s="57"/>
       <c r="D4" s="57"/>
       <c r="F4" s="58" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G4" s="58"/>
       <c r="H4" s="58"/>
@@ -8748,49 +8819,49 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B5" s="38" t="s">
+        <v>234</v>
+      </c>
+      <c r="C5" s="38" t="s">
         <v>235</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="D5" s="38" t="s">
         <v>236</v>
       </c>
-      <c r="D5" s="38" t="s">
-        <v>237</v>
-      </c>
       <c r="F5" s="38" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G5" s="38" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H5" s="38" t="s">
+        <v>238</v>
+      </c>
+      <c r="I5" s="38" t="s">
         <v>239</v>
       </c>
-      <c r="I5" s="38" t="s">
+      <c r="J5" s="38" t="s">
         <v>240</v>
       </c>
-      <c r="J5" s="38" t="s">
+      <c r="K5" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="K5" s="38" t="s">
+      <c r="L5" s="38" t="s">
         <v>242</v>
       </c>
-      <c r="L5" s="38" t="s">
+      <c r="M5" s="38" t="s">
         <v>243</v>
       </c>
-      <c r="M5" s="38" t="s">
+      <c r="N5" s="38" t="s">
         <v>244</v>
-      </c>
-      <c r="N5" s="38" t="s">
-        <v>245</v>
       </c>
       <c r="O5" s="38" t="s">
         <v>10</v>
       </c>
       <c r="P5" s="38" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -8859,7 +8930,7 @@
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
       <c r="F9" s="59" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G9" s="60"/>
       <c r="H9" s="60"/>
@@ -8877,7 +8948,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F10" s="65" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G10" s="60"/>
       <c r="H10" s="60"/>
@@ -8886,7 +8957,7 @@
       <c r="K10" s="60"/>
       <c r="L10" s="60"/>
       <c r="M10" s="63" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="N10" s="63"/>
       <c r="O10" s="64"/>
@@ -8896,7 +8967,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F11" s="62" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G11" s="60"/>
       <c r="H11" s="60"/>
@@ -8929,6 +9000,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E06A7CC-7A58-4BCC-B48C-DB107FF0CF1F}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A3:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8944,69 +9016,69 @@
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="66" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B3" s="66"/>
       <c r="C3" s="66"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
+        <v>247</v>
+      </c>
+      <c r="B4" s="38" t="s">
         <v>248</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="C4" s="38" t="s">
         <v>249</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B5" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>255</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="37" t="s">
+        <v>258</v>
+      </c>
+      <c r="B6" s="37" t="s">
         <v>259</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="C6" s="37" t="s">
         <v>260</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="37" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
@@ -9022,6 +9094,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0736EE8-23D0-4513-9563-3C6A65BAEEB4}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9038,7 +9111,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="39" t="s">
@@ -9046,14 +9119,14 @@
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="40" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="45" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="I1" s="42" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9074,7 +9147,7 @@
         <v>6</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="I3" s="47" t="s">
         <v>109</v>
@@ -9088,13 +9161,13 @@
         <v>29</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="I4" s="47" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -9108,7 +9181,7 @@
         <v>8</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="I5" s="47" t="s">
         <v>5</v>
@@ -9116,16 +9189,16 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>27</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="I6" s="47" t="s">
         <v>7</v>
@@ -9139,7 +9212,7 @@
         <v>9</v>
       </c>
       <c r="I7" s="47" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -9147,7 +9220,7 @@
         <v>25</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I8" s="47" t="s">
         <v>10</v>
@@ -9155,13 +9228,13 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E9" s="16">
         <v>10</v>
       </c>
       <c r="I9" s="47" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -9172,7 +9245,7 @@
         <v>172</v>
       </c>
       <c r="I10" s="51" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -9183,7 +9256,7 @@
         <v>11</v>
       </c>
       <c r="I11" s="47" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -9191,7 +9264,7 @@
         <v>24</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I12" s="47" t="s">
         <v>18</v>
@@ -9199,21 +9272,21 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="53" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E13" s="16">
         <v>12</v>
       </c>
       <c r="I13" s="47" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E14" s="16" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I14" s="47" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -9221,12 +9294,12 @@
         <v>14</v>
       </c>
       <c r="I15" s="47" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E16" s="46" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I16" s="51" t="s">
         <v>3</v>
@@ -9234,7 +9307,7 @@
     </row>
     <row r="17" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I17" s="47" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="18" spans="9:9" x14ac:dyDescent="0.25">
@@ -9244,17 +9317,17 @@
     </row>
     <row r="19" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I19" s="47" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="20" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I20" s="47" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="21" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I21" s="47" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="22" spans="9:9" x14ac:dyDescent="0.25">
@@ -9264,12 +9337,12 @@
     </row>
     <row r="23" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I23" s="47" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="24" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I24" s="47" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="25" spans="9:9" x14ac:dyDescent="0.25">
@@ -9284,7 +9357,7 @@
     </row>
     <row r="27" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I27" s="47" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="28" spans="9:9" x14ac:dyDescent="0.25">
@@ -9294,22 +9367,22 @@
     </row>
     <row r="29" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I29" s="51" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="30" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I30" s="47" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="31" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I31" s="47" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="32" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I32" s="47" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="33" spans="9:9" x14ac:dyDescent="0.25">
@@ -9319,7 +9392,7 @@
     </row>
     <row r="34" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I34" s="47" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="35" spans="9:9" x14ac:dyDescent="0.25">
@@ -9334,27 +9407,27 @@
     </row>
     <row r="37" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I37" s="47" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="38" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I38" s="47" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="39" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I39" s="47" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="40" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I40" s="47" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="41" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I41" s="47" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="42" spans="9:9" x14ac:dyDescent="0.25">
@@ -9369,12 +9442,12 @@
     </row>
     <row r="44" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I44" s="47" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="45" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I45" s="47" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="46" spans="9:9" x14ac:dyDescent="0.25">
@@ -9384,7 +9457,7 @@
     </row>
     <row r="47" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I47" s="47" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="48" spans="9:9" x14ac:dyDescent="0.25">
@@ -9394,7 +9467,7 @@
     </row>
     <row r="49" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I49" s="52" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>

--- a/Data/ScriptData/Advocate_ArchitectDataBlueprinting.xlsx
+++ b/Data/ScriptData/Advocate_ArchitectDataBlueprinting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Omnicell_Blueprinting_Tool\Data\ScriptData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C897C30B-6F60-470E-8C9D-2240C3485CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73538159-1AB8-48D4-9EE1-3C7DA049112D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24930" yWindow="915" windowWidth="22200" windowHeight="14415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="353">
   <si>
     <t>Shape</t>
   </si>
@@ -521,9 +521,6 @@
   </si>
   <si>
     <t>CCF Server</t>
-  </si>
-  <si>
-    <t>Square:BDLogistics</t>
   </si>
   <si>
     <t>Process1:BDRefill1</t>
@@ -1125,9 +1122,6 @@
     <t>; Configuration</t>
   </si>
   <si>
-    <t>Template</t>
-  </si>
-  <si>
     <t>Stencil</t>
   </si>
   <si>
@@ -1137,9 +1131,6 @@
     <t>Title_Advocate:1</t>
   </si>
   <si>
-    <t>C:\Omnicell_Blueprinting_Tool\Data\Templates\OC_BlueprintingTemplate.vstx</t>
-  </si>
-  <si>
     <t>Line Pattern</t>
   </si>
   <si>
@@ -1218,9 +1209,6 @@
     <t>Group4</t>
   </si>
   <si>
-    <t>Using a Visio Template that contains standard Stencils</t>
-  </si>
-  <si>
     <t>Account Custom Stencil</t>
   </si>
   <si>
@@ -1324,6 +1312,70 @@
   </si>
   <si>
     <t>OC_TableCell</t>
+  </si>
+  <si>
+    <t>Rectangle:BDLogistics</t>
+  </si>
+  <si>
+    <t>Page Setup</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">• Orientation: Landscape or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Portrait</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (default)
+• Size: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Letter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (default), Tabloid, Ledger, Legal, A3, A4</t>
+    </r>
+  </si>
+  <si>
+    <t>Portrait:Letter</t>
+  </si>
+  <si>
+    <t>Autosize:false</t>
+  </si>
+  <si>
+    <t>• true - Autosize all pages
+• false - (default) don't Autosize the pages</t>
   </si>
 </sst>
 </file>
@@ -2499,11 +2551,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF113"/>
+  <dimension ref="A1:AF114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D109" sqref="D109"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2543,46 +2595,46 @@
   <sheetData>
     <row r="1" spans="1:32" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B1" s="49" t="s">
+        <v>175</v>
+      </c>
+      <c r="C1" s="49" t="s">
+        <v>323</v>
+      </c>
+      <c r="D1" s="49" t="s">
         <v>176</v>
       </c>
-      <c r="C1" s="49" t="s">
-        <v>327</v>
-      </c>
-      <c r="D1" s="49" t="s">
+      <c r="E1" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>178</v>
-      </c>
       <c r="F1" s="5" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>198</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>199</v>
       </c>
       <c r="O1" s="6" t="s">
         <v>17</v>
@@ -2591,7 +2643,7 @@
         <v>16</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="R1" s="50" t="s">
         <v>12</v>
@@ -2606,42 +2658,42 @@
         <v>15</v>
       </c>
       <c r="V1" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="W1" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="X1" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="X1" s="33" t="s">
+      <c r="Y1" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="Y1" s="33" t="s">
+      <c r="Z1" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="Z1" s="33" t="s">
+      <c r="AA1" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="AA1" s="33" t="s">
+      <c r="AB1" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="AB1" s="9" t="s">
+      <c r="AC1" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="AC1" s="34" t="s">
+      <c r="AD1" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="AD1" s="34" t="s">
+      <c r="AE1" s="34" t="s">
         <v>189</v>
       </c>
-      <c r="AE1" s="34" t="s">
+      <c r="AF1" s="34" t="s">
         <v>190</v>
-      </c>
-      <c r="AF1" s="34" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -2676,18 +2728,18 @@
       <c r="AF2" s="12"/>
     </row>
     <row r="3" spans="1:32" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>326</v>
-      </c>
-      <c r="B3" s="44" t="s">
-        <v>284</v>
-      </c>
-      <c r="C3" s="44" t="s">
-        <v>288</v>
-      </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21" t="s">
-        <v>315</v>
+      <c r="A3" s="19">
+        <v>0</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17" t="s">
+        <v>312</v>
       </c>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
@@ -2730,14 +2782,14 @@
         <v>0</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>325</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="17" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
@@ -2776,18 +2828,18 @@
       <c r="AF4" s="23"/>
     </row>
     <row r="5" spans="1:32" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="19">
-        <v>0</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>285</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>329</v>
-      </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17" t="s">
-        <v>316</v>
+      <c r="A5" s="16">
+        <v>0</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>348</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>350</v>
+      </c>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44" t="s">
+        <v>349</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
@@ -2816,102 +2868,102 @@
       <c r="V5" s="24"/>
       <c r="W5" s="21"/>
       <c r="X5" s="23"/>
-      <c r="Y5" s="19"/>
-      <c r="Z5" s="19"/>
+      <c r="Y5" s="16"/>
+      <c r="Z5" s="16"/>
       <c r="AA5" s="23"/>
       <c r="AB5" s="23"/>
       <c r="AC5" s="23"/>
-      <c r="AD5" s="19"/>
-      <c r="AE5" s="19"/>
+      <c r="AD5" s="16"/>
+      <c r="AE5" s="16"/>
       <c r="AF5" s="23"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12"/>
-      <c r="AA6" s="12"/>
-      <c r="AB6" s="12"/>
-      <c r="AC6" s="12"/>
-      <c r="AD6" s="12"/>
-      <c r="AE6" s="12"/>
-      <c r="AF6" s="12"/>
-    </row>
-    <row r="7" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23">
-        <v>1</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>330</v>
-      </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="24">
-        <v>0.25</v>
-      </c>
-      <c r="S7" s="24">
-        <v>10.75</v>
-      </c>
-      <c r="T7" s="24">
-        <v>0</v>
-      </c>
-      <c r="U7" s="24">
-        <v>0</v>
-      </c>
-      <c r="V7" s="24"/>
-      <c r="W7" s="21"/>
-      <c r="X7" s="23"/>
-      <c r="Y7" s="19"/>
-      <c r="Z7" s="19"/>
-      <c r="AA7" s="23"/>
-      <c r="AB7" s="23"/>
-      <c r="AC7" s="23"/>
-      <c r="AD7" s="19"/>
-      <c r="AE7" s="19"/>
-      <c r="AF7" s="23"/>
-    </row>
-    <row r="8" spans="1:32" s="25" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>348</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>351</v>
+      </c>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44" t="s">
+        <v>352</v>
+      </c>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="24">
+        <v>0</v>
+      </c>
+      <c r="S6" s="24">
+        <v>0</v>
+      </c>
+      <c r="T6" s="24">
+        <v>0</v>
+      </c>
+      <c r="U6" s="24">
+        <v>0</v>
+      </c>
+      <c r="V6" s="24"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="23"/>
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="16"/>
+      <c r="AA6" s="23"/>
+      <c r="AB6" s="23"/>
+      <c r="AC6" s="23"/>
+      <c r="AD6" s="16"/>
+      <c r="AE6" s="16"/>
+      <c r="AF6" s="23"/>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12"/>
+      <c r="AB7" s="12"/>
+      <c r="AC7" s="12"/>
+      <c r="AD7" s="12"/>
+      <c r="AE7" s="12"/>
+      <c r="AF7" s="12"/>
+    </row>
+    <row r="8" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="23">
         <v>1</v>
       </c>
@@ -2919,23 +2971,17 @@
         <v>0</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>287</v>
+        <v>60</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>320</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>226</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="E8" s="21"/>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
-      <c r="I8" s="21" t="s">
-        <v>201</v>
-      </c>
-      <c r="J8" s="21" t="s">
-        <v>200</v>
-      </c>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
       <c r="K8" s="21"/>
       <c r="L8" s="21"/>
       <c r="M8" s="21"/>
@@ -2944,7 +2990,7 @@
       <c r="P8" s="22"/>
       <c r="Q8" s="23"/>
       <c r="R8" s="24">
-        <v>3.125</v>
+        <v>0.25</v>
       </c>
       <c r="S8" s="24">
         <v>10.75</v>
@@ -2967,7 +3013,7 @@
       <c r="AE8" s="19"/>
       <c r="AF8" s="23"/>
     </row>
-    <row r="9" spans="1:32" s="25" customFormat="1" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" s="25" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="23">
         <v>1</v>
       </c>
@@ -2975,41 +3021,43 @@
         <v>0</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>59</v>
+        <v>285</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="F9" s="21">
-        <v>9</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="F9" s="21"/>
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
+      <c r="I9" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="J9" s="21" t="s">
+        <v>199</v>
+      </c>
       <c r="K9" s="21"/>
       <c r="L9" s="21"/>
       <c r="M9" s="21"/>
       <c r="N9" s="21"/>
       <c r="O9" s="22"/>
       <c r="P9" s="22"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="26">
-        <v>0.25</v>
-      </c>
-      <c r="S9" s="26">
-        <v>1.75</v>
-      </c>
-      <c r="T9" s="26">
-        <v>0</v>
-      </c>
-      <c r="U9" s="26">
-        <v>1.125</v>
-      </c>
-      <c r="V9" s="21"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="24">
+        <v>3.125</v>
+      </c>
+      <c r="S9" s="24">
+        <v>10.75</v>
+      </c>
+      <c r="T9" s="24">
+        <v>0</v>
+      </c>
+      <c r="U9" s="24">
+        <v>0</v>
+      </c>
+      <c r="V9" s="24"/>
       <c r="W9" s="21"/>
       <c r="X9" s="23"/>
       <c r="Y9" s="19"/>
@@ -3021,95 +3069,97 @@
       <c r="AE9" s="19"/>
       <c r="AF9" s="23"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+    <row r="10" spans="1:32" s="25" customFormat="1" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="23">
+        <v>1</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="F10" s="21">
+        <v>9</v>
+      </c>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="26">
+        <v>0.25</v>
+      </c>
+      <c r="S10" s="26">
+        <v>1.8125</v>
+      </c>
+      <c r="T10" s="26">
+        <v>0</v>
+      </c>
+      <c r="U10" s="26">
+        <v>1.125</v>
+      </c>
+      <c r="V10" s="21"/>
+      <c r="W10" s="21"/>
+      <c r="X10" s="23"/>
+      <c r="Y10" s="19"/>
+      <c r="Z10" s="19"/>
+      <c r="AA10" s="23"/>
+      <c r="AB10" s="23"/>
+      <c r="AC10" s="23"/>
+      <c r="AD10" s="19"/>
+      <c r="AE10" s="19"/>
+      <c r="AF10" s="23"/>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="12"/>
-      <c r="Y10" s="12"/>
-      <c r="Z10" s="12"/>
-      <c r="AA10" s="12"/>
-      <c r="AB10" s="12"/>
-      <c r="AC10" s="12"/>
-      <c r="AD10" s="12"/>
-      <c r="AE10" s="12"/>
-      <c r="AF10" s="12"/>
-    </row>
-    <row r="11" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="23">
-        <v>1</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>332</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="24">
-        <v>0.25</v>
-      </c>
-      <c r="S11" s="24">
-        <v>9.875</v>
-      </c>
-      <c r="T11" s="24">
-        <v>2.4590000000000001</v>
-      </c>
-      <c r="U11" s="24">
-        <v>1.9</v>
-      </c>
-      <c r="V11" s="24"/>
-      <c r="W11" s="21"/>
-      <c r="X11" s="23"/>
-      <c r="Y11" s="19"/>
-      <c r="Z11" s="19"/>
-      <c r="AA11" s="23"/>
-      <c r="AB11" s="21"/>
-      <c r="AC11" s="23"/>
-      <c r="AD11" s="19"/>
-      <c r="AE11" s="19"/>
-      <c r="AF11" s="23"/>
-    </row>
-    <row r="12" spans="1:32" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="12"/>
+      <c r="AB11" s="12"/>
+      <c r="AC11" s="12"/>
+      <c r="AD11" s="12"/>
+      <c r="AE11" s="12"/>
+      <c r="AF11" s="12"/>
+    </row>
+    <row r="12" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <v>1</v>
       </c>
@@ -3117,13 +3167,13 @@
         <v>0</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
@@ -3138,38 +3188,28 @@
       <c r="P12" s="22"/>
       <c r="Q12" s="23"/>
       <c r="R12" s="24">
-        <v>0.61299999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="S12" s="24">
-        <v>9.6509999999999998</v>
+        <v>9.875</v>
       </c>
       <c r="T12" s="24">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="U12" s="24">
-        <v>0</v>
-      </c>
-      <c r="V12" s="24" t="s">
-        <v>282</v>
-      </c>
+        <v>2.4</v>
+      </c>
+      <c r="V12" s="24"/>
       <c r="W12" s="21"/>
       <c r="X12" s="23"/>
       <c r="Y12" s="19"/>
       <c r="Z12" s="19"/>
       <c r="AA12" s="23"/>
-      <c r="AB12" s="21" t="s">
-        <v>95</v>
-      </c>
+      <c r="AB12" s="21"/>
       <c r="AC12" s="23"/>
-      <c r="AD12" s="19" t="s">
-        <v>290</v>
-      </c>
-      <c r="AE12" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF12" s="23" t="s">
-        <v>20</v>
-      </c>
+      <c r="AD12" s="19"/>
+      <c r="AE12" s="19"/>
+      <c r="AF12" s="23"/>
     </row>
     <row r="13" spans="1:32" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
@@ -3179,13 +3219,13 @@
         <v>0</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
@@ -3200,10 +3240,10 @@
       <c r="P13" s="22"/>
       <c r="Q13" s="23"/>
       <c r="R13" s="24">
-        <v>0.69699999999999995</v>
+        <v>0.375</v>
       </c>
       <c r="S13" s="24">
-        <v>8.9459999999999997</v>
+        <v>9.25</v>
       </c>
       <c r="T13" s="24">
         <v>0</v>
@@ -3212,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="V13" s="24" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="W13" s="21"/>
       <c r="X13" s="23"/>
@@ -3220,11 +3260,11 @@
       <c r="Z13" s="19"/>
       <c r="AA13" s="23"/>
       <c r="AB13" s="21" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="AC13" s="23"/>
       <c r="AD13" s="19" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="AE13" s="19" t="s">
         <v>27</v>
@@ -3244,10 +3284,10 @@
         <v>94</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
@@ -3262,10 +3302,10 @@
       <c r="P14" s="22"/>
       <c r="Q14" s="23"/>
       <c r="R14" s="24">
-        <v>2.25</v>
+        <v>0.375</v>
       </c>
       <c r="S14" s="24">
-        <v>9.6720000000000006</v>
+        <v>7.625</v>
       </c>
       <c r="T14" s="24">
         <v>0</v>
@@ -3274,29 +3314,19 @@
         <v>0</v>
       </c>
       <c r="V14" s="24" t="s">
-        <v>282</v>
-      </c>
-      <c r="W14" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="X14" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y14" s="19" t="s">
-        <v>290</v>
-      </c>
-      <c r="Z14" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA14" s="23" t="s">
-        <v>21</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="W14" s="21"/>
+      <c r="X14" s="23"/>
+      <c r="Y14" s="19"/>
+      <c r="Z14" s="19"/>
+      <c r="AA14" s="23"/>
       <c r="AB14" s="21" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="AC14" s="23"/>
       <c r="AD14" s="19" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="AE14" s="19" t="s">
         <v>27</v>
@@ -3313,13 +3343,13 @@
         <v>0</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>96</v>
+        <v>347</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
@@ -3334,10 +3364,10 @@
       <c r="P15" s="22"/>
       <c r="Q15" s="23"/>
       <c r="R15" s="24">
-        <v>1.6439999999999999</v>
+        <v>1.6040000000000001</v>
       </c>
       <c r="S15" s="24">
-        <v>8.9459999999999997</v>
+        <v>9.25</v>
       </c>
       <c r="T15" s="24">
         <v>0</v>
@@ -3346,19 +3376,29 @@
         <v>0</v>
       </c>
       <c r="V15" s="24" t="s">
-        <v>282</v>
-      </c>
-      <c r="W15" s="21"/>
-      <c r="X15" s="23"/>
-      <c r="Y15" s="19"/>
-      <c r="Z15" s="19"/>
-      <c r="AA15" s="23"/>
+        <v>281</v>
+      </c>
+      <c r="W15" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="X15" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y15" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="Z15" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA15" s="23" t="s">
+        <v>21</v>
+      </c>
       <c r="AB15" s="21" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="AC15" s="23"/>
       <c r="AD15" s="19" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="AE15" s="19" t="s">
         <v>27</v>
@@ -3375,13 +3415,13 @@
         <v>0</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="F16" s="21"/>
       <c r="G16" s="21"/>
@@ -3396,10 +3436,10 @@
       <c r="P16" s="22"/>
       <c r="Q16" s="23"/>
       <c r="R16" s="24">
-        <v>2.7749999999999999</v>
+        <v>1.6040000000000001</v>
       </c>
       <c r="S16" s="24">
-        <v>8.25</v>
+        <v>8.3759999999999994</v>
       </c>
       <c r="T16" s="24">
         <v>0</v>
@@ -3408,126 +3448,138 @@
         <v>0</v>
       </c>
       <c r="V16" s="24" t="s">
-        <v>282</v>
-      </c>
-      <c r="W16" s="23" t="s">
+        <v>281</v>
+      </c>
+      <c r="W16" s="21"/>
+      <c r="X16" s="23"/>
+      <c r="Y16" s="19"/>
+      <c r="Z16" s="19"/>
+      <c r="AA16" s="23"/>
+      <c r="AB16" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC16" s="23"/>
+      <c r="AD16" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="AE16" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF16" s="23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="23">
+        <v>1</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="24">
+        <v>3</v>
+      </c>
+      <c r="S17" s="24">
+        <v>7.5</v>
+      </c>
+      <c r="T17" s="24">
+        <v>0</v>
+      </c>
+      <c r="U17" s="24">
+        <v>0</v>
+      </c>
+      <c r="V17" s="24" t="s">
+        <v>281</v>
+      </c>
+      <c r="W17" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="X16" s="23" t="s">
+      <c r="X17" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="Y16" s="19" t="s">
-        <v>290</v>
-      </c>
-      <c r="Z16" s="23" t="s">
+      <c r="Y17" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="Z17" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="AA16" s="23" t="s">
+      <c r="AA17" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="AB16" s="23" t="s">
+      <c r="AB17" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="AC16" s="23" t="s">
+      <c r="AC17" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="AD16" s="19" t="s">
-        <v>290</v>
-      </c>
-      <c r="AE16" s="23" t="s">
+      <c r="AD17" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="AE17" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="AF16" s="23" t="s">
+      <c r="AF17" s="23" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="13"/>
-      <c r="V17" s="13"/>
-      <c r="W17" s="10"/>
-      <c r="X17" s="12"/>
-      <c r="Y17" s="12"/>
-      <c r="Z17" s="12"/>
-      <c r="AA17" s="12"/>
-      <c r="AB17" s="12"/>
-      <c r="AC17" s="12"/>
-      <c r="AD17" s="12"/>
-      <c r="AE17" s="12"/>
-      <c r="AF17" s="12"/>
-    </row>
-    <row r="18" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="23">
-        <v>1</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>334</v>
-      </c>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="20">
-        <v>0.2853</v>
-      </c>
-      <c r="S18" s="20">
-        <v>3.3980000000000001</v>
-      </c>
-      <c r="T18" s="20">
-        <v>2.58</v>
-      </c>
-      <c r="U18" s="20">
-        <v>1.35</v>
-      </c>
-      <c r="V18" s="20"/>
-      <c r="W18" s="17"/>
-      <c r="X18" s="19"/>
-      <c r="Y18" s="19"/>
-      <c r="Z18" s="19"/>
-      <c r="AA18" s="19"/>
-      <c r="AB18" s="19"/>
-      <c r="AC18" s="19"/>
-      <c r="AD18" s="19"/>
-      <c r="AE18" s="19"/>
-      <c r="AF18" s="19"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="12"/>
+      <c r="Z18" s="12"/>
+      <c r="AA18" s="12"/>
+      <c r="AB18" s="12"/>
+      <c r="AC18" s="12"/>
+      <c r="AD18" s="12"/>
+      <c r="AE18" s="12"/>
+      <c r="AF18" s="12"/>
     </row>
     <row r="19" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
@@ -3537,14 +3589,12 @@
         <v>0</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>333</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>41</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="E19" s="17"/>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
@@ -3558,20 +3608,18 @@
       <c r="P19" s="18"/>
       <c r="Q19" s="19"/>
       <c r="R19" s="20">
-        <v>1.032</v>
+        <v>0.2853</v>
       </c>
       <c r="S19" s="20">
-        <v>2.742</v>
-      </c>
-      <c r="T19" s="24">
-        <v>0</v>
-      </c>
-      <c r="U19" s="24">
-        <v>0</v>
-      </c>
-      <c r="V19" s="20" t="s">
-        <v>23</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="T19" s="20">
+        <v>2.58</v>
+      </c>
+      <c r="U19" s="20">
+        <v>1.35</v>
+      </c>
+      <c r="V19" s="20"/>
       <c r="W19" s="17"/>
       <c r="X19" s="19"/>
       <c r="Y19" s="19"/>
@@ -3591,13 +3639,13 @@
         <v>0</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
@@ -3612,10 +3660,10 @@
       <c r="P20" s="18"/>
       <c r="Q20" s="19"/>
       <c r="R20" s="20">
-        <v>2</v>
+        <v>1.032</v>
       </c>
       <c r="S20" s="20">
-        <v>2.742</v>
+        <v>3.3730000000000002</v>
       </c>
       <c r="T20" s="24">
         <v>0</v>
@@ -3624,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="V20" s="20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="W20" s="17"/>
       <c r="X20" s="19"/>
@@ -3637,7 +3685,7 @@
       <c r="AE20" s="19"/>
       <c r="AF20" s="19"/>
     </row>
-    <row r="21" spans="1:32" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
         <v>1</v>
       </c>
@@ -3645,13 +3693,13 @@
         <v>0</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
@@ -3666,10 +3714,10 @@
       <c r="P21" s="18"/>
       <c r="Q21" s="19"/>
       <c r="R21" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S21" s="20">
-        <v>2.742</v>
+        <v>3.3730000000000002</v>
       </c>
       <c r="T21" s="24">
         <v>0</v>
@@ -3678,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="V21" s="20" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="W21" s="17"/>
       <c r="X21" s="19"/>
@@ -3699,13 +3747,13 @@
         <v>0</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F22" s="17"/>
       <c r="G22" s="17"/>
@@ -3720,10 +3768,10 @@
       <c r="P22" s="18"/>
       <c r="Q22" s="19"/>
       <c r="R22" s="20">
-        <v>0.65400000000000003</v>
+        <v>3</v>
       </c>
       <c r="S22" s="20">
-        <v>2.375</v>
+        <v>3.3730000000000002</v>
       </c>
       <c r="T22" s="24">
         <v>0</v>
@@ -3753,13 +3801,13 @@
         <v>0</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F23" s="17"/>
       <c r="G23" s="17"/>
@@ -3777,7 +3825,7 @@
         <v>0.65400000000000003</v>
       </c>
       <c r="S23" s="20">
-        <v>2.1869999999999998</v>
+        <v>3.0059999999999998</v>
       </c>
       <c r="T23" s="24">
         <v>0</v>
@@ -3786,7 +3834,7 @@
         <v>0</v>
       </c>
       <c r="V23" s="20" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="W23" s="17"/>
       <c r="X23" s="19"/>
@@ -3807,13 +3855,13 @@
         <v>0</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>228</v>
+        <v>36</v>
       </c>
       <c r="F24" s="17"/>
       <c r="G24" s="17"/>
@@ -3831,7 +3879,7 @@
         <v>0.65400000000000003</v>
       </c>
       <c r="S24" s="20">
-        <v>2</v>
+        <v>2.8180000000000001</v>
       </c>
       <c r="T24" s="24">
         <v>0</v>
@@ -3840,7 +3888,7 @@
         <v>0</v>
       </c>
       <c r="V24" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="W24" s="17"/>
       <c r="X24" s="19"/>
@@ -3853,97 +3901,99 @@
       <c r="AE24" s="19"/>
       <c r="AF24" s="19"/>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
+    <row r="25" spans="1:32" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="23">
+        <v>1</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="20">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="S25" s="20">
+        <v>2.6309999999999998</v>
+      </c>
+      <c r="T25" s="24">
+        <v>0</v>
+      </c>
+      <c r="U25" s="24">
+        <v>0</v>
+      </c>
+      <c r="V25" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="W25" s="17"/>
+      <c r="X25" s="19"/>
+      <c r="Y25" s="19"/>
+      <c r="Z25" s="19"/>
+      <c r="AA25" s="19"/>
+      <c r="AB25" s="19"/>
+      <c r="AC25" s="19"/>
+      <c r="AD25" s="19"/>
+      <c r="AE25" s="19"/>
+      <c r="AF25" s="19"/>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="13"/>
-      <c r="S25" s="13"/>
-      <c r="T25" s="13"/>
-      <c r="U25" s="13"/>
-      <c r="V25" s="13"/>
-      <c r="W25" s="10"/>
-      <c r="X25" s="12"/>
-      <c r="Y25" s="12"/>
-      <c r="Z25" s="12"/>
-      <c r="AA25" s="12"/>
-      <c r="AB25" s="12"/>
-      <c r="AC25" s="12"/>
-      <c r="AD25" s="12"/>
-      <c r="AE25" s="12"/>
-      <c r="AF25" s="12"/>
-    </row>
-    <row r="26" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="23">
-        <v>1</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>336</v>
-      </c>
-      <c r="E26" s="21" t="s">
-        <v>229</v>
-      </c>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="22"/>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="23"/>
-      <c r="R26" s="24">
-        <v>3.875</v>
-      </c>
-      <c r="S26" s="24">
-        <v>4.5</v>
-      </c>
-      <c r="T26" s="24">
-        <v>4.5</v>
-      </c>
-      <c r="U26" s="24">
-        <v>0</v>
-      </c>
-      <c r="V26" s="24"/>
-      <c r="W26" s="21"/>
-      <c r="X26" s="23"/>
-      <c r="Y26" s="19"/>
-      <c r="Z26" s="19"/>
-      <c r="AA26" s="23"/>
-      <c r="AB26" s="23"/>
-      <c r="AC26" s="23"/>
-      <c r="AD26" s="19"/>
-      <c r="AE26" s="19"/>
-      <c r="AF26" s="23"/>
-    </row>
-    <row r="27" spans="1:32" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="13"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="13"/>
+      <c r="V26" s="13"/>
+      <c r="W26" s="10"/>
+      <c r="X26" s="12"/>
+      <c r="Y26" s="12"/>
+      <c r="Z26" s="12"/>
+      <c r="AA26" s="12"/>
+      <c r="AB26" s="12"/>
+      <c r="AC26" s="12"/>
+      <c r="AD26" s="12"/>
+      <c r="AE26" s="12"/>
+      <c r="AF26" s="12"/>
+    </row>
+    <row r="27" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="23">
         <v>1</v>
       </c>
@@ -3951,12 +4001,14 @@
         <v>0</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>337</v>
-      </c>
-      <c r="E27" s="21"/>
+        <v>332</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>228</v>
+      </c>
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -3970,13 +4022,13 @@
       <c r="P27" s="22"/>
       <c r="Q27" s="23"/>
       <c r="R27" s="24">
-        <v>1.75</v>
+        <v>4</v>
       </c>
       <c r="S27" s="24">
-        <v>4.3049999999999997</v>
+        <v>4.1559999999999997</v>
       </c>
       <c r="T27" s="24">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="U27" s="24">
         <v>0</v>
@@ -3993,115 +4045,91 @@
       <c r="AE27" s="19"/>
       <c r="AF27" s="23"/>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
+    <row r="28" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="23">
+        <v>1</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="24">
+        <v>5.8310000000000004</v>
+      </c>
+      <c r="S28" s="24">
+        <v>3.0070000000000001</v>
+      </c>
+      <c r="T28" s="24">
+        <v>0</v>
+      </c>
+      <c r="U28" s="24">
+        <v>0</v>
+      </c>
+      <c r="V28" s="24"/>
+      <c r="W28" s="21"/>
+      <c r="X28" s="23"/>
+      <c r="Y28" s="19"/>
+      <c r="Z28" s="19"/>
+      <c r="AA28" s="23"/>
+      <c r="AB28" s="23"/>
+      <c r="AC28" s="23"/>
+      <c r="AD28" s="19"/>
+      <c r="AE28" s="19"/>
+      <c r="AF28" s="23"/>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="12"/>
-      <c r="R28" s="13"/>
-      <c r="S28" s="13"/>
-      <c r="T28" s="13"/>
-      <c r="U28" s="13"/>
-      <c r="V28" s="13"/>
-      <c r="W28" s="10"/>
-      <c r="X28" s="12"/>
-      <c r="Y28" s="12"/>
-      <c r="Z28" s="12"/>
-      <c r="AA28" s="12"/>
-      <c r="AB28" s="12"/>
-      <c r="AC28" s="12"/>
-      <c r="AD28" s="12"/>
-      <c r="AE28" s="12"/>
-      <c r="AF28" s="12"/>
-    </row>
-    <row r="29" spans="1:32" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="23">
-        <v>1</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D29" s="21" t="s">
-        <v>333</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="P29" s="22"/>
-      <c r="Q29" s="23"/>
-      <c r="R29" s="24">
-        <v>1.125</v>
-      </c>
-      <c r="S29" s="24">
-        <v>5.6870000000000003</v>
-      </c>
-      <c r="T29" s="24">
-        <v>0</v>
-      </c>
-      <c r="U29" s="24">
-        <v>0</v>
-      </c>
-      <c r="V29" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="W29" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="X29" s="23"/>
-      <c r="Y29" s="19" t="s">
-        <v>290</v>
-      </c>
-      <c r="Z29" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA29" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB29" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC29" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD29" s="23" t="s">
-        <v>291</v>
-      </c>
-      <c r="AE29" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF29" s="23" t="s">
-        <v>20</v>
-      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="13"/>
+      <c r="S29" s="13"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="13"/>
+      <c r="V29" s="13"/>
+      <c r="W29" s="10"/>
+      <c r="X29" s="12"/>
+      <c r="Y29" s="12"/>
+      <c r="Z29" s="12"/>
+      <c r="AA29" s="12"/>
+      <c r="AB29" s="12"/>
+      <c r="AC29" s="12"/>
+      <c r="AD29" s="12"/>
+      <c r="AE29" s="12"/>
+      <c r="AF29" s="12"/>
     </row>
     <row r="30" spans="1:32" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="23">
@@ -4111,13 +4139,13 @@
         <v>0</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" s="21"/>
       <c r="G30" s="21"/>
@@ -4134,10 +4162,10 @@
       <c r="P30" s="22"/>
       <c r="Q30" s="23"/>
       <c r="R30" s="24">
-        <v>2</v>
+        <v>1.125</v>
       </c>
       <c r="S30" s="24">
-        <v>6.5620000000000003</v>
+        <v>5.1870000000000003</v>
       </c>
       <c r="T30" s="24">
         <v>0</v>
@@ -4153,7 +4181,7 @@
       </c>
       <c r="X30" s="23"/>
       <c r="Y30" s="19" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="Z30" s="23" t="s">
         <v>27</v>
@@ -4161,11 +4189,21 @@
       <c r="AA30" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="AB30" s="23"/>
-      <c r="AC30" s="23"/>
-      <c r="AD30" s="19"/>
-      <c r="AE30" s="19"/>
-      <c r="AF30" s="23"/>
+      <c r="AB30" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC30" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD30" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="AE30" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF30" s="23" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="31" spans="1:32" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="23">
@@ -4175,17 +4213,15 @@
         <v>0</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>216</v>
+        <v>80</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="F31" s="21" t="s">
-        <v>172</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
@@ -4194,124 +4230,136 @@
       <c r="L31" s="21"/>
       <c r="M31" s="21"/>
       <c r="N31" s="21"/>
-      <c r="O31" s="22"/>
+      <c r="O31" s="22" t="s">
+        <v>54</v>
+      </c>
       <c r="P31" s="22"/>
       <c r="Q31" s="23"/>
       <c r="R31" s="24">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="S31" s="24">
-        <v>7.5880000000000001</v>
+        <v>6.0620000000000003</v>
       </c>
       <c r="T31" s="24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U31" s="24">
-        <v>2.125</v>
-      </c>
-      <c r="V31" s="24"/>
-      <c r="W31" s="21"/>
+        <v>0</v>
+      </c>
+      <c r="V31" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="W31" s="21" t="s">
+        <v>58</v>
+      </c>
       <c r="X31" s="23"/>
-      <c r="Y31" s="19"/>
-      <c r="Z31" s="19"/>
-      <c r="AA31" s="23"/>
+      <c r="Y31" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="Z31" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA31" s="23" t="s">
+        <v>20</v>
+      </c>
       <c r="AB31" s="23"/>
       <c r="AC31" s="23"/>
       <c r="AD31" s="19"/>
       <c r="AE31" s="19"/>
       <c r="AF31" s="23"/>
     </row>
-    <row r="32" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
+    <row r="32" spans="1:32" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="23">
+        <v>1</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="22"/>
+      <c r="P32" s="22"/>
+      <c r="Q32" s="23"/>
+      <c r="R32" s="24">
+        <v>0.25</v>
+      </c>
+      <c r="S32" s="24">
+        <v>7.0880000000000001</v>
+      </c>
+      <c r="T32" s="24">
+        <v>2</v>
+      </c>
+      <c r="U32" s="24">
+        <v>2.125</v>
+      </c>
+      <c r="V32" s="24"/>
+      <c r="W32" s="21"/>
+      <c r="X32" s="23"/>
+      <c r="Y32" s="19"/>
+      <c r="Z32" s="19"/>
+      <c r="AA32" s="23"/>
+      <c r="AB32" s="23"/>
+      <c r="AC32" s="23"/>
+      <c r="AD32" s="19"/>
+      <c r="AE32" s="19"/>
+      <c r="AF32" s="23"/>
+    </row>
+    <row r="33" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="11"/>
-      <c r="P32" s="11"/>
-      <c r="Q32" s="12"/>
-      <c r="R32" s="13"/>
-      <c r="S32" s="13"/>
-      <c r="T32" s="13"/>
-      <c r="U32" s="13"/>
-      <c r="V32" s="13"/>
-      <c r="W32" s="10"/>
-      <c r="X32" s="12"/>
-      <c r="Y32" s="12"/>
-      <c r="Z32" s="12"/>
-      <c r="AA32" s="12"/>
-      <c r="AB32" s="12"/>
-      <c r="AC32" s="12"/>
-      <c r="AD32" s="12"/>
-      <c r="AE32" s="12"/>
-      <c r="AF32" s="12"/>
-    </row>
-    <row r="33" spans="1:32" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="23">
-        <v>1</v>
-      </c>
-      <c r="B33" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C33" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="D33" s="21" t="s">
-        <v>338</v>
-      </c>
-      <c r="E33" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="F33" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="21"/>
-      <c r="O33" s="22"/>
-      <c r="P33" s="22"/>
-      <c r="Q33" s="23"/>
-      <c r="R33" s="24">
-        <v>4.125</v>
-      </c>
-      <c r="S33" s="24">
-        <v>9.75</v>
-      </c>
-      <c r="T33" s="24">
-        <v>3</v>
-      </c>
-      <c r="U33" s="24">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="V33" s="24"/>
-      <c r="W33" s="21"/>
-      <c r="X33" s="23"/>
-      <c r="Y33" s="19"/>
-      <c r="Z33" s="19"/>
-      <c r="AA33" s="23"/>
-      <c r="AB33" s="23"/>
-      <c r="AC33" s="23"/>
-      <c r="AD33" s="19"/>
-      <c r="AE33" s="19"/>
-      <c r="AF33" s="23"/>
-    </row>
-    <row r="34" spans="1:32" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="13"/>
+      <c r="S33" s="13"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="13"/>
+      <c r="V33" s="13"/>
+      <c r="W33" s="10"/>
+      <c r="X33" s="12"/>
+      <c r="Y33" s="12"/>
+      <c r="Z33" s="12"/>
+      <c r="AA33" s="12"/>
+      <c r="AB33" s="12"/>
+      <c r="AC33" s="12"/>
+      <c r="AD33" s="12"/>
+      <c r="AE33" s="12"/>
+      <c r="AF33" s="12"/>
+    </row>
+    <row r="34" spans="1:32" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="23">
         <v>1</v>
       </c>
@@ -4319,15 +4367,17 @@
         <v>0</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>81</v>
+        <v>168</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="F34" s="21"/>
+        <v>203</v>
+      </c>
+      <c r="F34" s="21" t="s">
+        <v>171</v>
+      </c>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
       <c r="I34" s="21"/>
@@ -4336,46 +4386,34 @@
       <c r="L34" s="21"/>
       <c r="M34" s="21"/>
       <c r="N34" s="21"/>
-      <c r="O34" s="22" t="s">
-        <v>54</v>
-      </c>
+      <c r="O34" s="22"/>
       <c r="P34" s="22"/>
       <c r="Q34" s="23"/>
       <c r="R34" s="24">
-        <v>4.875</v>
+        <v>4.125</v>
       </c>
       <c r="S34" s="24">
-        <v>8.7850000000000001</v>
+        <v>9.75</v>
       </c>
       <c r="T34" s="24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U34" s="24">
-        <v>0</v>
-      </c>
-      <c r="V34" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="W34" s="21" t="s">
-        <v>58</v>
-      </c>
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="V34" s="24"/>
+      <c r="W34" s="21"/>
       <c r="X34" s="23"/>
-      <c r="Y34" s="19" t="s">
-        <v>290</v>
-      </c>
-      <c r="Z34" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA34" s="23" t="s">
-        <v>22</v>
-      </c>
+      <c r="Y34" s="19"/>
+      <c r="Z34" s="19"/>
+      <c r="AA34" s="23"/>
       <c r="AB34" s="23"/>
       <c r="AC34" s="23"/>
       <c r="AD34" s="19"/>
       <c r="AE34" s="19"/>
       <c r="AF34" s="23"/>
     </row>
-    <row r="35" spans="1:32" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:32" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="23">
         <v>1</v>
       </c>
@@ -4383,13 +4421,13 @@
         <v>0</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>207</v>
+        <v>172</v>
       </c>
       <c r="F35" s="21"/>
       <c r="G35" s="21"/>
@@ -4400,14 +4438,16 @@
       <c r="L35" s="21"/>
       <c r="M35" s="21"/>
       <c r="N35" s="21"/>
-      <c r="O35" s="22"/>
+      <c r="O35" s="22" t="s">
+        <v>54</v>
+      </c>
       <c r="P35" s="22"/>
       <c r="Q35" s="23"/>
       <c r="R35" s="24">
-        <v>5.8470000000000004</v>
+        <v>4.875</v>
       </c>
       <c r="S35" s="24">
-        <v>8.2970000000000006</v>
+        <v>8.7850000000000001</v>
       </c>
       <c r="T35" s="24">
         <v>0</v>
@@ -4415,25 +4455,27 @@
       <c r="U35" s="24">
         <v>0</v>
       </c>
-      <c r="V35" s="24"/>
-      <c r="W35" s="21"/>
+      <c r="V35" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="W35" s="21" t="s">
+        <v>58</v>
+      </c>
       <c r="X35" s="23"/>
-      <c r="Y35" s="19"/>
-      <c r="Z35" s="19"/>
-      <c r="AA35" s="23"/>
-      <c r="AB35" s="21" t="s">
-        <v>81</v>
-      </c>
+      <c r="Y35" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="Z35" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA35" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB35" s="23"/>
       <c r="AC35" s="23"/>
-      <c r="AD35" s="19" t="s">
-        <v>290</v>
-      </c>
-      <c r="AE35" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF35" s="23" t="s">
-        <v>22</v>
-      </c>
+      <c r="AD35" s="19"/>
+      <c r="AE35" s="19"/>
+      <c r="AF35" s="23"/>
     </row>
     <row r="36" spans="1:32" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="23">
@@ -4443,13 +4485,13 @@
         <v>0</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F36" s="21"/>
       <c r="G36" s="21"/>
@@ -4464,7 +4506,7 @@
       <c r="P36" s="22"/>
       <c r="Q36" s="23"/>
       <c r="R36" s="24">
-        <v>6.5350000000000001</v>
+        <v>5.8470000000000004</v>
       </c>
       <c r="S36" s="24">
         <v>8.2970000000000006</v>
@@ -4486,7 +4528,7 @@
       </c>
       <c r="AC36" s="23"/>
       <c r="AD36" s="19" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="AE36" s="23" t="s">
         <v>27</v>
@@ -4495,7 +4537,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:32" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:32" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="23">
         <v>1</v>
       </c>
@@ -4503,13 +4545,13 @@
         <v>0</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>174</v>
+        <v>207</v>
       </c>
       <c r="F37" s="21"/>
       <c r="G37" s="21"/>
@@ -4520,16 +4562,14 @@
       <c r="L37" s="21"/>
       <c r="M37" s="21"/>
       <c r="N37" s="21"/>
-      <c r="O37" s="22" t="s">
-        <v>54</v>
-      </c>
+      <c r="O37" s="22"/>
       <c r="P37" s="22"/>
       <c r="Q37" s="23"/>
       <c r="R37" s="24">
-        <v>4.875</v>
+        <v>6.5350000000000001</v>
       </c>
       <c r="S37" s="24">
-        <v>7.4779999999999998</v>
+        <v>8.2970000000000006</v>
       </c>
       <c r="T37" s="24">
         <v>0</v>
@@ -4537,28 +4577,18 @@
       <c r="U37" s="24">
         <v>0</v>
       </c>
-      <c r="V37" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="W37" s="21" t="s">
-        <v>58</v>
-      </c>
+      <c r="V37" s="24"/>
+      <c r="W37" s="21"/>
       <c r="X37" s="23"/>
-      <c r="Y37" s="19" t="s">
-        <v>290</v>
-      </c>
-      <c r="Z37" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA37" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB37" s="23" t="s">
+      <c r="Y37" s="19"/>
+      <c r="Z37" s="19"/>
+      <c r="AA37" s="23"/>
+      <c r="AB37" s="21" t="s">
         <v>81</v>
       </c>
       <c r="AC37" s="23"/>
       <c r="AD37" s="19" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="AE37" s="23" t="s">
         <v>27</v>
@@ -4567,7 +4597,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:32" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="23">
         <v>1</v>
       </c>
@@ -4575,12 +4605,14 @@
         <v>0</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>340</v>
-      </c>
-      <c r="E38" s="21"/>
+        <v>329</v>
+      </c>
+      <c r="E38" s="21" t="s">
+        <v>173</v>
+      </c>
       <c r="F38" s="21"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -4590,14 +4622,16 @@
       <c r="L38" s="21"/>
       <c r="M38" s="21"/>
       <c r="N38" s="21"/>
-      <c r="O38" s="22"/>
+      <c r="O38" s="22" t="s">
+        <v>54</v>
+      </c>
       <c r="P38" s="22"/>
       <c r="Q38" s="23"/>
       <c r="R38" s="24">
-        <v>7.5</v>
+        <v>4.875</v>
       </c>
       <c r="S38" s="24">
-        <v>7.76</v>
+        <v>7.4779999999999998</v>
       </c>
       <c r="T38" s="24">
         <v>0</v>
@@ -4605,18 +4639,28 @@
       <c r="U38" s="24">
         <v>0</v>
       </c>
-      <c r="V38" s="24"/>
-      <c r="W38" s="21"/>
+      <c r="V38" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="W38" s="21" t="s">
+        <v>58</v>
+      </c>
       <c r="X38" s="23"/>
-      <c r="Y38" s="19"/>
-      <c r="Z38" s="19"/>
-      <c r="AA38" s="23"/>
+      <c r="Y38" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="Z38" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA38" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="AB38" s="23" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AC38" s="23"/>
       <c r="AD38" s="19" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="AE38" s="23" t="s">
         <v>27</v>
@@ -4625,97 +4669,101 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="11"/>
-      <c r="P39" s="11"/>
-      <c r="Q39" s="12"/>
-      <c r="R39" s="13"/>
-      <c r="S39" s="13"/>
-      <c r="T39" s="13"/>
-      <c r="U39" s="13"/>
-      <c r="V39" s="13"/>
-      <c r="W39" s="10"/>
-      <c r="X39" s="12"/>
-      <c r="Y39" s="12"/>
-      <c r="Z39" s="12"/>
-      <c r="AA39" s="12"/>
-      <c r="AB39" s="12"/>
-      <c r="AC39" s="12"/>
-      <c r="AD39" s="12"/>
-      <c r="AE39" s="12"/>
-      <c r="AF39" s="12"/>
-    </row>
-    <row r="40" spans="1:32" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="23">
+    <row r="39" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="23">
         <v>1</v>
       </c>
-      <c r="B40" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C40" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="D40" s="21" t="s">
-        <v>338</v>
-      </c>
-      <c r="E40" s="21" t="s">
-        <v>214</v>
-      </c>
-      <c r="F40" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="21"/>
-      <c r="L40" s="21"/>
-      <c r="M40" s="21"/>
-      <c r="N40" s="21"/>
-      <c r="O40" s="22"/>
-      <c r="P40" s="22"/>
-      <c r="Q40" s="23"/>
-      <c r="R40" s="24">
-        <v>4.125</v>
-      </c>
-      <c r="S40" s="24">
-        <v>7.0469999999999997</v>
-      </c>
-      <c r="T40" s="24">
-        <v>3</v>
-      </c>
-      <c r="U40" s="24">
-        <v>1.3</v>
-      </c>
-      <c r="V40" s="24"/>
-      <c r="W40" s="21"/>
-      <c r="X40" s="23"/>
-      <c r="Y40" s="19"/>
-      <c r="Z40" s="19"/>
-      <c r="AA40" s="23"/>
-      <c r="AB40" s="23"/>
-      <c r="AC40" s="23"/>
-      <c r="AD40" s="19"/>
-      <c r="AE40" s="19"/>
-      <c r="AF40" s="23"/>
-    </row>
-    <row r="41" spans="1:32" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B39" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="21"/>
+      <c r="O39" s="22"/>
+      <c r="P39" s="22"/>
+      <c r="Q39" s="23"/>
+      <c r="R39" s="24">
+        <v>7.5</v>
+      </c>
+      <c r="S39" s="24">
+        <v>7.76</v>
+      </c>
+      <c r="T39" s="24">
+        <v>0</v>
+      </c>
+      <c r="U39" s="24">
+        <v>0</v>
+      </c>
+      <c r="V39" s="24"/>
+      <c r="W39" s="21"/>
+      <c r="X39" s="23"/>
+      <c r="Y39" s="19"/>
+      <c r="Z39" s="19"/>
+      <c r="AA39" s="23"/>
+      <c r="AB39" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC39" s="23"/>
+      <c r="AD39" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="AE39" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF39" s="23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A40" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="13"/>
+      <c r="S40" s="13"/>
+      <c r="T40" s="13"/>
+      <c r="U40" s="13"/>
+      <c r="V40" s="13"/>
+      <c r="W40" s="10"/>
+      <c r="X40" s="12"/>
+      <c r="Y40" s="12"/>
+      <c r="Z40" s="12"/>
+      <c r="AA40" s="12"/>
+      <c r="AB40" s="12"/>
+      <c r="AC40" s="12"/>
+      <c r="AD40" s="12"/>
+      <c r="AE40" s="12"/>
+      <c r="AF40" s="12"/>
+    </row>
+    <row r="41" spans="1:32" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="23">
         <v>1</v>
       </c>
@@ -4723,15 +4771,17 @@
         <v>0</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>85</v>
+        <v>202</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="F41" s="21"/>
+        <v>213</v>
+      </c>
+      <c r="F41" s="21" t="s">
+        <v>171</v>
+      </c>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
       <c r="I41" s="21"/>
@@ -4740,39 +4790,27 @@
       <c r="L41" s="21"/>
       <c r="M41" s="21"/>
       <c r="N41" s="21"/>
-      <c r="O41" s="22" t="s">
-        <v>54</v>
-      </c>
+      <c r="O41" s="22"/>
       <c r="P41" s="22"/>
       <c r="Q41" s="23"/>
       <c r="R41" s="24">
-        <v>4.875</v>
+        <v>4.125</v>
       </c>
       <c r="S41" s="24">
-        <v>6.25</v>
+        <v>7.0469999999999997</v>
       </c>
       <c r="T41" s="24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U41" s="24">
-        <v>0</v>
-      </c>
-      <c r="V41" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="W41" s="21" t="s">
-        <v>58</v>
-      </c>
+        <v>1.3</v>
+      </c>
+      <c r="V41" s="24"/>
+      <c r="W41" s="21"/>
       <c r="X41" s="23"/>
-      <c r="Y41" s="19" t="s">
-        <v>290</v>
-      </c>
-      <c r="Z41" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA41" s="23" t="s">
-        <v>22</v>
-      </c>
+      <c r="Y41" s="19"/>
+      <c r="Z41" s="19"/>
+      <c r="AA41" s="23"/>
       <c r="AB41" s="23"/>
       <c r="AC41" s="23"/>
       <c r="AD41" s="19"/>
@@ -4787,13 +4825,13 @@
         <v>0</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="E42" s="21" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F42" s="21"/>
       <c r="G42" s="21"/>
@@ -4810,10 +4848,10 @@
       <c r="P42" s="22"/>
       <c r="Q42" s="23"/>
       <c r="R42" s="24">
-        <v>6.125</v>
+        <v>4.875</v>
       </c>
       <c r="S42" s="24">
-        <v>5.7969999999999997</v>
+        <v>6</v>
       </c>
       <c r="T42" s="24">
         <v>0</v>
@@ -4829,7 +4867,7 @@
       </c>
       <c r="X42" s="23"/>
       <c r="Y42" s="19" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="Z42" s="23" t="s">
         <v>27</v>
@@ -4837,21 +4875,13 @@
       <c r="AA42" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="AB42" s="23" t="s">
-        <v>85</v>
-      </c>
+      <c r="AB42" s="23"/>
       <c r="AC42" s="23"/>
-      <c r="AD42" s="19" t="s">
-        <v>290</v>
-      </c>
-      <c r="AE42" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF42" s="23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="43" spans="1:32" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="AD42" s="19"/>
+      <c r="AE42" s="19"/>
+      <c r="AF42" s="23"/>
+    </row>
+    <row r="43" spans="1:32" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="23">
         <v>1</v>
       </c>
@@ -4859,13 +4889,13 @@
         <v>0</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D43" s="21" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="E43" s="21" t="s">
-        <v>51</v>
+        <v>205</v>
       </c>
       <c r="F43" s="21"/>
       <c r="G43" s="21"/>
@@ -4876,14 +4906,16 @@
       <c r="L43" s="21"/>
       <c r="M43" s="21"/>
       <c r="N43" s="21"/>
-      <c r="O43" s="22"/>
+      <c r="O43" s="22" t="s">
+        <v>54</v>
+      </c>
       <c r="P43" s="22"/>
       <c r="Q43" s="23"/>
       <c r="R43" s="24">
-        <v>7.5</v>
+        <v>6.125</v>
       </c>
       <c r="S43" s="24">
-        <v>6.0750000000000002</v>
+        <v>5.7969999999999997</v>
       </c>
       <c r="T43" s="24">
         <v>0</v>
@@ -4891,18 +4923,28 @@
       <c r="U43" s="24">
         <v>0</v>
       </c>
-      <c r="V43" s="24"/>
-      <c r="W43" s="21"/>
+      <c r="V43" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="W43" s="21" t="s">
+        <v>58</v>
+      </c>
       <c r="X43" s="23"/>
-      <c r="Y43" s="19"/>
-      <c r="Z43" s="19"/>
-      <c r="AA43" s="23"/>
+      <c r="Y43" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="Z43" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA43" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="AB43" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AC43" s="23"/>
       <c r="AD43" s="19" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="AE43" s="23" t="s">
         <v>27</v>
@@ -4911,93 +4953,103 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:32" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="10"/>
-      <c r="O44" s="11"/>
-      <c r="P44" s="11"/>
-      <c r="Q44" s="12"/>
-      <c r="R44" s="13"/>
-      <c r="S44" s="13"/>
-      <c r="T44" s="13"/>
-      <c r="U44" s="13"/>
-      <c r="V44" s="13"/>
-      <c r="W44" s="10"/>
-      <c r="X44" s="12"/>
-      <c r="Y44" s="12"/>
-      <c r="Z44" s="12"/>
-      <c r="AA44" s="12"/>
-      <c r="AB44" s="12"/>
-      <c r="AC44" s="12"/>
-      <c r="AD44" s="12"/>
-      <c r="AE44" s="12"/>
-      <c r="AF44" s="12"/>
-    </row>
-    <row r="45" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="23">
-        <v>2</v>
-      </c>
-      <c r="B45" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C45" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="D45" s="21" t="s">
-        <v>330</v>
-      </c>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="21"/>
-      <c r="I45" s="21"/>
-      <c r="J45" s="21"/>
-      <c r="K45" s="21"/>
-      <c r="L45" s="21"/>
-      <c r="M45" s="21"/>
-      <c r="N45" s="21"/>
-      <c r="O45" s="22"/>
-      <c r="P45" s="22"/>
-      <c r="Q45" s="23"/>
-      <c r="R45" s="24">
-        <v>0.25</v>
-      </c>
-      <c r="S45" s="24">
-        <v>10.75</v>
-      </c>
-      <c r="T45" s="24">
-        <v>0</v>
-      </c>
-      <c r="U45" s="24">
-        <v>0</v>
-      </c>
-      <c r="V45" s="24"/>
-      <c r="W45" s="21"/>
-      <c r="X45" s="23"/>
-      <c r="Y45" s="19"/>
-      <c r="Z45" s="19"/>
-      <c r="AA45" s="23"/>
-      <c r="AB45" s="23"/>
-      <c r="AC45" s="23"/>
-      <c r="AD45" s="19"/>
-      <c r="AE45" s="19"/>
-      <c r="AF45" s="23"/>
-    </row>
-    <row r="46" spans="1:32" s="25" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:32" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="23">
+        <v>1</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D44" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="E44" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="21"/>
+      <c r="M44" s="21"/>
+      <c r="N44" s="21"/>
+      <c r="O44" s="22"/>
+      <c r="P44" s="22"/>
+      <c r="Q44" s="23"/>
+      <c r="R44" s="24">
+        <v>7.5</v>
+      </c>
+      <c r="S44" s="24">
+        <v>6.0750000000000002</v>
+      </c>
+      <c r="T44" s="24">
+        <v>0</v>
+      </c>
+      <c r="U44" s="24">
+        <v>0</v>
+      </c>
+      <c r="V44" s="24"/>
+      <c r="W44" s="21"/>
+      <c r="X44" s="23"/>
+      <c r="Y44" s="19"/>
+      <c r="Z44" s="19"/>
+      <c r="AA44" s="23"/>
+      <c r="AB44" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC44" s="23"/>
+      <c r="AD44" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="AE44" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF44" s="23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:32" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="11"/>
+      <c r="Q45" s="12"/>
+      <c r="R45" s="13"/>
+      <c r="S45" s="13"/>
+      <c r="T45" s="13"/>
+      <c r="U45" s="13"/>
+      <c r="V45" s="13"/>
+      <c r="W45" s="10"/>
+      <c r="X45" s="12"/>
+      <c r="Y45" s="12"/>
+      <c r="Z45" s="12"/>
+      <c r="AA45" s="12"/>
+      <c r="AB45" s="12"/>
+      <c r="AC45" s="12"/>
+      <c r="AD45" s="12"/>
+      <c r="AE45" s="12"/>
+      <c r="AF45" s="12"/>
+    </row>
+    <row r="46" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="23">
         <v>2</v>
       </c>
@@ -5005,14 +5057,12 @@
         <v>0</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>341</v>
-      </c>
-      <c r="E46" s="21" t="s">
-        <v>227</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="E46" s="21"/>
       <c r="F46" s="21"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -5026,7 +5076,7 @@
       <c r="P46" s="22"/>
       <c r="Q46" s="23"/>
       <c r="R46" s="24">
-        <v>3.125</v>
+        <v>0.25</v>
       </c>
       <c r="S46" s="24">
         <v>10.75</v>
@@ -5049,7 +5099,7 @@
       <c r="AE46" s="19"/>
       <c r="AF46" s="23"/>
     </row>
-    <row r="47" spans="1:32" s="25" customFormat="1" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:32" s="25" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A47" s="23">
         <v>2</v>
       </c>
@@ -5057,17 +5107,15 @@
         <v>0</v>
       </c>
       <c r="C47" s="21" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="E47" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="F47" s="32">
-        <v>10</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="F47" s="21"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
       <c r="I47" s="21"/>
@@ -5078,20 +5126,20 @@
       <c r="N47" s="21"/>
       <c r="O47" s="22"/>
       <c r="P47" s="22"/>
-      <c r="Q47" s="21"/>
-      <c r="R47" s="26">
-        <v>0.25</v>
-      </c>
-      <c r="S47" s="26">
-        <v>1.75</v>
-      </c>
-      <c r="T47" s="26">
-        <v>0</v>
-      </c>
-      <c r="U47" s="26">
-        <v>1.125</v>
-      </c>
-      <c r="V47" s="21"/>
+      <c r="Q47" s="23"/>
+      <c r="R47" s="24">
+        <v>3.125</v>
+      </c>
+      <c r="S47" s="24">
+        <v>10.75</v>
+      </c>
+      <c r="T47" s="24">
+        <v>0</v>
+      </c>
+      <c r="U47" s="24">
+        <v>0</v>
+      </c>
+      <c r="V47" s="24"/>
       <c r="W47" s="21"/>
       <c r="X47" s="23"/>
       <c r="Y47" s="19"/>
@@ -5103,93 +5151,95 @@
       <c r="AE47" s="19"/>
       <c r="AF47" s="23"/>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A48" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="10"/>
-      <c r="L48" s="10"/>
-      <c r="M48" s="10"/>
-      <c r="N48" s="10"/>
-      <c r="O48" s="11"/>
-      <c r="P48" s="11"/>
-      <c r="Q48" s="12"/>
-      <c r="R48" s="13"/>
-      <c r="S48" s="13"/>
-      <c r="T48" s="13"/>
-      <c r="U48" s="13"/>
-      <c r="V48" s="13"/>
-      <c r="W48" s="10"/>
-      <c r="X48" s="12"/>
-      <c r="Y48" s="12"/>
-      <c r="Z48" s="12"/>
-      <c r="AA48" s="12"/>
-      <c r="AB48" s="12"/>
-      <c r="AC48" s="12"/>
-      <c r="AD48" s="12"/>
-      <c r="AE48" s="12"/>
-      <c r="AF48" s="12"/>
-    </row>
-    <row r="49" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="23">
+    <row r="48" spans="1:32" s="25" customFormat="1" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="23">
         <v>2</v>
       </c>
-      <c r="B49" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C49" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="D49" s="21" t="s">
-        <v>342</v>
-      </c>
-      <c r="E49" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="21"/>
-      <c r="I49" s="21"/>
-      <c r="J49" s="21"/>
-      <c r="K49" s="21"/>
-      <c r="L49" s="21"/>
-      <c r="M49" s="21"/>
-      <c r="N49" s="21"/>
-      <c r="O49" s="22"/>
-      <c r="P49" s="22"/>
-      <c r="Q49" s="23"/>
-      <c r="R49" s="24">
-        <v>0.27900000000000003</v>
-      </c>
-      <c r="S49" s="24">
-        <v>8.0269999999999992</v>
-      </c>
-      <c r="T49" s="24">
-        <v>2.75</v>
-      </c>
-      <c r="U49" s="24">
-        <v>6.1</v>
-      </c>
-      <c r="V49" s="24"/>
-      <c r="W49" s="21"/>
-      <c r="X49" s="23"/>
-      <c r="Y49" s="19"/>
-      <c r="Z49" s="19"/>
-      <c r="AA49" s="23"/>
-      <c r="AB49" s="23"/>
-      <c r="AC49" s="23"/>
-      <c r="AD49" s="19"/>
-      <c r="AE49" s="19"/>
-      <c r="AF49" s="23"/>
+      <c r="B48" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="D48" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="E48" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="F48" s="32">
+        <v>10</v>
+      </c>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="21"/>
+      <c r="L48" s="21"/>
+      <c r="M48" s="21"/>
+      <c r="N48" s="21"/>
+      <c r="O48" s="22"/>
+      <c r="P48" s="22"/>
+      <c r="Q48" s="21"/>
+      <c r="R48" s="26">
+        <v>0.25</v>
+      </c>
+      <c r="S48" s="26">
+        <v>1.75</v>
+      </c>
+      <c r="T48" s="26">
+        <v>0</v>
+      </c>
+      <c r="U48" s="26">
+        <v>1.125</v>
+      </c>
+      <c r="V48" s="21"/>
+      <c r="W48" s="21"/>
+      <c r="X48" s="23"/>
+      <c r="Y48" s="19"/>
+      <c r="Z48" s="19"/>
+      <c r="AA48" s="23"/>
+      <c r="AB48" s="23"/>
+      <c r="AC48" s="23"/>
+      <c r="AD48" s="19"/>
+      <c r="AE48" s="19"/>
+      <c r="AF48" s="23"/>
+    </row>
+    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A49" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="11"/>
+      <c r="P49" s="11"/>
+      <c r="Q49" s="12"/>
+      <c r="R49" s="13"/>
+      <c r="S49" s="13"/>
+      <c r="T49" s="13"/>
+      <c r="U49" s="13"/>
+      <c r="V49" s="13"/>
+      <c r="W49" s="10"/>
+      <c r="X49" s="12"/>
+      <c r="Y49" s="12"/>
+      <c r="Z49" s="12"/>
+      <c r="AA49" s="12"/>
+      <c r="AB49" s="12"/>
+      <c r="AC49" s="12"/>
+      <c r="AD49" s="12"/>
+      <c r="AE49" s="12"/>
+      <c r="AF49" s="12"/>
     </row>
     <row r="50" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="23">
@@ -5199,13 +5249,13 @@
         <v>0</v>
       </c>
       <c r="C50" s="21" t="s">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="D50" s="21" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E50" s="21" t="s">
-        <v>229</v>
+        <v>153</v>
       </c>
       <c r="F50" s="21"/>
       <c r="G50" s="21"/>
@@ -5220,16 +5270,16 @@
       <c r="P50" s="22"/>
       <c r="Q50" s="23"/>
       <c r="R50" s="24">
-        <v>4.1870000000000003</v>
+        <v>0.27900000000000003</v>
       </c>
       <c r="S50" s="24">
-        <v>4.5</v>
+        <v>8.0269999999999992</v>
       </c>
       <c r="T50" s="24">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U50" s="24">
-        <v>0</v>
+        <v>6.1</v>
       </c>
       <c r="V50" s="24"/>
       <c r="W50" s="21"/>
@@ -5243,101 +5293,95 @@
       <c r="AE50" s="19"/>
       <c r="AF50" s="23"/>
     </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A51" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="10"/>
-      <c r="K51" s="10"/>
-      <c r="L51" s="10"/>
-      <c r="M51" s="10"/>
-      <c r="N51" s="10"/>
-      <c r="O51" s="11"/>
-      <c r="P51" s="11"/>
-      <c r="Q51" s="12"/>
-      <c r="R51" s="13"/>
-      <c r="S51" s="13"/>
-      <c r="T51" s="13"/>
-      <c r="U51" s="13"/>
-      <c r="V51" s="13"/>
-      <c r="W51" s="10"/>
-      <c r="X51" s="12"/>
-      <c r="Y51" s="12"/>
-      <c r="Z51" s="12"/>
-      <c r="AA51" s="12"/>
-      <c r="AB51" s="12"/>
-      <c r="AC51" s="12"/>
-      <c r="AD51" s="12"/>
-      <c r="AE51" s="12"/>
-      <c r="AF51" s="12"/>
-    </row>
-    <row r="52" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="23">
+    <row r="51" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="23">
         <v>2</v>
       </c>
-      <c r="B52" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C52" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D52" s="17" t="s">
-        <v>343</v>
-      </c>
-      <c r="E52" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="17"/>
-      <c r="I52" s="17"/>
-      <c r="J52" s="17"/>
-      <c r="K52" s="17"/>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="17"/>
-      <c r="O52" s="18"/>
-      <c r="P52" s="18"/>
-      <c r="Q52" s="19"/>
-      <c r="R52" s="20">
-        <v>0.77900000000000003</v>
-      </c>
-      <c r="S52" s="20">
-        <v>7.25</v>
-      </c>
-      <c r="T52" s="24">
-        <v>0</v>
-      </c>
-      <c r="U52" s="24">
-        <v>0</v>
-      </c>
-      <c r="V52" s="20"/>
-      <c r="W52" s="17"/>
-      <c r="X52" s="19"/>
-      <c r="Y52" s="19"/>
-      <c r="Z52" s="19"/>
-      <c r="AA52" s="23"/>
-      <c r="AB52" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC52" s="19"/>
-      <c r="AD52" s="19" t="s">
-        <v>290</v>
-      </c>
-      <c r="AE52" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF52" s="19"/>
-    </row>
-    <row r="53" spans="1:32" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B51" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="D51" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="E51" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="21"/>
+      <c r="L51" s="21"/>
+      <c r="M51" s="21"/>
+      <c r="N51" s="21"/>
+      <c r="O51" s="22"/>
+      <c r="P51" s="22"/>
+      <c r="Q51" s="23"/>
+      <c r="R51" s="24">
+        <v>4.1870000000000003</v>
+      </c>
+      <c r="S51" s="24">
+        <v>3.9060000000000001</v>
+      </c>
+      <c r="T51" s="24">
+        <v>2.5</v>
+      </c>
+      <c r="U51" s="24">
+        <v>0</v>
+      </c>
+      <c r="V51" s="24"/>
+      <c r="W51" s="21"/>
+      <c r="X51" s="23"/>
+      <c r="Y51" s="19"/>
+      <c r="Z51" s="19"/>
+      <c r="AA51" s="23"/>
+      <c r="AB51" s="23"/>
+      <c r="AC51" s="23"/>
+      <c r="AD51" s="19"/>
+      <c r="AE51" s="19"/>
+      <c r="AF51" s="23"/>
+    </row>
+    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A52" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="11"/>
+      <c r="P52" s="11"/>
+      <c r="Q52" s="12"/>
+      <c r="R52" s="13"/>
+      <c r="S52" s="13"/>
+      <c r="T52" s="13"/>
+      <c r="U52" s="13"/>
+      <c r="V52" s="13"/>
+      <c r="W52" s="10"/>
+      <c r="X52" s="12"/>
+      <c r="Y52" s="12"/>
+      <c r="Z52" s="12"/>
+      <c r="AA52" s="12"/>
+      <c r="AB52" s="12"/>
+      <c r="AC52" s="12"/>
+      <c r="AD52" s="12"/>
+      <c r="AE52" s="12"/>
+      <c r="AF52" s="12"/>
+    </row>
+    <row r="53" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="23">
         <v>2</v>
       </c>
@@ -5345,13 +5389,13 @@
         <v>0</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="E53" s="17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F53" s="17"/>
       <c r="G53" s="17"/>
@@ -5366,10 +5410,10 @@
       <c r="P53" s="18"/>
       <c r="Q53" s="19"/>
       <c r="R53" s="20">
-        <v>2</v>
+        <v>0.77900000000000003</v>
       </c>
       <c r="S53" s="20">
-        <v>7.2</v>
+        <v>7.25</v>
       </c>
       <c r="T53" s="24">
         <v>0</v>
@@ -5384,76 +5428,76 @@
       <c r="Z53" s="19"/>
       <c r="AA53" s="23"/>
       <c r="AB53" s="17" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AC53" s="19"/>
       <c r="AD53" s="19" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="AE53" s="19" t="s">
         <v>28</v>
       </c>
       <c r="AF53" s="19"/>
     </row>
-    <row r="54" spans="1:32" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="27">
+    <row r="54" spans="1:32" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="23">
         <v>2</v>
       </c>
-      <c r="B54" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C54" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="D54" s="28" t="s">
-        <v>343</v>
-      </c>
-      <c r="E54" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="F54" s="28"/>
-      <c r="G54" s="28"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="28"/>
-      <c r="J54" s="28"/>
-      <c r="K54" s="28"/>
-      <c r="L54" s="28"/>
-      <c r="M54" s="28"/>
-      <c r="N54" s="28"/>
-      <c r="O54" s="29"/>
-      <c r="P54" s="29"/>
-      <c r="Q54" s="27"/>
-      <c r="R54" s="30">
-        <v>0.77900000000000003</v>
-      </c>
-      <c r="S54" s="30">
-        <v>6.625</v>
-      </c>
-      <c r="T54" s="30">
-        <v>0</v>
-      </c>
-      <c r="U54" s="30">
-        <v>0</v>
-      </c>
-      <c r="V54" s="30"/>
-      <c r="W54" s="28"/>
-      <c r="X54" s="27"/>
-      <c r="Y54" s="27"/>
-      <c r="Z54" s="27"/>
-      <c r="AA54" s="27"/>
-      <c r="AB54" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC54" s="27"/>
-      <c r="AD54" s="27" t="s">
-        <v>290</v>
-      </c>
-      <c r="AE54" s="27" t="s">
+      <c r="B54" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="E54" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="17"/>
+      <c r="J54" s="17"/>
+      <c r="K54" s="17"/>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="18"/>
+      <c r="P54" s="18"/>
+      <c r="Q54" s="19"/>
+      <c r="R54" s="20">
+        <v>2</v>
+      </c>
+      <c r="S54" s="20">
+        <v>7.2</v>
+      </c>
+      <c r="T54" s="24">
+        <v>0</v>
+      </c>
+      <c r="U54" s="24">
+        <v>0</v>
+      </c>
+      <c r="V54" s="20"/>
+      <c r="W54" s="17"/>
+      <c r="X54" s="19"/>
+      <c r="Y54" s="19"/>
+      <c r="Z54" s="19"/>
+      <c r="AA54" s="23"/>
+      <c r="AB54" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC54" s="19"/>
+      <c r="AD54" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="AE54" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="AF54" s="27"/>
-    </row>
-    <row r="55" spans="1:32" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="AF54" s="19"/>
+    </row>
+    <row r="55" spans="1:32" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="27">
         <v>2</v>
       </c>
@@ -5461,13 +5505,13 @@
         <v>0</v>
       </c>
       <c r="C55" s="28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D55" s="28" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="E55" s="28" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F55" s="28"/>
       <c r="G55" s="28"/>
@@ -5482,10 +5526,10 @@
       <c r="P55" s="29"/>
       <c r="Q55" s="27"/>
       <c r="R55" s="30">
-        <v>2</v>
+        <v>0.77900000000000003</v>
       </c>
       <c r="S55" s="30">
-        <v>6.55</v>
+        <v>6.625</v>
       </c>
       <c r="T55" s="30">
         <v>0</v>
@@ -5500,76 +5544,76 @@
       <c r="Z55" s="27"/>
       <c r="AA55" s="27"/>
       <c r="AB55" s="28" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AC55" s="27"/>
       <c r="AD55" s="27" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="AE55" s="27" t="s">
         <v>28</v>
       </c>
       <c r="AF55" s="27"/>
     </row>
-    <row r="56" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="23">
+    <row r="56" spans="1:32" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="27">
         <v>2</v>
       </c>
-      <c r="B56" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C56" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="D56" s="17" t="s">
-        <v>345</v>
-      </c>
-      <c r="E56" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="17"/>
-      <c r="I56" s="17"/>
-      <c r="J56" s="17"/>
-      <c r="K56" s="17"/>
-      <c r="L56" s="17"/>
-      <c r="M56" s="17"/>
-      <c r="N56" s="17"/>
-      <c r="O56" s="18"/>
-      <c r="P56" s="18"/>
-      <c r="Q56" s="19"/>
-      <c r="R56" s="20">
-        <v>0.79800000000000004</v>
-      </c>
-      <c r="S56" s="20">
-        <v>6</v>
-      </c>
-      <c r="T56" s="24">
-        <v>0</v>
-      </c>
-      <c r="U56" s="24">
-        <v>0</v>
-      </c>
-      <c r="V56" s="20"/>
-      <c r="W56" s="17"/>
-      <c r="X56" s="19"/>
-      <c r="Y56" s="19"/>
-      <c r="Z56" s="19"/>
-      <c r="AA56" s="23"/>
-      <c r="AB56" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC56" s="19"/>
-      <c r="AD56" s="19" t="s">
-        <v>290</v>
-      </c>
-      <c r="AE56" s="19" t="s">
+      <c r="B56" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="D56" s="28" t="s">
+        <v>340</v>
+      </c>
+      <c r="E56" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="F56" s="28"/>
+      <c r="G56" s="28"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="28"/>
+      <c r="J56" s="28"/>
+      <c r="K56" s="28"/>
+      <c r="L56" s="28"/>
+      <c r="M56" s="28"/>
+      <c r="N56" s="28"/>
+      <c r="O56" s="29"/>
+      <c r="P56" s="29"/>
+      <c r="Q56" s="27"/>
+      <c r="R56" s="30">
+        <v>2</v>
+      </c>
+      <c r="S56" s="30">
+        <v>6.55</v>
+      </c>
+      <c r="T56" s="30">
+        <v>0</v>
+      </c>
+      <c r="U56" s="30">
+        <v>0</v>
+      </c>
+      <c r="V56" s="30"/>
+      <c r="W56" s="28"/>
+      <c r="X56" s="27"/>
+      <c r="Y56" s="27"/>
+      <c r="Z56" s="27"/>
+      <c r="AA56" s="27"/>
+      <c r="AB56" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC56" s="27"/>
+      <c r="AD56" s="27" t="s">
+        <v>287</v>
+      </c>
+      <c r="AE56" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="AF56" s="19"/>
-    </row>
-    <row r="57" spans="1:32" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="AF56" s="27"/>
+    </row>
+    <row r="57" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="23">
         <v>2</v>
       </c>
@@ -5577,13 +5621,13 @@
         <v>0</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E57" s="17" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F57" s="17"/>
       <c r="G57" s="17"/>
@@ -5598,10 +5642,10 @@
       <c r="P57" s="18"/>
       <c r="Q57" s="19"/>
       <c r="R57" s="20">
-        <v>2</v>
+        <v>0.79800000000000004</v>
       </c>
       <c r="S57" s="20">
-        <v>5.95</v>
+        <v>6</v>
       </c>
       <c r="T57" s="24">
         <v>0</v>
@@ -5616,74 +5660,74 @@
       <c r="Z57" s="19"/>
       <c r="AA57" s="23"/>
       <c r="AB57" s="17" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="AC57" s="19"/>
       <c r="AD57" s="19" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="AE57" s="19" t="s">
         <v>28</v>
       </c>
       <c r="AF57" s="19"/>
     </row>
-    <row r="58" spans="1:32" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="27">
+    <row r="58" spans="1:32" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="23">
         <v>2</v>
       </c>
-      <c r="B58" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C58" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="D58" s="28" t="s">
-        <v>346</v>
-      </c>
-      <c r="E58" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="F58" s="28"/>
-      <c r="G58" s="28"/>
-      <c r="H58" s="28"/>
-      <c r="I58" s="28"/>
-      <c r="J58" s="28"/>
-      <c r="K58" s="28"/>
-      <c r="L58" s="28"/>
-      <c r="M58" s="28"/>
-      <c r="N58" s="28"/>
-      <c r="O58" s="29"/>
-      <c r="P58" s="29"/>
-      <c r="Q58" s="27"/>
-      <c r="R58" s="30">
-        <v>0.7</v>
-      </c>
-      <c r="S58" s="30">
-        <v>5.3330000000000002</v>
-      </c>
-      <c r="T58" s="30">
-        <v>0</v>
-      </c>
-      <c r="U58" s="30">
-        <v>0</v>
-      </c>
-      <c r="V58" s="30"/>
-      <c r="W58" s="28"/>
-      <c r="X58" s="27"/>
-      <c r="Y58" s="27"/>
-      <c r="Z58" s="27"/>
-      <c r="AA58" s="27"/>
-      <c r="AB58" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC58" s="27"/>
-      <c r="AD58" s="27" t="s">
-        <v>290</v>
-      </c>
-      <c r="AE58" s="27" t="s">
+      <c r="B58" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="E58" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="17"/>
+      <c r="J58" s="17"/>
+      <c r="K58" s="17"/>
+      <c r="L58" s="17"/>
+      <c r="M58" s="17"/>
+      <c r="N58" s="17"/>
+      <c r="O58" s="18"/>
+      <c r="P58" s="18"/>
+      <c r="Q58" s="19"/>
+      <c r="R58" s="20">
+        <v>2</v>
+      </c>
+      <c r="S58" s="20">
+        <v>5.95</v>
+      </c>
+      <c r="T58" s="24">
+        <v>0</v>
+      </c>
+      <c r="U58" s="24">
+        <v>0</v>
+      </c>
+      <c r="V58" s="20"/>
+      <c r="W58" s="17"/>
+      <c r="X58" s="19"/>
+      <c r="Y58" s="19"/>
+      <c r="Z58" s="19"/>
+      <c r="AA58" s="23"/>
+      <c r="AB58" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC58" s="19"/>
+      <c r="AD58" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="AE58" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="AF58" s="27"/>
+      <c r="AF58" s="19"/>
     </row>
     <row r="59" spans="1:32" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="27">
@@ -5693,13 +5737,13 @@
         <v>0</v>
       </c>
       <c r="C59" s="28" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="D59" s="28" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E59" s="28" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="F59" s="28"/>
       <c r="G59" s="28"/>
@@ -5714,7 +5758,7 @@
       <c r="P59" s="29"/>
       <c r="Q59" s="27"/>
       <c r="R59" s="30">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="S59" s="30">
         <v>5.3330000000000002</v>
@@ -5732,74 +5776,74 @@
       <c r="Z59" s="27"/>
       <c r="AA59" s="27"/>
       <c r="AB59" s="28" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="AC59" s="27"/>
       <c r="AD59" s="27" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="AE59" s="27" t="s">
         <v>28</v>
       </c>
       <c r="AF59" s="27"/>
     </row>
-    <row r="60" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="23">
+    <row r="60" spans="1:32" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="27">
         <v>2</v>
       </c>
-      <c r="B60" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C60" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="D60" s="17" t="s">
-        <v>346</v>
-      </c>
-      <c r="E60" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="F60" s="17"/>
-      <c r="G60" s="17"/>
-      <c r="H60" s="17"/>
-      <c r="I60" s="17"/>
-      <c r="J60" s="17"/>
-      <c r="K60" s="17"/>
-      <c r="L60" s="17"/>
-      <c r="M60" s="17"/>
-      <c r="N60" s="17"/>
-      <c r="O60" s="18"/>
-      <c r="P60" s="18"/>
-      <c r="Q60" s="19"/>
-      <c r="R60" s="20">
-        <v>0.7</v>
-      </c>
-      <c r="S60" s="20">
-        <v>4.7080000000000002</v>
-      </c>
-      <c r="T60" s="24">
-        <v>0</v>
-      </c>
-      <c r="U60" s="24">
-        <v>0</v>
-      </c>
-      <c r="V60" s="20"/>
-      <c r="W60" s="17"/>
-      <c r="X60" s="19"/>
-      <c r="Y60" s="19"/>
-      <c r="Z60" s="19"/>
-      <c r="AA60" s="23"/>
-      <c r="AB60" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="AC60" s="19"/>
-      <c r="AD60" s="19" t="s">
-        <v>290</v>
-      </c>
-      <c r="AE60" s="19" t="s">
+      <c r="B60" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C60" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D60" s="28" t="s">
+        <v>340</v>
+      </c>
+      <c r="E60" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="F60" s="28"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="28"/>
+      <c r="I60" s="28"/>
+      <c r="J60" s="28"/>
+      <c r="K60" s="28"/>
+      <c r="L60" s="28"/>
+      <c r="M60" s="28"/>
+      <c r="N60" s="28"/>
+      <c r="O60" s="29"/>
+      <c r="P60" s="29"/>
+      <c r="Q60" s="27"/>
+      <c r="R60" s="30">
+        <v>2</v>
+      </c>
+      <c r="S60" s="30">
+        <v>5.3330000000000002</v>
+      </c>
+      <c r="T60" s="30">
+        <v>0</v>
+      </c>
+      <c r="U60" s="30">
+        <v>0</v>
+      </c>
+      <c r="V60" s="30"/>
+      <c r="W60" s="28"/>
+      <c r="X60" s="27"/>
+      <c r="Y60" s="27"/>
+      <c r="Z60" s="27"/>
+      <c r="AA60" s="27"/>
+      <c r="AB60" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC60" s="27"/>
+      <c r="AD60" s="27" t="s">
+        <v>287</v>
+      </c>
+      <c r="AE60" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="AF60" s="19"/>
+      <c r="AF60" s="27"/>
     </row>
     <row r="61" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="23">
@@ -5809,13 +5853,13 @@
         <v>0</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E61" s="17" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="F61" s="17"/>
       <c r="G61" s="17"/>
@@ -5830,7 +5874,7 @@
       <c r="P61" s="18"/>
       <c r="Q61" s="19"/>
       <c r="R61" s="20">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="S61" s="20">
         <v>4.7080000000000002</v>
@@ -5848,74 +5892,74 @@
       <c r="Z61" s="19"/>
       <c r="AA61" s="23"/>
       <c r="AB61" s="17" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="AC61" s="19"/>
       <c r="AD61" s="19" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="AE61" s="19" t="s">
         <v>28</v>
       </c>
       <c r="AF61" s="19"/>
     </row>
-    <row r="62" spans="1:32" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="27">
+    <row r="62" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="23">
         <v>2</v>
       </c>
-      <c r="B62" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C62" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="D62" s="28" t="s">
-        <v>346</v>
-      </c>
-      <c r="E62" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="F62" s="28"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="28"/>
-      <c r="J62" s="28"/>
-      <c r="K62" s="28"/>
-      <c r="L62" s="28"/>
-      <c r="M62" s="28"/>
-      <c r="N62" s="28"/>
-      <c r="O62" s="29"/>
-      <c r="P62" s="29"/>
-      <c r="Q62" s="27"/>
-      <c r="R62" s="30">
-        <v>0.7</v>
-      </c>
-      <c r="S62" s="30">
-        <v>4.0830000000000002</v>
-      </c>
-      <c r="T62" s="30">
-        <v>0</v>
-      </c>
-      <c r="U62" s="30">
-        <v>0</v>
-      </c>
-      <c r="V62" s="30"/>
-      <c r="W62" s="28"/>
-      <c r="X62" s="27"/>
-      <c r="Y62" s="27"/>
-      <c r="Z62" s="27"/>
-      <c r="AA62" s="27"/>
-      <c r="AB62" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="AC62" s="27"/>
-      <c r="AD62" s="27" t="s">
-        <v>290</v>
-      </c>
-      <c r="AE62" s="27" t="s">
+      <c r="B62" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C62" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D62" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="E62" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="F62" s="17"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="17"/>
+      <c r="I62" s="17"/>
+      <c r="J62" s="17"/>
+      <c r="K62" s="17"/>
+      <c r="L62" s="17"/>
+      <c r="M62" s="17"/>
+      <c r="N62" s="17"/>
+      <c r="O62" s="18"/>
+      <c r="P62" s="18"/>
+      <c r="Q62" s="19"/>
+      <c r="R62" s="20">
+        <v>2</v>
+      </c>
+      <c r="S62" s="20">
+        <v>4.7080000000000002</v>
+      </c>
+      <c r="T62" s="24">
+        <v>0</v>
+      </c>
+      <c r="U62" s="24">
+        <v>0</v>
+      </c>
+      <c r="V62" s="20"/>
+      <c r="W62" s="17"/>
+      <c r="X62" s="19"/>
+      <c r="Y62" s="19"/>
+      <c r="Z62" s="19"/>
+      <c r="AA62" s="23"/>
+      <c r="AB62" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC62" s="19"/>
+      <c r="AD62" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="AE62" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="AF62" s="27"/>
+      <c r="AF62" s="19"/>
     </row>
     <row r="63" spans="1:32" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="27">
@@ -5925,13 +5969,13 @@
         <v>0</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D63" s="28" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E63" s="28" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="F63" s="28"/>
       <c r="G63" s="28"/>
@@ -5946,7 +5990,7 @@
       <c r="P63" s="29"/>
       <c r="Q63" s="27"/>
       <c r="R63" s="30">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="S63" s="30">
         <v>4.0830000000000002</v>
@@ -5964,76 +6008,74 @@
       <c r="Z63" s="27"/>
       <c r="AA63" s="27"/>
       <c r="AB63" s="28" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AC63" s="27"/>
       <c r="AD63" s="27" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="AE63" s="27" t="s">
         <v>28</v>
       </c>
       <c r="AF63" s="27"/>
     </row>
-    <row r="64" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="23">
+    <row r="64" spans="1:32" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="27">
         <v>2</v>
       </c>
-      <c r="B64" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C64" s="17" t="s">
+      <c r="B64" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="D64" s="17" t="s">
-        <v>346</v>
-      </c>
-      <c r="E64" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="F64" s="17"/>
-      <c r="G64" s="17"/>
-      <c r="H64" s="17"/>
-      <c r="I64" s="17"/>
-      <c r="J64" s="17"/>
-      <c r="K64" s="17"/>
-      <c r="L64" s="17"/>
-      <c r="M64" s="17"/>
-      <c r="N64" s="17"/>
-      <c r="O64" s="18"/>
-      <c r="P64" s="18"/>
-      <c r="Q64" s="19"/>
-      <c r="R64" s="20">
-        <v>0.7</v>
-      </c>
-      <c r="S64" s="20">
-        <v>3.375</v>
-      </c>
-      <c r="T64" s="24">
-        <v>0</v>
-      </c>
-      <c r="U64" s="24">
-        <v>0</v>
-      </c>
-      <c r="V64" s="20"/>
-      <c r="W64" s="17"/>
-      <c r="X64" s="19"/>
-      <c r="Y64" s="19"/>
-      <c r="Z64" s="19"/>
-      <c r="AA64" s="23"/>
-      <c r="AB64" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC64" s="19"/>
-      <c r="AD64" s="19" t="s">
-        <v>291</v>
-      </c>
-      <c r="AE64" s="19" t="s">
+      <c r="D64" s="28" t="s">
+        <v>340</v>
+      </c>
+      <c r="E64" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="F64" s="28"/>
+      <c r="G64" s="28"/>
+      <c r="H64" s="28"/>
+      <c r="I64" s="28"/>
+      <c r="J64" s="28"/>
+      <c r="K64" s="28"/>
+      <c r="L64" s="28"/>
+      <c r="M64" s="28"/>
+      <c r="N64" s="28"/>
+      <c r="O64" s="29"/>
+      <c r="P64" s="29"/>
+      <c r="Q64" s="27"/>
+      <c r="R64" s="30">
+        <v>2</v>
+      </c>
+      <c r="S64" s="30">
+        <v>4.0830000000000002</v>
+      </c>
+      <c r="T64" s="30">
+        <v>0</v>
+      </c>
+      <c r="U64" s="30">
+        <v>0</v>
+      </c>
+      <c r="V64" s="30"/>
+      <c r="W64" s="28"/>
+      <c r="X64" s="27"/>
+      <c r="Y64" s="27"/>
+      <c r="Z64" s="27"/>
+      <c r="AA64" s="27"/>
+      <c r="AB64" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC64" s="27"/>
+      <c r="AD64" s="27" t="s">
+        <v>287</v>
+      </c>
+      <c r="AE64" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="AF64" s="19" t="s">
-        <v>37</v>
-      </c>
+      <c r="AF64" s="27"/>
     </row>
     <row r="65" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="23">
@@ -6043,13 +6085,13 @@
         <v>0</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E65" s="17" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F65" s="17"/>
       <c r="G65" s="17"/>
@@ -6064,7 +6106,7 @@
       <c r="P65" s="18"/>
       <c r="Q65" s="19"/>
       <c r="R65" s="20">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="S65" s="20">
         <v>3.375</v>
@@ -6082,11 +6124,11 @@
       <c r="Z65" s="19"/>
       <c r="AA65" s="23"/>
       <c r="AB65" s="17" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AC65" s="19"/>
       <c r="AD65" s="19" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="AE65" s="19" t="s">
         <v>28</v>
@@ -6095,117 +6137,119 @@
         <v>37</v>
       </c>
     </row>
-    <row r="66" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="23">
         <v>2</v>
       </c>
-      <c r="B66" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C66" s="21" t="s">
-        <v>223</v>
-      </c>
-      <c r="D66" s="21" t="s">
-        <v>338</v>
-      </c>
-      <c r="E66" s="21" t="s">
-        <v>224</v>
-      </c>
-      <c r="F66" s="21"/>
-      <c r="G66" s="21"/>
-      <c r="H66" s="21"/>
-      <c r="I66" s="21"/>
-      <c r="J66" s="21"/>
-      <c r="K66" s="21"/>
-      <c r="L66" s="21"/>
-      <c r="M66" s="21"/>
-      <c r="N66" s="21"/>
-      <c r="O66" s="22"/>
-      <c r="P66" s="22"/>
-      <c r="Q66" s="23"/>
+      <c r="B66" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C66" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="D66" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="E66" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="F66" s="17"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="17"/>
+      <c r="I66" s="17"/>
+      <c r="J66" s="17"/>
+      <c r="K66" s="17"/>
+      <c r="L66" s="17"/>
+      <c r="M66" s="17"/>
+      <c r="N66" s="17"/>
+      <c r="O66" s="18"/>
+      <c r="P66" s="18"/>
+      <c r="Q66" s="19"/>
       <c r="R66" s="20">
-        <v>0.308</v>
+        <v>2</v>
       </c>
       <c r="S66" s="20">
-        <v>3.87</v>
+        <v>3.375</v>
       </c>
       <c r="T66" s="24">
-        <v>1.0900000000000001</v>
+        <v>0</v>
       </c>
       <c r="U66" s="24">
-        <v>0.45</v>
-      </c>
-      <c r="V66" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="W66" s="21"/>
-      <c r="X66" s="23"/>
+        <v>0</v>
+      </c>
+      <c r="V66" s="20"/>
+      <c r="W66" s="17"/>
+      <c r="X66" s="19"/>
       <c r="Y66" s="19"/>
       <c r="Z66" s="19"/>
       <c r="AA66" s="23"/>
-      <c r="AB66" s="23"/>
-      <c r="AC66" s="23"/>
-      <c r="AD66" s="19"/>
-      <c r="AE66" s="23"/>
-      <c r="AF66" s="23"/>
-    </row>
-    <row r="67" spans="1:32" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="27">
+      <c r="AB66" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC66" s="19"/>
+      <c r="AD66" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="AE66" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF66" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="67" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="23">
         <v>2</v>
       </c>
-      <c r="B67" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C67" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="D67" s="28" t="s">
-        <v>347</v>
-      </c>
-      <c r="E67" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="F67" s="28"/>
-      <c r="G67" s="28"/>
-      <c r="H67" s="28"/>
-      <c r="I67" s="28"/>
-      <c r="J67" s="28"/>
-      <c r="K67" s="28"/>
-      <c r="L67" s="28"/>
-      <c r="M67" s="28"/>
-      <c r="N67" s="28"/>
-      <c r="O67" s="29"/>
-      <c r="P67" s="29"/>
-      <c r="Q67" s="27"/>
-      <c r="R67" s="30">
-        <v>0.7</v>
-      </c>
-      <c r="S67" s="30">
-        <v>2.75</v>
-      </c>
-      <c r="T67" s="30">
-        <v>0</v>
-      </c>
-      <c r="U67" s="30">
-        <v>0</v>
-      </c>
-      <c r="V67" s="30"/>
-      <c r="W67" s="28"/>
-      <c r="X67" s="27"/>
-      <c r="Y67" s="27"/>
-      <c r="Z67" s="27"/>
-      <c r="AA67" s="27"/>
-      <c r="AB67" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC67" s="27"/>
-      <c r="AD67" s="27" t="s">
-        <v>290</v>
-      </c>
-      <c r="AE67" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF67" s="27"/>
+      <c r="B67" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C67" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="D67" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="E67" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="F67" s="21"/>
+      <c r="G67" s="21"/>
+      <c r="H67" s="21"/>
+      <c r="I67" s="21"/>
+      <c r="J67" s="21"/>
+      <c r="K67" s="21"/>
+      <c r="L67" s="21"/>
+      <c r="M67" s="21"/>
+      <c r="N67" s="21"/>
+      <c r="O67" s="22"/>
+      <c r="P67" s="22"/>
+      <c r="Q67" s="23"/>
+      <c r="R67" s="20">
+        <v>0.308</v>
+      </c>
+      <c r="S67" s="20">
+        <v>3.87</v>
+      </c>
+      <c r="T67" s="24">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="U67" s="24">
+        <v>0.45</v>
+      </c>
+      <c r="V67" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="W67" s="21"/>
+      <c r="X67" s="23"/>
+      <c r="Y67" s="19"/>
+      <c r="Z67" s="19"/>
+      <c r="AA67" s="23"/>
+      <c r="AB67" s="23"/>
+      <c r="AC67" s="23"/>
+      <c r="AD67" s="19"/>
+      <c r="AE67" s="23"/>
+      <c r="AF67" s="23"/>
     </row>
     <row r="68" spans="1:32" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="27">
@@ -6215,13 +6259,13 @@
         <v>0</v>
       </c>
       <c r="C68" s="28" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="D68" s="28" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E68" s="28" t="s">
-        <v>124</v>
+        <v>8</v>
       </c>
       <c r="F68" s="28"/>
       <c r="G68" s="28"/>
@@ -6236,7 +6280,7 @@
       <c r="P68" s="29"/>
       <c r="Q68" s="27"/>
       <c r="R68" s="30">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="S68" s="30">
         <v>2.75</v>
@@ -6254,74 +6298,74 @@
       <c r="Z68" s="27"/>
       <c r="AA68" s="27"/>
       <c r="AB68" s="28" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="AC68" s="27"/>
       <c r="AD68" s="27" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="AE68" s="27" t="s">
         <v>28</v>
       </c>
       <c r="AF68" s="27"/>
     </row>
-    <row r="69" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="23">
+    <row r="69" spans="1:32" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="27">
         <v>2</v>
       </c>
-      <c r="B69" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C69" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="D69" s="17" t="s">
-        <v>347</v>
-      </c>
-      <c r="E69" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="F69" s="17"/>
-      <c r="G69" s="17"/>
-      <c r="H69" s="17"/>
-      <c r="I69" s="17"/>
-      <c r="J69" s="17"/>
-      <c r="K69" s="17"/>
-      <c r="L69" s="17"/>
-      <c r="M69" s="17"/>
-      <c r="N69" s="17"/>
-      <c r="O69" s="18"/>
-      <c r="P69" s="18"/>
-      <c r="Q69" s="19"/>
-      <c r="R69" s="20">
-        <v>0.7</v>
-      </c>
-      <c r="S69" s="20">
-        <v>2.125</v>
-      </c>
-      <c r="T69" s="24">
-        <v>0</v>
-      </c>
-      <c r="U69" s="24">
-        <v>0</v>
-      </c>
-      <c r="V69" s="20"/>
-      <c r="W69" s="17"/>
-      <c r="X69" s="19"/>
-      <c r="Y69" s="19"/>
-      <c r="Z69" s="19"/>
-      <c r="AA69" s="23"/>
-      <c r="AB69" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="AC69" s="19"/>
-      <c r="AD69" s="19" t="s">
-        <v>290</v>
-      </c>
-      <c r="AE69" s="19" t="s">
+      <c r="B69" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C69" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="D69" s="28" t="s">
+        <v>340</v>
+      </c>
+      <c r="E69" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="F69" s="28"/>
+      <c r="G69" s="28"/>
+      <c r="H69" s="28"/>
+      <c r="I69" s="28"/>
+      <c r="J69" s="28"/>
+      <c r="K69" s="28"/>
+      <c r="L69" s="28"/>
+      <c r="M69" s="28"/>
+      <c r="N69" s="28"/>
+      <c r="O69" s="29"/>
+      <c r="P69" s="29"/>
+      <c r="Q69" s="27"/>
+      <c r="R69" s="30">
+        <v>2</v>
+      </c>
+      <c r="S69" s="30">
+        <v>2.75</v>
+      </c>
+      <c r="T69" s="30">
+        <v>0</v>
+      </c>
+      <c r="U69" s="30">
+        <v>0</v>
+      </c>
+      <c r="V69" s="30"/>
+      <c r="W69" s="28"/>
+      <c r="X69" s="27"/>
+      <c r="Y69" s="27"/>
+      <c r="Z69" s="27"/>
+      <c r="AA69" s="27"/>
+      <c r="AB69" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC69" s="27"/>
+      <c r="AD69" s="27" t="s">
+        <v>287</v>
+      </c>
+      <c r="AE69" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="AF69" s="19"/>
+      <c r="AF69" s="27"/>
     </row>
     <row r="70" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="23">
@@ -6331,13 +6375,13 @@
         <v>0</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E70" s="17" t="s">
-        <v>123</v>
+        <v>33</v>
       </c>
       <c r="F70" s="17"/>
       <c r="G70" s="17"/>
@@ -6352,7 +6396,7 @@
       <c r="P70" s="18"/>
       <c r="Q70" s="19"/>
       <c r="R70" s="20">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="S70" s="20">
         <v>2.125</v>
@@ -6370,168 +6414,168 @@
       <c r="Z70" s="19"/>
       <c r="AA70" s="23"/>
       <c r="AB70" s="17" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="AC70" s="19"/>
       <c r="AD70" s="19" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="AE70" s="19" t="s">
         <v>28</v>
       </c>
       <c r="AF70" s="19"/>
     </row>
-    <row r="71" spans="1:32" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="27">
+    <row r="71" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="23">
         <v>2</v>
       </c>
-      <c r="B71" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C71" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="D71" s="28" t="s">
-        <v>344</v>
-      </c>
-      <c r="E71" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="F71" s="28"/>
-      <c r="G71" s="28"/>
-      <c r="H71" s="28"/>
-      <c r="I71" s="28"/>
-      <c r="J71" s="28"/>
-      <c r="K71" s="28"/>
-      <c r="L71" s="28"/>
-      <c r="M71" s="28"/>
-      <c r="N71" s="28"/>
-      <c r="O71" s="29"/>
-      <c r="P71" s="29"/>
-      <c r="Q71" s="27"/>
-      <c r="R71" s="30">
+      <c r="B71" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C71" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D71" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="E71" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="F71" s="17"/>
+      <c r="G71" s="17"/>
+      <c r="H71" s="17"/>
+      <c r="I71" s="17"/>
+      <c r="J71" s="17"/>
+      <c r="K71" s="17"/>
+      <c r="L71" s="17"/>
+      <c r="M71" s="17"/>
+      <c r="N71" s="17"/>
+      <c r="O71" s="18"/>
+      <c r="P71" s="18"/>
+      <c r="Q71" s="19"/>
+      <c r="R71" s="20">
+        <v>2</v>
+      </c>
+      <c r="S71" s="20">
+        <v>2.125</v>
+      </c>
+      <c r="T71" s="24">
+        <v>0</v>
+      </c>
+      <c r="U71" s="24">
+        <v>0</v>
+      </c>
+      <c r="V71" s="20"/>
+      <c r="W71" s="17"/>
+      <c r="X71" s="19"/>
+      <c r="Y71" s="19"/>
+      <c r="Z71" s="19"/>
+      <c r="AA71" s="23"/>
+      <c r="AB71" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC71" s="19"/>
+      <c r="AD71" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="AE71" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF71" s="19"/>
+    </row>
+    <row r="72" spans="1:32" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="27">
+        <v>2</v>
+      </c>
+      <c r="B72" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C72" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="D72" s="28" t="s">
+        <v>340</v>
+      </c>
+      <c r="E72" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="F72" s="28"/>
+      <c r="G72" s="28"/>
+      <c r="H72" s="28"/>
+      <c r="I72" s="28"/>
+      <c r="J72" s="28"/>
+      <c r="K72" s="28"/>
+      <c r="L72" s="28"/>
+      <c r="M72" s="28"/>
+      <c r="N72" s="28"/>
+      <c r="O72" s="29"/>
+      <c r="P72" s="29"/>
+      <c r="Q72" s="27"/>
+      <c r="R72" s="30">
         <v>3.25</v>
       </c>
-      <c r="S71" s="30">
+      <c r="S72" s="30">
         <v>4.5030000000000001</v>
       </c>
-      <c r="T71" s="30">
-        <v>0</v>
-      </c>
-      <c r="U71" s="30">
-        <v>0</v>
-      </c>
-      <c r="V71" s="30"/>
-      <c r="W71" s="28"/>
-      <c r="X71" s="27"/>
-      <c r="Y71" s="27"/>
-      <c r="Z71" s="27"/>
-      <c r="AA71" s="27"/>
-      <c r="AB71" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="AC71" s="27"/>
-      <c r="AD71" s="27" t="s">
-        <v>290</v>
-      </c>
-      <c r="AE71" s="27" t="s">
+      <c r="T72" s="30">
+        <v>0</v>
+      </c>
+      <c r="U72" s="30">
+        <v>0</v>
+      </c>
+      <c r="V72" s="30"/>
+      <c r="W72" s="28"/>
+      <c r="X72" s="27"/>
+      <c r="Y72" s="27"/>
+      <c r="Z72" s="27"/>
+      <c r="AA72" s="27"/>
+      <c r="AB72" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC72" s="27"/>
+      <c r="AD72" s="27" t="s">
+        <v>287</v>
+      </c>
+      <c r="AE72" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="AF71" s="27"/>
-    </row>
-    <row r="72" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A72" s="10" t="s">
+      <c r="AF72" s="27"/>
+    </row>
+    <row r="73" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A73" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B72" s="10"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="10"/>
-      <c r="G72" s="10"/>
-      <c r="H72" s="10"/>
-      <c r="I72" s="10"/>
-      <c r="J72" s="10"/>
-      <c r="K72" s="10"/>
-      <c r="L72" s="10"/>
-      <c r="M72" s="10"/>
-      <c r="N72" s="10"/>
-      <c r="O72" s="11"/>
-      <c r="P72" s="11"/>
-      <c r="Q72" s="12"/>
-      <c r="R72" s="13"/>
-      <c r="S72" s="13"/>
-      <c r="T72" s="13"/>
-      <c r="U72" s="13"/>
-      <c r="V72" s="13"/>
-      <c r="W72" s="10"/>
-      <c r="X72" s="12"/>
-      <c r="Y72" s="12"/>
-      <c r="Z72" s="12"/>
-      <c r="AA72" s="12"/>
-      <c r="AB72" s="12"/>
-      <c r="AC72" s="12"/>
-      <c r="AD72" s="12"/>
-      <c r="AE72" s="12"/>
-      <c r="AF72" s="12"/>
-    </row>
-    <row r="73" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="23">
-        <v>2</v>
-      </c>
-      <c r="B73" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C73" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="D73" s="17" t="s">
-        <v>348</v>
-      </c>
-      <c r="E73" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="F73" s="17"/>
-      <c r="G73" s="17"/>
-      <c r="H73" s="17"/>
-      <c r="I73" s="17"/>
-      <c r="J73" s="17"/>
-      <c r="K73" s="17"/>
-      <c r="L73" s="17"/>
-      <c r="M73" s="17"/>
-      <c r="N73" s="17"/>
-      <c r="O73" s="18"/>
-      <c r="P73" s="18"/>
-      <c r="Q73" s="19"/>
-      <c r="R73" s="20">
-        <v>3.1709999999999998</v>
-      </c>
-      <c r="S73" s="20">
-        <v>3.427</v>
-      </c>
-      <c r="T73" s="24">
-        <v>0</v>
-      </c>
-      <c r="U73" s="24">
-        <v>0</v>
-      </c>
-      <c r="V73" s="20"/>
-      <c r="W73" s="17"/>
-      <c r="X73" s="19"/>
-      <c r="Y73" s="19"/>
-      <c r="Z73" s="19"/>
-      <c r="AA73" s="23"/>
-      <c r="AB73" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC73" s="19"/>
-      <c r="AD73" s="19" t="s">
-        <v>290</v>
-      </c>
-      <c r="AE73" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF73" s="19"/>
+      <c r="B73" s="10"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="10"/>
+      <c r="I73" s="10"/>
+      <c r="J73" s="10"/>
+      <c r="K73" s="10"/>
+      <c r="L73" s="10"/>
+      <c r="M73" s="10"/>
+      <c r="N73" s="10"/>
+      <c r="O73" s="11"/>
+      <c r="P73" s="11"/>
+      <c r="Q73" s="12"/>
+      <c r="R73" s="13"/>
+      <c r="S73" s="13"/>
+      <c r="T73" s="13"/>
+      <c r="U73" s="13"/>
+      <c r="V73" s="13"/>
+      <c r="W73" s="10"/>
+      <c r="X73" s="12"/>
+      <c r="Y73" s="12"/>
+      <c r="Z73" s="12"/>
+      <c r="AA73" s="12"/>
+      <c r="AB73" s="12"/>
+      <c r="AC73" s="12"/>
+      <c r="AD73" s="12"/>
+      <c r="AE73" s="12"/>
+      <c r="AF73" s="12"/>
     </row>
     <row r="74" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="23">
@@ -6541,13 +6585,13 @@
         <v>0</v>
       </c>
       <c r="C74" s="17" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="E74" s="17" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="F74" s="17"/>
       <c r="G74" s="17"/>
@@ -6565,7 +6609,7 @@
         <v>3.1709999999999998</v>
       </c>
       <c r="S74" s="20">
-        <v>2.677</v>
+        <v>3.427</v>
       </c>
       <c r="T74" s="24">
         <v>0</v>
@@ -6580,119 +6624,127 @@
       <c r="Z74" s="19"/>
       <c r="AA74" s="23"/>
       <c r="AB74" s="17" t="s">
-        <v>158</v>
+        <v>99</v>
       </c>
       <c r="AC74" s="19"/>
       <c r="AD74" s="19" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="AE74" s="19" t="s">
         <v>28</v>
       </c>
       <c r="AF74" s="19"/>
     </row>
-    <row r="75" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A75" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="B75" s="10"/>
-      <c r="C75" s="10"/>
-      <c r="D75" s="10"/>
-      <c r="E75" s="10"/>
-      <c r="F75" s="10"/>
-      <c r="G75" s="10"/>
-      <c r="H75" s="10"/>
-      <c r="I75" s="10"/>
-      <c r="J75" s="10"/>
-      <c r="K75" s="10"/>
-      <c r="L75" s="10"/>
-      <c r="M75" s="10"/>
-      <c r="N75" s="10"/>
-      <c r="O75" s="11"/>
-      <c r="P75" s="11"/>
-      <c r="Q75" s="12"/>
-      <c r="R75" s="13"/>
-      <c r="S75" s="13"/>
-      <c r="T75" s="13"/>
-      <c r="U75" s="13"/>
-      <c r="V75" s="13"/>
-      <c r="W75" s="10"/>
-      <c r="X75" s="12"/>
-      <c r="Y75" s="12"/>
-      <c r="Z75" s="12"/>
-      <c r="AA75" s="12"/>
-      <c r="AB75" s="12"/>
-      <c r="AC75" s="12"/>
-      <c r="AD75" s="12"/>
-      <c r="AE75" s="12"/>
-      <c r="AF75" s="12"/>
-    </row>
-    <row r="76" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="23">
+    <row r="75" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="23">
         <v>2</v>
       </c>
-      <c r="B76" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C76" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="D76" s="21" t="s">
-        <v>342</v>
-      </c>
-      <c r="E76" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="F76" s="21"/>
-      <c r="G76" s="21"/>
-      <c r="H76" s="21"/>
-      <c r="I76" s="21"/>
-      <c r="J76" s="21"/>
-      <c r="K76" s="21"/>
-      <c r="L76" s="21"/>
-      <c r="M76" s="21"/>
-      <c r="N76" s="21"/>
-      <c r="O76" s="22"/>
-      <c r="P76" s="22"/>
-      <c r="Q76" s="23"/>
-      <c r="R76" s="24">
-        <v>4.7779999999999996</v>
-      </c>
-      <c r="S76" s="24">
-        <v>8.0269999999999992</v>
-      </c>
-      <c r="T76" s="24">
-        <v>2.75</v>
-      </c>
-      <c r="U76" s="24">
-        <v>6.1</v>
-      </c>
-      <c r="V76" s="24"/>
-      <c r="W76" s="21"/>
-      <c r="X76" s="23"/>
-      <c r="Y76" s="19"/>
-      <c r="Z76" s="19"/>
-      <c r="AA76" s="23"/>
-      <c r="AB76" s="23"/>
-      <c r="AC76" s="23"/>
-      <c r="AD76" s="19"/>
-      <c r="AE76" s="19"/>
-      <c r="AF76" s="23"/>
+      <c r="B75" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C75" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="D75" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="E75" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="F75" s="17"/>
+      <c r="G75" s="17"/>
+      <c r="H75" s="17"/>
+      <c r="I75" s="17"/>
+      <c r="J75" s="17"/>
+      <c r="K75" s="17"/>
+      <c r="L75" s="17"/>
+      <c r="M75" s="17"/>
+      <c r="N75" s="17"/>
+      <c r="O75" s="18"/>
+      <c r="P75" s="18"/>
+      <c r="Q75" s="19"/>
+      <c r="R75" s="20">
+        <v>3.1709999999999998</v>
+      </c>
+      <c r="S75" s="20">
+        <v>2.677</v>
+      </c>
+      <c r="T75" s="24">
+        <v>0</v>
+      </c>
+      <c r="U75" s="24">
+        <v>0</v>
+      </c>
+      <c r="V75" s="20"/>
+      <c r="W75" s="17"/>
+      <c r="X75" s="19"/>
+      <c r="Y75" s="19"/>
+      <c r="Z75" s="19"/>
+      <c r="AA75" s="23"/>
+      <c r="AB75" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC75" s="19"/>
+      <c r="AD75" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="AE75" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF75" s="19"/>
+    </row>
+    <row r="76" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A76" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B76" s="10"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="10"/>
+      <c r="I76" s="10"/>
+      <c r="J76" s="10"/>
+      <c r="K76" s="10"/>
+      <c r="L76" s="10"/>
+      <c r="M76" s="10"/>
+      <c r="N76" s="10"/>
+      <c r="O76" s="11"/>
+      <c r="P76" s="11"/>
+      <c r="Q76" s="12"/>
+      <c r="R76" s="13"/>
+      <c r="S76" s="13"/>
+      <c r="T76" s="13"/>
+      <c r="U76" s="13"/>
+      <c r="V76" s="13"/>
+      <c r="W76" s="10"/>
+      <c r="X76" s="12"/>
+      <c r="Y76" s="12"/>
+      <c r="Z76" s="12"/>
+      <c r="AA76" s="12"/>
+      <c r="AB76" s="12"/>
+      <c r="AC76" s="12"/>
+      <c r="AD76" s="12"/>
+      <c r="AE76" s="12"/>
+      <c r="AF76" s="12"/>
     </row>
     <row r="77" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="23" t="s">
-        <v>161</v>
+      <c r="A77" s="23">
+        <v>2</v>
       </c>
       <c r="B77" s="21" t="s">
         <v>0</v>
       </c>
       <c r="C77" s="21" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D77" s="21" t="s">
-        <v>337</v>
-      </c>
-      <c r="E77" s="21"/>
+        <v>338</v>
+      </c>
+      <c r="E77" s="21" t="s">
+        <v>154</v>
+      </c>
       <c r="F77" s="21"/>
       <c r="G77" s="21"/>
       <c r="H77" s="21"/>
@@ -6706,16 +6758,16 @@
       <c r="P77" s="22"/>
       <c r="Q77" s="23"/>
       <c r="R77" s="24">
-        <v>7.4059999999999997</v>
+        <v>4.7779999999999996</v>
       </c>
       <c r="S77" s="24">
-        <v>8.6869999999999994</v>
+        <v>8.0269999999999992</v>
       </c>
       <c r="T77" s="24">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="U77" s="24">
-        <v>0</v>
+        <v>6.1</v>
       </c>
       <c r="V77" s="24"/>
       <c r="W77" s="21"/>
@@ -6729,101 +6781,93 @@
       <c r="AE77" s="19"/>
       <c r="AF77" s="23"/>
     </row>
-    <row r="78" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A78" s="10" t="s">
+    <row r="78" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="B78" s="10"/>
-      <c r="C78" s="10"/>
-      <c r="D78" s="10"/>
-      <c r="E78" s="10"/>
-      <c r="F78" s="10"/>
-      <c r="G78" s="10"/>
-      <c r="H78" s="10"/>
-      <c r="I78" s="10"/>
-      <c r="J78" s="10"/>
-      <c r="K78" s="10"/>
-      <c r="L78" s="10"/>
-      <c r="M78" s="10"/>
-      <c r="N78" s="10"/>
-      <c r="O78" s="11"/>
-      <c r="P78" s="11"/>
-      <c r="Q78" s="12"/>
-      <c r="R78" s="13"/>
-      <c r="S78" s="13"/>
-      <c r="T78" s="13"/>
-      <c r="U78" s="13"/>
-      <c r="V78" s="13"/>
-      <c r="W78" s="10"/>
-      <c r="X78" s="12"/>
-      <c r="Y78" s="12"/>
-      <c r="Z78" s="12"/>
-      <c r="AA78" s="12"/>
-      <c r="AB78" s="12"/>
-      <c r="AC78" s="12"/>
-      <c r="AD78" s="12"/>
-      <c r="AE78" s="12"/>
-      <c r="AF78" s="12"/>
-    </row>
-    <row r="79" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="23">
-        <v>2</v>
-      </c>
-      <c r="B79" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C79" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="D79" s="17" t="s">
-        <v>343</v>
-      </c>
-      <c r="E79" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="F79" s="17"/>
-      <c r="G79" s="17"/>
-      <c r="H79" s="17"/>
-      <c r="I79" s="17"/>
-      <c r="J79" s="17"/>
-      <c r="K79" s="17"/>
-      <c r="L79" s="17"/>
-      <c r="M79" s="17"/>
-      <c r="N79" s="17"/>
-      <c r="O79" s="18"/>
-      <c r="P79" s="18"/>
-      <c r="Q79" s="19"/>
-      <c r="R79" s="20">
-        <v>7.7240000000000002</v>
-      </c>
-      <c r="S79" s="20">
-        <v>7.25</v>
-      </c>
-      <c r="T79" s="24">
-        <v>0</v>
-      </c>
-      <c r="U79" s="24">
-        <v>0</v>
-      </c>
-      <c r="V79" s="20"/>
-      <c r="W79" s="17"/>
-      <c r="X79" s="19"/>
-      <c r="Y79" s="19"/>
-      <c r="Z79" s="19"/>
-      <c r="AA79" s="23"/>
-      <c r="AB79" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC79" s="19"/>
-      <c r="AD79" s="19" t="s">
-        <v>290</v>
-      </c>
-      <c r="AE79" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF79" s="19"/>
-    </row>
-    <row r="80" spans="1:32" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B78" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C78" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="D78" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="E78" s="21"/>
+      <c r="F78" s="21"/>
+      <c r="G78" s="21"/>
+      <c r="H78" s="21"/>
+      <c r="I78" s="21"/>
+      <c r="J78" s="21"/>
+      <c r="K78" s="21"/>
+      <c r="L78" s="21"/>
+      <c r="M78" s="21"/>
+      <c r="N78" s="21"/>
+      <c r="O78" s="22"/>
+      <c r="P78" s="22"/>
+      <c r="Q78" s="23"/>
+      <c r="R78" s="24">
+        <v>7.4059999999999997</v>
+      </c>
+      <c r="S78" s="24">
+        <v>8.6869999999999994</v>
+      </c>
+      <c r="T78" s="24">
+        <v>0</v>
+      </c>
+      <c r="U78" s="24">
+        <v>0</v>
+      </c>
+      <c r="V78" s="24"/>
+      <c r="W78" s="21"/>
+      <c r="X78" s="23"/>
+      <c r="Y78" s="19"/>
+      <c r="Z78" s="19"/>
+      <c r="AA78" s="23"/>
+      <c r="AB78" s="23"/>
+      <c r="AC78" s="23"/>
+      <c r="AD78" s="19"/>
+      <c r="AE78" s="19"/>
+      <c r="AF78" s="23"/>
+    </row>
+    <row r="79" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A79" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B79" s="10"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="10"/>
+      <c r="H79" s="10"/>
+      <c r="I79" s="10"/>
+      <c r="J79" s="10"/>
+      <c r="K79" s="10"/>
+      <c r="L79" s="10"/>
+      <c r="M79" s="10"/>
+      <c r="N79" s="10"/>
+      <c r="O79" s="11"/>
+      <c r="P79" s="11"/>
+      <c r="Q79" s="12"/>
+      <c r="R79" s="13"/>
+      <c r="S79" s="13"/>
+      <c r="T79" s="13"/>
+      <c r="U79" s="13"/>
+      <c r="V79" s="13"/>
+      <c r="W79" s="10"/>
+      <c r="X79" s="12"/>
+      <c r="Y79" s="12"/>
+      <c r="Z79" s="12"/>
+      <c r="AA79" s="12"/>
+      <c r="AB79" s="12"/>
+      <c r="AC79" s="12"/>
+      <c r="AD79" s="12"/>
+      <c r="AE79" s="12"/>
+      <c r="AF79" s="12"/>
+    </row>
+    <row r="80" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="23">
         <v>2</v>
       </c>
@@ -6834,10 +6878,10 @@
         <v>133</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="E80" s="17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F80" s="17"/>
       <c r="G80" s="17"/>
@@ -6852,10 +6896,10 @@
       <c r="P80" s="18"/>
       <c r="Q80" s="19"/>
       <c r="R80" s="20">
-        <v>6.6</v>
+        <v>7.7240000000000002</v>
       </c>
       <c r="S80" s="20">
-        <v>7.2</v>
+        <v>7.25</v>
       </c>
       <c r="T80" s="24">
         <v>0</v>
@@ -6870,76 +6914,76 @@
       <c r="Z80" s="19"/>
       <c r="AA80" s="23"/>
       <c r="AB80" s="17" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="AC80" s="19"/>
       <c r="AD80" s="19" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="AE80" s="19" t="s">
         <v>28</v>
       </c>
       <c r="AF80" s="19"/>
     </row>
-    <row r="81" spans="1:32" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="27">
+    <row r="81" spans="1:32" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" s="23">
         <v>2</v>
       </c>
-      <c r="B81" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C81" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="D81" s="28" t="s">
-        <v>343</v>
-      </c>
-      <c r="E81" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="F81" s="28"/>
-      <c r="G81" s="28"/>
-      <c r="H81" s="28"/>
-      <c r="I81" s="28"/>
-      <c r="J81" s="28"/>
-      <c r="K81" s="28"/>
-      <c r="L81" s="28"/>
-      <c r="M81" s="28"/>
-      <c r="N81" s="28"/>
-      <c r="O81" s="29"/>
-      <c r="P81" s="29"/>
-      <c r="Q81" s="27"/>
-      <c r="R81" s="30">
-        <v>7.7240000000000002</v>
-      </c>
-      <c r="S81" s="30">
-        <v>6.625</v>
-      </c>
-      <c r="T81" s="30">
-        <v>0</v>
-      </c>
-      <c r="U81" s="30">
-        <v>0</v>
-      </c>
-      <c r="V81" s="30"/>
-      <c r="W81" s="28"/>
-      <c r="X81" s="27"/>
-      <c r="Y81" s="27"/>
-      <c r="Z81" s="27"/>
-      <c r="AA81" s="27"/>
-      <c r="AB81" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC81" s="27"/>
-      <c r="AD81" s="27" t="s">
-        <v>290</v>
-      </c>
-      <c r="AE81" s="27" t="s">
+      <c r="B81" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C81" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="D81" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="E81" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="F81" s="17"/>
+      <c r="G81" s="17"/>
+      <c r="H81" s="17"/>
+      <c r="I81" s="17"/>
+      <c r="J81" s="17"/>
+      <c r="K81" s="17"/>
+      <c r="L81" s="17"/>
+      <c r="M81" s="17"/>
+      <c r="N81" s="17"/>
+      <c r="O81" s="18"/>
+      <c r="P81" s="18"/>
+      <c r="Q81" s="19"/>
+      <c r="R81" s="20">
+        <v>6.6</v>
+      </c>
+      <c r="S81" s="20">
+        <v>7.2</v>
+      </c>
+      <c r="T81" s="24">
+        <v>0</v>
+      </c>
+      <c r="U81" s="24">
+        <v>0</v>
+      </c>
+      <c r="V81" s="20"/>
+      <c r="W81" s="17"/>
+      <c r="X81" s="19"/>
+      <c r="Y81" s="19"/>
+      <c r="Z81" s="19"/>
+      <c r="AA81" s="23"/>
+      <c r="AB81" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC81" s="19"/>
+      <c r="AD81" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="AE81" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="AF81" s="27"/>
-    </row>
-    <row r="82" spans="1:32" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="AF81" s="19"/>
+    </row>
+    <row r="82" spans="1:32" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="27">
         <v>2</v>
       </c>
@@ -6947,13 +6991,13 @@
         <v>0</v>
       </c>
       <c r="C82" s="28" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="D82" s="28" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="E82" s="28" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F82" s="28"/>
       <c r="G82" s="28"/>
@@ -6968,10 +7012,10 @@
       <c r="P82" s="29"/>
       <c r="Q82" s="27"/>
       <c r="R82" s="30">
-        <v>6.6</v>
+        <v>7.7240000000000002</v>
       </c>
       <c r="S82" s="30">
-        <v>6.55</v>
+        <v>6.625</v>
       </c>
       <c r="T82" s="30">
         <v>0</v>
@@ -6986,76 +7030,76 @@
       <c r="Z82" s="27"/>
       <c r="AA82" s="27"/>
       <c r="AB82" s="28" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="AC82" s="27"/>
       <c r="AD82" s="27" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="AE82" s="27" t="s">
         <v>28</v>
       </c>
       <c r="AF82" s="27"/>
     </row>
-    <row r="83" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="23">
+    <row r="83" spans="1:32" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" s="27">
         <v>2</v>
       </c>
-      <c r="B83" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C83" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="D83" s="17" t="s">
-        <v>345</v>
-      </c>
-      <c r="E83" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="F83" s="17"/>
-      <c r="G83" s="17"/>
-      <c r="H83" s="17"/>
-      <c r="I83" s="17"/>
-      <c r="J83" s="17"/>
-      <c r="K83" s="17"/>
-      <c r="L83" s="17"/>
-      <c r="M83" s="17"/>
-      <c r="N83" s="17"/>
-      <c r="O83" s="18"/>
-      <c r="P83" s="18"/>
-      <c r="Q83" s="19"/>
-      <c r="R83" s="20">
-        <v>7.7229999999999999</v>
-      </c>
-      <c r="S83" s="20">
-        <v>6</v>
-      </c>
-      <c r="T83" s="24">
-        <v>0</v>
-      </c>
-      <c r="U83" s="24">
-        <v>0</v>
-      </c>
-      <c r="V83" s="20"/>
-      <c r="W83" s="17"/>
-      <c r="X83" s="19"/>
-      <c r="Y83" s="19"/>
-      <c r="Z83" s="19"/>
-      <c r="AA83" s="23"/>
-      <c r="AB83" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="AC83" s="19"/>
-      <c r="AD83" s="19" t="s">
-        <v>290</v>
-      </c>
-      <c r="AE83" s="19" t="s">
+      <c r="B83" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C83" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="D83" s="28" t="s">
+        <v>340</v>
+      </c>
+      <c r="E83" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="F83" s="28"/>
+      <c r="G83" s="28"/>
+      <c r="H83" s="28"/>
+      <c r="I83" s="28"/>
+      <c r="J83" s="28"/>
+      <c r="K83" s="28"/>
+      <c r="L83" s="28"/>
+      <c r="M83" s="28"/>
+      <c r="N83" s="28"/>
+      <c r="O83" s="29"/>
+      <c r="P83" s="29"/>
+      <c r="Q83" s="27"/>
+      <c r="R83" s="30">
+        <v>6.6</v>
+      </c>
+      <c r="S83" s="30">
+        <v>6.55</v>
+      </c>
+      <c r="T83" s="30">
+        <v>0</v>
+      </c>
+      <c r="U83" s="30">
+        <v>0</v>
+      </c>
+      <c r="V83" s="30"/>
+      <c r="W83" s="28"/>
+      <c r="X83" s="27"/>
+      <c r="Y83" s="27"/>
+      <c r="Z83" s="27"/>
+      <c r="AA83" s="27"/>
+      <c r="AB83" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC83" s="27"/>
+      <c r="AD83" s="27" t="s">
+        <v>287</v>
+      </c>
+      <c r="AE83" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="AF83" s="19"/>
-    </row>
-    <row r="84" spans="1:32" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="AF83" s="27"/>
+    </row>
+    <row r="84" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="23">
         <v>2</v>
       </c>
@@ -7063,13 +7107,13 @@
         <v>0</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E84" s="17" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="F84" s="17"/>
       <c r="G84" s="17"/>
@@ -7084,10 +7128,10 @@
       <c r="P84" s="18"/>
       <c r="Q84" s="19"/>
       <c r="R84" s="20">
-        <v>6.6</v>
+        <v>7.7229999999999999</v>
       </c>
       <c r="S84" s="20">
-        <v>5.95</v>
+        <v>6</v>
       </c>
       <c r="T84" s="24">
         <v>0</v>
@@ -7102,74 +7146,74 @@
       <c r="Z84" s="19"/>
       <c r="AA84" s="23"/>
       <c r="AB84" s="17" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="AC84" s="19"/>
       <c r="AD84" s="19" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="AE84" s="19" t="s">
         <v>28</v>
       </c>
       <c r="AF84" s="19"/>
     </row>
-    <row r="85" spans="1:32" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="27">
+    <row r="85" spans="1:32" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="23">
         <v>2</v>
       </c>
-      <c r="B85" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C85" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="D85" s="28" t="s">
-        <v>346</v>
-      </c>
-      <c r="E85" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="F85" s="28"/>
-      <c r="G85" s="28"/>
-      <c r="H85" s="28"/>
-      <c r="I85" s="28"/>
-      <c r="J85" s="28"/>
-      <c r="K85" s="28"/>
-      <c r="L85" s="28"/>
-      <c r="M85" s="28"/>
-      <c r="N85" s="28"/>
-      <c r="O85" s="29"/>
-      <c r="P85" s="29"/>
-      <c r="Q85" s="27"/>
-      <c r="R85" s="30">
-        <v>7.75</v>
-      </c>
-      <c r="S85" s="30">
-        <v>5.3330000000000002</v>
-      </c>
-      <c r="T85" s="30">
-        <v>0</v>
-      </c>
-      <c r="U85" s="30">
-        <v>0</v>
-      </c>
-      <c r="V85" s="30"/>
-      <c r="W85" s="28"/>
-      <c r="X85" s="27"/>
-      <c r="Y85" s="27"/>
-      <c r="Z85" s="27"/>
-      <c r="AA85" s="27"/>
-      <c r="AB85" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC85" s="27"/>
-      <c r="AD85" s="27" t="s">
-        <v>290</v>
-      </c>
-      <c r="AE85" s="27" t="s">
+      <c r="B85" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C85" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="D85" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="E85" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="F85" s="17"/>
+      <c r="G85" s="17"/>
+      <c r="H85" s="17"/>
+      <c r="I85" s="17"/>
+      <c r="J85" s="17"/>
+      <c r="K85" s="17"/>
+      <c r="L85" s="17"/>
+      <c r="M85" s="17"/>
+      <c r="N85" s="17"/>
+      <c r="O85" s="18"/>
+      <c r="P85" s="18"/>
+      <c r="Q85" s="19"/>
+      <c r="R85" s="20">
+        <v>6.6</v>
+      </c>
+      <c r="S85" s="20">
+        <v>5.95</v>
+      </c>
+      <c r="T85" s="24">
+        <v>0</v>
+      </c>
+      <c r="U85" s="24">
+        <v>0</v>
+      </c>
+      <c r="V85" s="20"/>
+      <c r="W85" s="17"/>
+      <c r="X85" s="19"/>
+      <c r="Y85" s="19"/>
+      <c r="Z85" s="19"/>
+      <c r="AA85" s="23"/>
+      <c r="AB85" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC85" s="19"/>
+      <c r="AD85" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="AE85" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="AF85" s="27"/>
+      <c r="AF85" s="19"/>
     </row>
     <row r="86" spans="1:32" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="27">
@@ -7179,13 +7223,13 @@
         <v>0</v>
       </c>
       <c r="C86" s="28" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D86" s="28" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E86" s="28" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="F86" s="28"/>
       <c r="G86" s="28"/>
@@ -7200,7 +7244,7 @@
       <c r="P86" s="29"/>
       <c r="Q86" s="27"/>
       <c r="R86" s="30">
-        <v>6.6</v>
+        <v>7.75</v>
       </c>
       <c r="S86" s="30">
         <v>5.3330000000000002</v>
@@ -7218,74 +7262,74 @@
       <c r="Z86" s="27"/>
       <c r="AA86" s="27"/>
       <c r="AB86" s="28" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="AC86" s="27"/>
       <c r="AD86" s="27" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="AE86" s="27" t="s">
         <v>28</v>
       </c>
       <c r="AF86" s="27"/>
     </row>
-    <row r="87" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="23">
+    <row r="87" spans="1:32" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="27">
         <v>2</v>
       </c>
-      <c r="B87" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C87" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="D87" s="17" t="s">
-        <v>346</v>
-      </c>
-      <c r="E87" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="F87" s="17"/>
-      <c r="G87" s="17"/>
-      <c r="H87" s="17"/>
-      <c r="I87" s="17"/>
-      <c r="J87" s="17"/>
-      <c r="K87" s="17"/>
-      <c r="L87" s="17"/>
-      <c r="M87" s="17"/>
-      <c r="N87" s="17"/>
-      <c r="O87" s="18"/>
-      <c r="P87" s="18"/>
-      <c r="Q87" s="19"/>
-      <c r="R87" s="20">
-        <v>7.75</v>
-      </c>
-      <c r="S87" s="20">
-        <v>4.7080000000000002</v>
-      </c>
-      <c r="T87" s="24">
-        <v>0</v>
-      </c>
-      <c r="U87" s="24">
-        <v>0</v>
-      </c>
-      <c r="V87" s="20"/>
-      <c r="W87" s="17"/>
-      <c r="X87" s="19"/>
-      <c r="Y87" s="19"/>
-      <c r="Z87" s="19"/>
-      <c r="AA87" s="23"/>
-      <c r="AB87" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="AC87" s="19"/>
-      <c r="AD87" s="19" t="s">
-        <v>290</v>
-      </c>
-      <c r="AE87" s="19" t="s">
+      <c r="B87" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C87" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="D87" s="28" t="s">
+        <v>340</v>
+      </c>
+      <c r="E87" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="F87" s="28"/>
+      <c r="G87" s="28"/>
+      <c r="H87" s="28"/>
+      <c r="I87" s="28"/>
+      <c r="J87" s="28"/>
+      <c r="K87" s="28"/>
+      <c r="L87" s="28"/>
+      <c r="M87" s="28"/>
+      <c r="N87" s="28"/>
+      <c r="O87" s="29"/>
+      <c r="P87" s="29"/>
+      <c r="Q87" s="27"/>
+      <c r="R87" s="30">
+        <v>6.6</v>
+      </c>
+      <c r="S87" s="30">
+        <v>5.3330000000000002</v>
+      </c>
+      <c r="T87" s="30">
+        <v>0</v>
+      </c>
+      <c r="U87" s="30">
+        <v>0</v>
+      </c>
+      <c r="V87" s="30"/>
+      <c r="W87" s="28"/>
+      <c r="X87" s="27"/>
+      <c r="Y87" s="27"/>
+      <c r="Z87" s="27"/>
+      <c r="AA87" s="27"/>
+      <c r="AB87" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC87" s="27"/>
+      <c r="AD87" s="27" t="s">
+        <v>287</v>
+      </c>
+      <c r="AE87" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="AF87" s="19"/>
+      <c r="AF87" s="27"/>
     </row>
     <row r="88" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="23">
@@ -7295,13 +7339,13 @@
         <v>0</v>
       </c>
       <c r="C88" s="17" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E88" s="17" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="F88" s="17"/>
       <c r="G88" s="17"/>
@@ -7316,7 +7360,7 @@
       <c r="P88" s="18"/>
       <c r="Q88" s="19"/>
       <c r="R88" s="20">
-        <v>6.6</v>
+        <v>7.75</v>
       </c>
       <c r="S88" s="20">
         <v>4.7080000000000002</v>
@@ -7334,74 +7378,74 @@
       <c r="Z88" s="19"/>
       <c r="AA88" s="23"/>
       <c r="AB88" s="17" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="AC88" s="19"/>
       <c r="AD88" s="19" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="AE88" s="19" t="s">
         <v>28</v>
       </c>
       <c r="AF88" s="19"/>
     </row>
-    <row r="89" spans="1:32" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="27">
+    <row r="89" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="23">
         <v>2</v>
       </c>
-      <c r="B89" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C89" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="D89" s="28" t="s">
-        <v>346</v>
-      </c>
-      <c r="E89" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="F89" s="28"/>
-      <c r="G89" s="28"/>
-      <c r="H89" s="28"/>
-      <c r="I89" s="28"/>
-      <c r="J89" s="28"/>
-      <c r="K89" s="28"/>
-      <c r="L89" s="28"/>
-      <c r="M89" s="28"/>
-      <c r="N89" s="28"/>
-      <c r="O89" s="29"/>
-      <c r="P89" s="29"/>
-      <c r="Q89" s="27"/>
-      <c r="R89" s="30">
-        <v>7.75</v>
-      </c>
-      <c r="S89" s="30">
-        <v>4.0830000000000002</v>
-      </c>
-      <c r="T89" s="30">
-        <v>0</v>
-      </c>
-      <c r="U89" s="30">
-        <v>0</v>
-      </c>
-      <c r="V89" s="30"/>
-      <c r="W89" s="28"/>
-      <c r="X89" s="27"/>
-      <c r="Y89" s="27"/>
-      <c r="Z89" s="27"/>
-      <c r="AA89" s="27"/>
-      <c r="AB89" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="AC89" s="27"/>
-      <c r="AD89" s="27" t="s">
-        <v>290</v>
-      </c>
-      <c r="AE89" s="27" t="s">
+      <c r="B89" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C89" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="D89" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="E89" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="F89" s="17"/>
+      <c r="G89" s="17"/>
+      <c r="H89" s="17"/>
+      <c r="I89" s="17"/>
+      <c r="J89" s="17"/>
+      <c r="K89" s="17"/>
+      <c r="L89" s="17"/>
+      <c r="M89" s="17"/>
+      <c r="N89" s="17"/>
+      <c r="O89" s="18"/>
+      <c r="P89" s="18"/>
+      <c r="Q89" s="19"/>
+      <c r="R89" s="20">
+        <v>6.6</v>
+      </c>
+      <c r="S89" s="20">
+        <v>4.7080000000000002</v>
+      </c>
+      <c r="T89" s="24">
+        <v>0</v>
+      </c>
+      <c r="U89" s="24">
+        <v>0</v>
+      </c>
+      <c r="V89" s="20"/>
+      <c r="W89" s="17"/>
+      <c r="X89" s="19"/>
+      <c r="Y89" s="19"/>
+      <c r="Z89" s="19"/>
+      <c r="AA89" s="23"/>
+      <c r="AB89" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC89" s="19"/>
+      <c r="AD89" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="AE89" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="AF89" s="27"/>
+      <c r="AF89" s="19"/>
     </row>
     <row r="90" spans="1:32" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="27">
@@ -7411,13 +7455,13 @@
         <v>0</v>
       </c>
       <c r="C90" s="28" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D90" s="28" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E90" s="28" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="F90" s="28"/>
       <c r="G90" s="28"/>
@@ -7432,7 +7476,7 @@
       <c r="P90" s="29"/>
       <c r="Q90" s="27"/>
       <c r="R90" s="30">
-        <v>6.6</v>
+        <v>7.75</v>
       </c>
       <c r="S90" s="30">
         <v>4.0830000000000002</v>
@@ -7450,76 +7494,74 @@
       <c r="Z90" s="27"/>
       <c r="AA90" s="27"/>
       <c r="AB90" s="28" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="AC90" s="27"/>
       <c r="AD90" s="27" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="AE90" s="27" t="s">
         <v>28</v>
       </c>
       <c r="AF90" s="27"/>
     </row>
-    <row r="91" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="23">
+    <row r="91" spans="1:32" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="27">
         <v>2</v>
       </c>
-      <c r="B91" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C91" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="D91" s="17" t="s">
-        <v>346</v>
-      </c>
-      <c r="E91" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="F91" s="17"/>
-      <c r="G91" s="17"/>
-      <c r="H91" s="17"/>
-      <c r="I91" s="17"/>
-      <c r="J91" s="17"/>
-      <c r="K91" s="17"/>
-      <c r="L91" s="17"/>
-      <c r="M91" s="17"/>
-      <c r="N91" s="17"/>
-      <c r="O91" s="18"/>
-      <c r="P91" s="18"/>
-      <c r="Q91" s="19"/>
-      <c r="R91" s="20">
-        <v>7.75</v>
-      </c>
-      <c r="S91" s="20">
-        <v>3.375</v>
-      </c>
-      <c r="T91" s="24">
-        <v>0</v>
-      </c>
-      <c r="U91" s="24">
-        <v>0</v>
-      </c>
-      <c r="V91" s="20"/>
-      <c r="W91" s="17"/>
-      <c r="X91" s="19"/>
-      <c r="Y91" s="19"/>
-      <c r="Z91" s="19"/>
-      <c r="AA91" s="23"/>
-      <c r="AB91" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="AC91" s="19"/>
-      <c r="AD91" s="19" t="s">
-        <v>291</v>
-      </c>
-      <c r="AE91" s="19" t="s">
+      <c r="B91" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C91" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="D91" s="28" t="s">
+        <v>340</v>
+      </c>
+      <c r="E91" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="F91" s="28"/>
+      <c r="G91" s="28"/>
+      <c r="H91" s="28"/>
+      <c r="I91" s="28"/>
+      <c r="J91" s="28"/>
+      <c r="K91" s="28"/>
+      <c r="L91" s="28"/>
+      <c r="M91" s="28"/>
+      <c r="N91" s="28"/>
+      <c r="O91" s="29"/>
+      <c r="P91" s="29"/>
+      <c r="Q91" s="27"/>
+      <c r="R91" s="30">
+        <v>6.6</v>
+      </c>
+      <c r="S91" s="30">
+        <v>4.0830000000000002</v>
+      </c>
+      <c r="T91" s="30">
+        <v>0</v>
+      </c>
+      <c r="U91" s="30">
+        <v>0</v>
+      </c>
+      <c r="V91" s="30"/>
+      <c r="W91" s="28"/>
+      <c r="X91" s="27"/>
+      <c r="Y91" s="27"/>
+      <c r="Z91" s="27"/>
+      <c r="AA91" s="27"/>
+      <c r="AB91" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC91" s="27"/>
+      <c r="AD91" s="27" t="s">
+        <v>287</v>
+      </c>
+      <c r="AE91" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="AF91" s="19" t="s">
-        <v>37</v>
-      </c>
+      <c r="AF91" s="27"/>
     </row>
     <row r="92" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="23">
@@ -7529,13 +7571,13 @@
         <v>0</v>
       </c>
       <c r="C92" s="17" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E92" s="17" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F92" s="17"/>
       <c r="G92" s="17"/>
@@ -7550,7 +7592,7 @@
       <c r="P92" s="18"/>
       <c r="Q92" s="19"/>
       <c r="R92" s="20">
-        <v>6.6</v>
+        <v>7.75</v>
       </c>
       <c r="S92" s="20">
         <v>3.375</v>
@@ -7568,11 +7610,11 @@
       <c r="Z92" s="19"/>
       <c r="AA92" s="23"/>
       <c r="AB92" s="17" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="AC92" s="19"/>
       <c r="AD92" s="19" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="AE92" s="19" t="s">
         <v>28</v>
@@ -7581,117 +7623,119 @@
         <v>37</v>
       </c>
     </row>
-    <row r="93" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="23">
         <v>2</v>
       </c>
-      <c r="B93" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C93" s="21" t="s">
-        <v>225</v>
-      </c>
-      <c r="D93" s="21" t="s">
-        <v>338</v>
-      </c>
-      <c r="E93" s="21" t="s">
-        <v>224</v>
-      </c>
-      <c r="F93" s="21"/>
-      <c r="G93" s="21"/>
-      <c r="H93" s="21"/>
-      <c r="I93" s="21"/>
-      <c r="J93" s="21"/>
-      <c r="K93" s="21"/>
-      <c r="L93" s="21"/>
-      <c r="M93" s="21"/>
-      <c r="N93" s="21"/>
-      <c r="O93" s="22"/>
-      <c r="P93" s="22"/>
-      <c r="Q93" s="23"/>
+      <c r="B93" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C93" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D93" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="E93" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="F93" s="17"/>
+      <c r="G93" s="17"/>
+      <c r="H93" s="17"/>
+      <c r="I93" s="17"/>
+      <c r="J93" s="17"/>
+      <c r="K93" s="17"/>
+      <c r="L93" s="17"/>
+      <c r="M93" s="17"/>
+      <c r="N93" s="17"/>
+      <c r="O93" s="18"/>
+      <c r="P93" s="18"/>
+      <c r="Q93" s="19"/>
       <c r="R93" s="20">
-        <v>6.08</v>
+        <v>6.6</v>
       </c>
       <c r="S93" s="20">
-        <v>3.87</v>
+        <v>3.375</v>
       </c>
       <c r="T93" s="24">
-        <v>1.0900000000000001</v>
+        <v>0</v>
       </c>
       <c r="U93" s="24">
-        <v>0.45</v>
-      </c>
-      <c r="V93" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="W93" s="21"/>
-      <c r="X93" s="23"/>
+        <v>0</v>
+      </c>
+      <c r="V93" s="20"/>
+      <c r="W93" s="17"/>
+      <c r="X93" s="19"/>
       <c r="Y93" s="19"/>
       <c r="Z93" s="19"/>
       <c r="AA93" s="23"/>
-      <c r="AB93" s="23"/>
-      <c r="AC93" s="23"/>
-      <c r="AD93" s="19"/>
-      <c r="AE93" s="23"/>
-      <c r="AF93" s="23"/>
-    </row>
-    <row r="94" spans="1:32" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="27">
+      <c r="AB93" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC93" s="19"/>
+      <c r="AD93" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="AE93" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF93" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="94" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="23">
         <v>2</v>
       </c>
-      <c r="B94" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C94" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="D94" s="28" t="s">
-        <v>347</v>
-      </c>
-      <c r="E94" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="F94" s="28"/>
-      <c r="G94" s="28"/>
-      <c r="H94" s="28"/>
-      <c r="I94" s="28"/>
-      <c r="J94" s="28"/>
-      <c r="K94" s="28"/>
-      <c r="L94" s="28"/>
-      <c r="M94" s="28"/>
-      <c r="N94" s="28"/>
-      <c r="O94" s="29"/>
-      <c r="P94" s="29"/>
-      <c r="Q94" s="27"/>
-      <c r="R94" s="30">
-        <v>7.75</v>
-      </c>
-      <c r="S94" s="30">
-        <v>2.75</v>
-      </c>
-      <c r="T94" s="30">
-        <v>0</v>
-      </c>
-      <c r="U94" s="30">
-        <v>0</v>
-      </c>
-      <c r="V94" s="30"/>
-      <c r="W94" s="28"/>
-      <c r="X94" s="27"/>
-      <c r="Y94" s="27"/>
-      <c r="Z94" s="27"/>
-      <c r="AA94" s="27"/>
-      <c r="AB94" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="AC94" s="27"/>
-      <c r="AD94" s="27" t="s">
-        <v>290</v>
-      </c>
-      <c r="AE94" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF94" s="27"/>
+      <c r="B94" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C94" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="D94" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="E94" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="F94" s="21"/>
+      <c r="G94" s="21"/>
+      <c r="H94" s="21"/>
+      <c r="I94" s="21"/>
+      <c r="J94" s="21"/>
+      <c r="K94" s="21"/>
+      <c r="L94" s="21"/>
+      <c r="M94" s="21"/>
+      <c r="N94" s="21"/>
+      <c r="O94" s="22"/>
+      <c r="P94" s="22"/>
+      <c r="Q94" s="23"/>
+      <c r="R94" s="20">
+        <v>6.08</v>
+      </c>
+      <c r="S94" s="20">
+        <v>3.87</v>
+      </c>
+      <c r="T94" s="24">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="U94" s="24">
+        <v>0.45</v>
+      </c>
+      <c r="V94" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="W94" s="21"/>
+      <c r="X94" s="23"/>
+      <c r="Y94" s="19"/>
+      <c r="Z94" s="19"/>
+      <c r="AA94" s="23"/>
+      <c r="AB94" s="23"/>
+      <c r="AC94" s="23"/>
+      <c r="AD94" s="19"/>
+      <c r="AE94" s="23"/>
+      <c r="AF94" s="23"/>
     </row>
     <row r="95" spans="1:32" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="27">
@@ -7701,13 +7745,13 @@
         <v>0</v>
       </c>
       <c r="C95" s="28" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D95" s="28" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E95" s="28" t="s">
-        <v>124</v>
+        <v>8</v>
       </c>
       <c r="F95" s="28"/>
       <c r="G95" s="28"/>
@@ -7722,7 +7766,7 @@
       <c r="P95" s="29"/>
       <c r="Q95" s="27"/>
       <c r="R95" s="30">
-        <v>6.6</v>
+        <v>7.75</v>
       </c>
       <c r="S95" s="30">
         <v>2.75</v>
@@ -7740,74 +7784,74 @@
       <c r="Z95" s="27"/>
       <c r="AA95" s="27"/>
       <c r="AB95" s="28" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="AC95" s="27"/>
       <c r="AD95" s="27" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="AE95" s="27" t="s">
         <v>28</v>
       </c>
       <c r="AF95" s="27"/>
     </row>
-    <row r="96" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="23">
+    <row r="96" spans="1:32" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="27">
         <v>2</v>
       </c>
-      <c r="B96" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C96" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="D96" s="17" t="s">
-        <v>347</v>
-      </c>
-      <c r="E96" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="F96" s="17"/>
-      <c r="G96" s="17"/>
-      <c r="H96" s="17"/>
-      <c r="I96" s="17"/>
-      <c r="J96" s="17"/>
-      <c r="K96" s="17"/>
-      <c r="L96" s="17"/>
-      <c r="M96" s="17"/>
-      <c r="N96" s="17"/>
-      <c r="O96" s="18"/>
-      <c r="P96" s="18"/>
-      <c r="Q96" s="19"/>
-      <c r="R96" s="20">
-        <v>7.75</v>
-      </c>
-      <c r="S96" s="20">
-        <v>2.125</v>
-      </c>
-      <c r="T96" s="24">
-        <v>0</v>
-      </c>
-      <c r="U96" s="24">
-        <v>0</v>
-      </c>
-      <c r="V96" s="20"/>
-      <c r="W96" s="17"/>
-      <c r="X96" s="19"/>
-      <c r="Y96" s="19"/>
-      <c r="Z96" s="19"/>
-      <c r="AA96" s="23"/>
-      <c r="AB96" s="17" t="s">
+      <c r="B96" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C96" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="D96" s="28" t="s">
+        <v>340</v>
+      </c>
+      <c r="E96" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="F96" s="28"/>
+      <c r="G96" s="28"/>
+      <c r="H96" s="28"/>
+      <c r="I96" s="28"/>
+      <c r="J96" s="28"/>
+      <c r="K96" s="28"/>
+      <c r="L96" s="28"/>
+      <c r="M96" s="28"/>
+      <c r="N96" s="28"/>
+      <c r="O96" s="29"/>
+      <c r="P96" s="29"/>
+      <c r="Q96" s="27"/>
+      <c r="R96" s="30">
+        <v>6.6</v>
+      </c>
+      <c r="S96" s="30">
+        <v>2.75</v>
+      </c>
+      <c r="T96" s="30">
+        <v>0</v>
+      </c>
+      <c r="U96" s="30">
+        <v>0</v>
+      </c>
+      <c r="V96" s="30"/>
+      <c r="W96" s="28"/>
+      <c r="X96" s="27"/>
+      <c r="Y96" s="27"/>
+      <c r="Z96" s="27"/>
+      <c r="AA96" s="27"/>
+      <c r="AB96" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="AC96" s="19"/>
-      <c r="AD96" s="19" t="s">
-        <v>290</v>
-      </c>
-      <c r="AE96" s="19" t="s">
+      <c r="AC96" s="27"/>
+      <c r="AD96" s="27" t="s">
+        <v>287</v>
+      </c>
+      <c r="AE96" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="AF96" s="19"/>
+      <c r="AF96" s="27"/>
     </row>
     <row r="97" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="23">
@@ -7817,13 +7861,13 @@
         <v>0</v>
       </c>
       <c r="C97" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E97" s="17" t="s">
-        <v>123</v>
+        <v>33</v>
       </c>
       <c r="F97" s="17"/>
       <c r="G97" s="17"/>
@@ -7838,7 +7882,7 @@
       <c r="P97" s="18"/>
       <c r="Q97" s="19"/>
       <c r="R97" s="20">
-        <v>6.6</v>
+        <v>7.75</v>
       </c>
       <c r="S97" s="20">
         <v>2.125</v>
@@ -7856,168 +7900,168 @@
       <c r="Z97" s="19"/>
       <c r="AA97" s="23"/>
       <c r="AB97" s="17" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AC97" s="19"/>
       <c r="AD97" s="19" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="AE97" s="19" t="s">
         <v>28</v>
       </c>
       <c r="AF97" s="19"/>
     </row>
-    <row r="98" spans="1:32" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="27">
+    <row r="98" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="23">
         <v>2</v>
       </c>
-      <c r="B98" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C98" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="D98" s="28" t="s">
-        <v>344</v>
-      </c>
-      <c r="E98" s="28" t="s">
+      <c r="B98" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C98" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="D98" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="E98" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="F98" s="17"/>
+      <c r="G98" s="17"/>
+      <c r="H98" s="17"/>
+      <c r="I98" s="17"/>
+      <c r="J98" s="17"/>
+      <c r="K98" s="17"/>
+      <c r="L98" s="17"/>
+      <c r="M98" s="17"/>
+      <c r="N98" s="17"/>
+      <c r="O98" s="18"/>
+      <c r="P98" s="18"/>
+      <c r="Q98" s="19"/>
+      <c r="R98" s="20">
+        <v>6.6</v>
+      </c>
+      <c r="S98" s="20">
+        <v>2.125</v>
+      </c>
+      <c r="T98" s="24">
+        <v>0</v>
+      </c>
+      <c r="U98" s="24">
+        <v>0</v>
+      </c>
+      <c r="V98" s="20"/>
+      <c r="W98" s="17"/>
+      <c r="X98" s="19"/>
+      <c r="Y98" s="19"/>
+      <c r="Z98" s="19"/>
+      <c r="AA98" s="23"/>
+      <c r="AB98" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC98" s="19"/>
+      <c r="AD98" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="AE98" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF98" s="19"/>
+    </row>
+    <row r="99" spans="1:32" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="27">
+        <v>2</v>
+      </c>
+      <c r="B99" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C99" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="D99" s="28" t="s">
+        <v>340</v>
+      </c>
+      <c r="E99" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="F99" s="28"/>
+      <c r="G99" s="28"/>
+      <c r="H99" s="28"/>
+      <c r="I99" s="28"/>
+      <c r="J99" s="28"/>
+      <c r="K99" s="28"/>
+      <c r="L99" s="28"/>
+      <c r="M99" s="28"/>
+      <c r="N99" s="28"/>
+      <c r="O99" s="29"/>
+      <c r="P99" s="29"/>
+      <c r="Q99" s="27"/>
+      <c r="R99" s="30">
+        <v>5.3</v>
+      </c>
+      <c r="S99" s="30">
+        <v>4.5030000000000001</v>
+      </c>
+      <c r="T99" s="30">
+        <v>0</v>
+      </c>
+      <c r="U99" s="30">
+        <v>0</v>
+      </c>
+      <c r="V99" s="30"/>
+      <c r="W99" s="28"/>
+      <c r="X99" s="27"/>
+      <c r="Y99" s="27"/>
+      <c r="Z99" s="27"/>
+      <c r="AA99" s="27"/>
+      <c r="AB99" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="F98" s="28"/>
-      <c r="G98" s="28"/>
-      <c r="H98" s="28"/>
-      <c r="I98" s="28"/>
-      <c r="J98" s="28"/>
-      <c r="K98" s="28"/>
-      <c r="L98" s="28"/>
-      <c r="M98" s="28"/>
-      <c r="N98" s="28"/>
-      <c r="O98" s="29"/>
-      <c r="P98" s="29"/>
-      <c r="Q98" s="27"/>
-      <c r="R98" s="30">
-        <v>5.3</v>
-      </c>
-      <c r="S98" s="30">
-        <v>4.5030000000000001</v>
-      </c>
-      <c r="T98" s="30">
-        <v>0</v>
-      </c>
-      <c r="U98" s="30">
-        <v>0</v>
-      </c>
-      <c r="V98" s="30"/>
-      <c r="W98" s="28"/>
-      <c r="X98" s="27"/>
-      <c r="Y98" s="27"/>
-      <c r="Z98" s="27"/>
-      <c r="AA98" s="27"/>
-      <c r="AB98" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="AC98" s="27"/>
-      <c r="AD98" s="27" t="s">
-        <v>290</v>
-      </c>
-      <c r="AE98" s="27" t="s">
+      <c r="AC99" s="27"/>
+      <c r="AD99" s="27" t="s">
+        <v>287</v>
+      </c>
+      <c r="AE99" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="AF98" s="27"/>
-    </row>
-    <row r="99" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A99" s="10" t="s">
+      <c r="AF99" s="27"/>
+    </row>
+    <row r="100" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A100" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B99" s="10"/>
-      <c r="C99" s="10"/>
-      <c r="D99" s="10"/>
-      <c r="E99" s="10"/>
-      <c r="F99" s="10"/>
-      <c r="G99" s="10"/>
-      <c r="H99" s="10"/>
-      <c r="I99" s="10"/>
-      <c r="J99" s="10"/>
-      <c r="K99" s="10"/>
-      <c r="L99" s="10"/>
-      <c r="M99" s="10"/>
-      <c r="N99" s="10"/>
-      <c r="O99" s="11"/>
-      <c r="P99" s="11"/>
-      <c r="Q99" s="12"/>
-      <c r="R99" s="13"/>
-      <c r="S99" s="13"/>
-      <c r="T99" s="13"/>
-      <c r="U99" s="13"/>
-      <c r="V99" s="13"/>
-      <c r="W99" s="10"/>
-      <c r="X99" s="12"/>
-      <c r="Y99" s="12"/>
-      <c r="Z99" s="12"/>
-      <c r="AA99" s="12"/>
-      <c r="AB99" s="12"/>
-      <c r="AC99" s="12"/>
-      <c r="AD99" s="12"/>
-      <c r="AE99" s="12"/>
-      <c r="AF99" s="12"/>
-    </row>
-    <row r="100" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="23">
-        <v>2</v>
-      </c>
-      <c r="B100" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C100" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="D100" s="17" t="s">
-        <v>348</v>
-      </c>
-      <c r="E100" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="F100" s="17"/>
-      <c r="G100" s="17"/>
-      <c r="H100" s="17"/>
-      <c r="I100" s="17"/>
-      <c r="J100" s="17"/>
-      <c r="K100" s="17"/>
-      <c r="L100" s="17"/>
-      <c r="M100" s="17"/>
-      <c r="N100" s="17"/>
-      <c r="O100" s="18"/>
-      <c r="P100" s="18"/>
-      <c r="Q100" s="19"/>
-      <c r="R100" s="20">
-        <v>5.3879999999999999</v>
-      </c>
-      <c r="S100" s="20">
-        <v>3.427</v>
-      </c>
-      <c r="T100" s="24">
-        <v>0</v>
-      </c>
-      <c r="U100" s="24">
-        <v>0</v>
-      </c>
-      <c r="V100" s="20"/>
-      <c r="W100" s="17"/>
-      <c r="X100" s="19"/>
-      <c r="Y100" s="19"/>
-      <c r="Z100" s="19"/>
-      <c r="AA100" s="23"/>
-      <c r="AB100" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="AC100" s="19"/>
-      <c r="AD100" s="19" t="s">
-        <v>290</v>
-      </c>
-      <c r="AE100" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF100" s="19"/>
+      <c r="B100" s="10"/>
+      <c r="C100" s="10"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="10"/>
+      <c r="F100" s="10"/>
+      <c r="G100" s="10"/>
+      <c r="H100" s="10"/>
+      <c r="I100" s="10"/>
+      <c r="J100" s="10"/>
+      <c r="K100" s="10"/>
+      <c r="L100" s="10"/>
+      <c r="M100" s="10"/>
+      <c r="N100" s="10"/>
+      <c r="O100" s="11"/>
+      <c r="P100" s="11"/>
+      <c r="Q100" s="12"/>
+      <c r="R100" s="13"/>
+      <c r="S100" s="13"/>
+      <c r="T100" s="13"/>
+      <c r="U100" s="13"/>
+      <c r="V100" s="13"/>
+      <c r="W100" s="10"/>
+      <c r="X100" s="12"/>
+      <c r="Y100" s="12"/>
+      <c r="Z100" s="12"/>
+      <c r="AA100" s="12"/>
+      <c r="AB100" s="12"/>
+      <c r="AC100" s="12"/>
+      <c r="AD100" s="12"/>
+      <c r="AE100" s="12"/>
+      <c r="AF100" s="12"/>
     </row>
     <row r="101" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="23">
@@ -8027,13 +8071,13 @@
         <v>0</v>
       </c>
       <c r="C101" s="17" t="s">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="E101" s="17" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="F101" s="17"/>
       <c r="G101" s="17"/>
@@ -8048,10 +8092,10 @@
       <c r="P101" s="18"/>
       <c r="Q101" s="19"/>
       <c r="R101" s="20">
-        <v>5.4480000000000004</v>
+        <v>5.3879999999999999</v>
       </c>
       <c r="S101" s="20">
-        <v>2.677</v>
+        <v>3.427</v>
       </c>
       <c r="T101" s="24">
         <v>0</v>
@@ -8066,206 +8110,208 @@
       <c r="Z101" s="19"/>
       <c r="AA101" s="23"/>
       <c r="AB101" s="17" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="AC101" s="19"/>
       <c r="AD101" s="19" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="AE101" s="19" t="s">
         <v>28</v>
       </c>
       <c r="AF101" s="19"/>
     </row>
-    <row r="102" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A102" s="10" t="s">
+    <row r="102" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="23">
+        <v>2</v>
+      </c>
+      <c r="B102" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C102" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="D102" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="E102" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="F102" s="17"/>
+      <c r="G102" s="17"/>
+      <c r="H102" s="17"/>
+      <c r="I102" s="17"/>
+      <c r="J102" s="17"/>
+      <c r="K102" s="17"/>
+      <c r="L102" s="17"/>
+      <c r="M102" s="17"/>
+      <c r="N102" s="17"/>
+      <c r="O102" s="18"/>
+      <c r="P102" s="18"/>
+      <c r="Q102" s="19"/>
+      <c r="R102" s="20">
+        <v>5.4480000000000004</v>
+      </c>
+      <c r="S102" s="20">
+        <v>2.677</v>
+      </c>
+      <c r="T102" s="24">
+        <v>0</v>
+      </c>
+      <c r="U102" s="24">
+        <v>0</v>
+      </c>
+      <c r="V102" s="20"/>
+      <c r="W102" s="17"/>
+      <c r="X102" s="19"/>
+      <c r="Y102" s="19"/>
+      <c r="Z102" s="19"/>
+      <c r="AA102" s="23"/>
+      <c r="AB102" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC102" s="19"/>
+      <c r="AD102" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="AE102" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF102" s="19"/>
+    </row>
+    <row r="103" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A103" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B103" s="10"/>
+      <c r="C103" s="10"/>
+      <c r="D103" s="10"/>
+      <c r="E103" s="10"/>
+      <c r="F103" s="10"/>
+      <c r="G103" s="10"/>
+      <c r="H103" s="10"/>
+      <c r="I103" s="10"/>
+      <c r="J103" s="10"/>
+      <c r="K103" s="10"/>
+      <c r="L103" s="10"/>
+      <c r="M103" s="10"/>
+      <c r="N103" s="10"/>
+      <c r="O103" s="11"/>
+      <c r="P103" s="11"/>
+      <c r="Q103" s="12"/>
+      <c r="R103" s="13"/>
+      <c r="S103" s="13"/>
+      <c r="T103" s="13"/>
+      <c r="U103" s="13"/>
+      <c r="V103" s="13"/>
+      <c r="W103" s="10"/>
+      <c r="X103" s="12"/>
+      <c r="Y103" s="12"/>
+      <c r="Z103" s="12"/>
+      <c r="AA103" s="12"/>
+      <c r="AB103" s="12"/>
+      <c r="AC103" s="12"/>
+      <c r="AD103" s="12"/>
+      <c r="AE103" s="12"/>
+      <c r="AF103" s="12"/>
+    </row>
+    <row r="104" spans="1:32" s="25" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A104" s="23">
+        <v>2</v>
+      </c>
+      <c r="B104" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C104" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="B102" s="10"/>
-      <c r="C102" s="10"/>
-      <c r="D102" s="10"/>
-      <c r="E102" s="10"/>
-      <c r="F102" s="10"/>
-      <c r="G102" s="10"/>
-      <c r="H102" s="10"/>
-      <c r="I102" s="10"/>
-      <c r="J102" s="10"/>
-      <c r="K102" s="10"/>
-      <c r="L102" s="10"/>
-      <c r="M102" s="10"/>
-      <c r="N102" s="10"/>
-      <c r="O102" s="11"/>
-      <c r="P102" s="11"/>
-      <c r="Q102" s="12"/>
-      <c r="R102" s="13"/>
-      <c r="S102" s="13"/>
-      <c r="T102" s="13"/>
-      <c r="U102" s="13"/>
-      <c r="V102" s="13"/>
-      <c r="W102" s="10"/>
-      <c r="X102" s="12"/>
-      <c r="Y102" s="12"/>
-      <c r="Z102" s="12"/>
-      <c r="AA102" s="12"/>
-      <c r="AB102" s="12"/>
-      <c r="AC102" s="12"/>
-      <c r="AD102" s="12"/>
-      <c r="AE102" s="12"/>
-      <c r="AF102" s="12"/>
-    </row>
-    <row r="103" spans="1:32" s="25" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A103" s="23">
-        <v>2</v>
-      </c>
-      <c r="B103" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C103" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="D103" s="21" t="s">
-        <v>323</v>
-      </c>
-      <c r="E103" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="F103" s="32">
+      <c r="D104" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="E104" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="F104" s="32">
         <v>10</v>
       </c>
-      <c r="G103" s="21"/>
-      <c r="H103" s="21"/>
-      <c r="I103" s="21"/>
-      <c r="J103" s="21"/>
-      <c r="K103" s="21"/>
-      <c r="L103" s="21"/>
-      <c r="M103" s="21"/>
-      <c r="N103" s="21"/>
-      <c r="O103" s="22"/>
-      <c r="P103" s="22"/>
-      <c r="Q103" s="23"/>
-      <c r="R103" s="24">
+      <c r="G104" s="21"/>
+      <c r="H104" s="21"/>
+      <c r="I104" s="21"/>
+      <c r="J104" s="21"/>
+      <c r="K104" s="21"/>
+      <c r="L104" s="21"/>
+      <c r="M104" s="21"/>
+      <c r="N104" s="21"/>
+      <c r="O104" s="22"/>
+      <c r="P104" s="22"/>
+      <c r="Q104" s="23"/>
+      <c r="R104" s="24">
         <v>0.375</v>
       </c>
-      <c r="S103" s="24">
+      <c r="S104" s="24">
         <v>9.5519999999999996</v>
       </c>
-      <c r="T103" s="24">
+      <c r="T104" s="24">
         <v>1.75</v>
       </c>
-      <c r="U103" s="24">
+      <c r="U104" s="24">
         <v>0.5</v>
       </c>
-      <c r="V103" s="24"/>
-      <c r="W103" s="21"/>
-      <c r="X103" s="23"/>
-      <c r="Y103" s="19"/>
-      <c r="Z103" s="19"/>
-      <c r="AA103" s="23"/>
-      <c r="AB103" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="AC103" s="23"/>
-      <c r="AD103" s="19" t="s">
-        <v>290</v>
-      </c>
-      <c r="AE103" s="19" t="s">
+      <c r="V104" s="24"/>
+      <c r="W104" s="21"/>
+      <c r="X104" s="23"/>
+      <c r="Y104" s="19"/>
+      <c r="Z104" s="19"/>
+      <c r="AA104" s="23"/>
+      <c r="AB104" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC104" s="23"/>
+      <c r="AD104" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="AE104" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="AF103" s="23" t="s">
+      <c r="AF104" s="23" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="104" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A104" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="B104" s="10"/>
-      <c r="C104" s="10"/>
-      <c r="D104" s="10"/>
-      <c r="E104" s="10"/>
-      <c r="F104" s="10"/>
-      <c r="G104" s="10"/>
-      <c r="H104" s="10"/>
-      <c r="I104" s="10"/>
-      <c r="J104" s="10"/>
-      <c r="K104" s="10"/>
-      <c r="L104" s="10"/>
-      <c r="M104" s="10"/>
-      <c r="N104" s="10"/>
-      <c r="O104" s="11"/>
-      <c r="P104" s="11"/>
-      <c r="Q104" s="12"/>
-      <c r="R104" s="13"/>
-      <c r="S104" s="13"/>
-      <c r="T104" s="13"/>
-      <c r="U104" s="13"/>
-      <c r="V104" s="13"/>
-      <c r="W104" s="10"/>
-      <c r="X104" s="12"/>
-      <c r="Y104" s="12"/>
-      <c r="Z104" s="12"/>
-      <c r="AA104" s="12"/>
-      <c r="AB104" s="12"/>
-      <c r="AC104" s="12"/>
-      <c r="AD104" s="12"/>
-      <c r="AE104" s="12"/>
-      <c r="AF104" s="12"/>
-    </row>
-    <row r="105" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="39">
-        <v>1</v>
-      </c>
-      <c r="B105" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="C105" s="40" t="s">
-        <v>268</v>
-      </c>
-      <c r="D105" s="40" t="s">
-        <v>350</v>
-      </c>
-      <c r="E105" s="41" t="s">
-        <v>247</v>
-      </c>
-      <c r="F105" s="41">
-        <v>8</v>
-      </c>
-      <c r="G105" s="40"/>
-      <c r="H105" s="40"/>
-      <c r="I105" s="40"/>
-      <c r="J105" s="40"/>
-      <c r="K105" s="40"/>
-      <c r="L105" s="40"/>
-      <c r="M105" s="40"/>
-      <c r="N105" s="40"/>
-      <c r="O105" s="42"/>
-      <c r="P105" s="42"/>
-      <c r="Q105" s="39"/>
-      <c r="R105" s="43">
-        <v>4.1749999999999998</v>
-      </c>
-      <c r="S105" s="43">
-        <v>5</v>
-      </c>
-      <c r="T105" s="43">
-        <v>0</v>
-      </c>
-      <c r="U105" s="43">
-        <v>0</v>
-      </c>
-      <c r="V105" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="W105" s="40"/>
-      <c r="X105" s="39"/>
-      <c r="Y105" s="39"/>
-      <c r="Z105" s="39"/>
-      <c r="AA105" s="39"/>
-      <c r="AB105" s="39"/>
-      <c r="AC105" s="39"/>
-      <c r="AD105" s="39"/>
-      <c r="AE105" s="39"/>
-      <c r="AF105" s="39"/>
+    <row r="105" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A105" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="B105" s="10"/>
+      <c r="C105" s="10"/>
+      <c r="D105" s="10"/>
+      <c r="E105" s="10"/>
+      <c r="F105" s="10"/>
+      <c r="G105" s="10"/>
+      <c r="H105" s="10"/>
+      <c r="I105" s="10"/>
+      <c r="J105" s="10"/>
+      <c r="K105" s="10"/>
+      <c r="L105" s="10"/>
+      <c r="M105" s="10"/>
+      <c r="N105" s="10"/>
+      <c r="O105" s="11"/>
+      <c r="P105" s="11"/>
+      <c r="Q105" s="12"/>
+      <c r="R105" s="13"/>
+      <c r="S105" s="13"/>
+      <c r="T105" s="13"/>
+      <c r="U105" s="13"/>
+      <c r="V105" s="13"/>
+      <c r="W105" s="10"/>
+      <c r="X105" s="12"/>
+      <c r="Y105" s="12"/>
+      <c r="Z105" s="12"/>
+      <c r="AA105" s="12"/>
+      <c r="AB105" s="12"/>
+      <c r="AC105" s="12"/>
+      <c r="AD105" s="12"/>
+      <c r="AE105" s="12"/>
+      <c r="AF105" s="12"/>
     </row>
     <row r="106" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="39">
@@ -8275,13 +8321,13 @@
         <v>0</v>
       </c>
       <c r="C106" s="40" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D106" s="40" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E106" s="41" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F106" s="41">
         <v>8</v>
@@ -8298,7 +8344,7 @@
       <c r="P106" s="42"/>
       <c r="Q106" s="39"/>
       <c r="R106" s="43">
-        <v>5.1749999999999998</v>
+        <v>4.1749999999999998</v>
       </c>
       <c r="S106" s="43">
         <v>5</v>
@@ -8331,13 +8377,13 @@
         <v>0</v>
       </c>
       <c r="C107" s="40" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D107" s="40" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E107" s="41" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F107" s="41">
         <v>8</v>
@@ -8354,13 +8400,13 @@
       <c r="P107" s="42"/>
       <c r="Q107" s="39"/>
       <c r="R107" s="43">
-        <v>6.1749999999999998</v>
+        <v>5.1749999999999998</v>
       </c>
       <c r="S107" s="43">
         <v>5</v>
       </c>
       <c r="T107" s="43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U107" s="43">
         <v>0</v>
@@ -8380,58 +8426,60 @@
       <c r="AF107" s="39"/>
     </row>
     <row r="108" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="23">
+      <c r="A108" s="39">
         <v>1</v>
       </c>
-      <c r="B108" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C108" s="21" t="s">
-        <v>271</v>
-      </c>
-      <c r="D108" s="21" t="s">
-        <v>350</v>
-      </c>
-      <c r="E108" s="32" t="s">
-        <v>251</v>
-      </c>
-      <c r="F108" s="32">
+      <c r="B108" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C108" s="40" t="s">
+        <v>269</v>
+      </c>
+      <c r="D108" s="40" t="s">
+        <v>346</v>
+      </c>
+      <c r="E108" s="41" t="s">
+        <v>248</v>
+      </c>
+      <c r="F108" s="41">
         <v>8</v>
       </c>
-      <c r="G108" s="21"/>
-      <c r="H108" s="21"/>
-      <c r="I108" s="21"/>
-      <c r="J108" s="21"/>
-      <c r="K108" s="21"/>
-      <c r="L108" s="21"/>
-      <c r="M108" s="21"/>
-      <c r="N108" s="21"/>
-      <c r="O108" s="22"/>
-      <c r="P108" s="22"/>
-      <c r="Q108" s="23"/>
-      <c r="R108" s="24">
-        <v>4.1749999999999998</v>
-      </c>
-      <c r="S108" s="24">
-        <v>4.75</v>
-      </c>
-      <c r="T108" s="24">
-        <v>0</v>
-      </c>
-      <c r="U108" s="24">
-        <v>0</v>
-      </c>
-      <c r="V108" s="24"/>
-      <c r="W108" s="21"/>
-      <c r="X108" s="23"/>
-      <c r="Y108" s="19"/>
-      <c r="Z108" s="19"/>
-      <c r="AA108" s="23"/>
-      <c r="AB108" s="19"/>
-      <c r="AC108" s="23"/>
-      <c r="AD108" s="19"/>
-      <c r="AE108" s="19"/>
-      <c r="AF108" s="23"/>
+      <c r="G108" s="40"/>
+      <c r="H108" s="40"/>
+      <c r="I108" s="40"/>
+      <c r="J108" s="40"/>
+      <c r="K108" s="40"/>
+      <c r="L108" s="40"/>
+      <c r="M108" s="40"/>
+      <c r="N108" s="40"/>
+      <c r="O108" s="42"/>
+      <c r="P108" s="42"/>
+      <c r="Q108" s="39"/>
+      <c r="R108" s="43">
+        <v>6.1749999999999998</v>
+      </c>
+      <c r="S108" s="43">
+        <v>5</v>
+      </c>
+      <c r="T108" s="43">
+        <v>1</v>
+      </c>
+      <c r="U108" s="43">
+        <v>0</v>
+      </c>
+      <c r="V108" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="W108" s="40"/>
+      <c r="X108" s="39"/>
+      <c r="Y108" s="39"/>
+      <c r="Z108" s="39"/>
+      <c r="AA108" s="39"/>
+      <c r="AB108" s="39"/>
+      <c r="AC108" s="39"/>
+      <c r="AD108" s="39"/>
+      <c r="AE108" s="39"/>
+      <c r="AF108" s="39"/>
     </row>
     <row r="109" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="23">
@@ -8441,13 +8489,13 @@
         <v>0</v>
       </c>
       <c r="C109" s="21" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D109" s="21" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E109" s="32" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="F109" s="32">
         <v>8</v>
@@ -8464,7 +8512,7 @@
       <c r="P109" s="22"/>
       <c r="Q109" s="23"/>
       <c r="R109" s="24">
-        <v>5.1749999999999998</v>
+        <v>4.1749999999999998</v>
       </c>
       <c r="S109" s="24">
         <v>4.75</v>
@@ -8495,13 +8543,13 @@
         <v>0</v>
       </c>
       <c r="C110" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="D110" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="E110" s="32" t="s">
         <v>273</v>
-      </c>
-      <c r="D110" s="21" t="s">
-        <v>350</v>
-      </c>
-      <c r="E110" s="32" t="s">
-        <v>275</v>
       </c>
       <c r="F110" s="32">
         <v>8</v>
@@ -8518,13 +8566,13 @@
       <c r="P110" s="22"/>
       <c r="Q110" s="23"/>
       <c r="R110" s="24">
-        <v>6.1749999999999998</v>
+        <v>5.1749999999999998</v>
       </c>
       <c r="S110" s="24">
         <v>4.75</v>
       </c>
       <c r="T110" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U110" s="24">
         <v>0</v>
@@ -8542,60 +8590,58 @@
       <c r="AF110" s="23"/>
     </row>
     <row r="111" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="39">
+      <c r="A111" s="23">
         <v>1</v>
       </c>
-      <c r="B111" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="C111" s="40" t="s">
-        <v>276</v>
-      </c>
-      <c r="D111" s="40" t="s">
-        <v>350</v>
-      </c>
-      <c r="E111" s="41" t="s">
-        <v>279</v>
-      </c>
-      <c r="F111" s="41">
+      <c r="B111" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C111" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="D111" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="E111" s="32" t="s">
+        <v>274</v>
+      </c>
+      <c r="F111" s="32">
         <v>8</v>
       </c>
-      <c r="G111" s="40"/>
-      <c r="H111" s="40"/>
-      <c r="I111" s="40"/>
-      <c r="J111" s="40"/>
-      <c r="K111" s="40"/>
-      <c r="L111" s="40"/>
-      <c r="M111" s="40"/>
-      <c r="N111" s="40"/>
-      <c r="O111" s="42"/>
-      <c r="P111" s="42"/>
-      <c r="Q111" s="39"/>
-      <c r="R111" s="43">
-        <v>4.1749999999999998</v>
-      </c>
-      <c r="S111" s="43">
-        <v>4.5</v>
-      </c>
-      <c r="T111" s="43">
-        <v>0</v>
-      </c>
-      <c r="U111" s="43">
-        <v>0</v>
-      </c>
-      <c r="V111" s="43" t="s">
-        <v>280</v>
-      </c>
-      <c r="W111" s="40"/>
-      <c r="X111" s="39"/>
-      <c r="Y111" s="39"/>
-      <c r="Z111" s="39"/>
-      <c r="AA111" s="39"/>
-      <c r="AB111" s="39"/>
-      <c r="AC111" s="39"/>
-      <c r="AD111" s="39"/>
-      <c r="AE111" s="39"/>
-      <c r="AF111" s="39"/>
+      <c r="G111" s="21"/>
+      <c r="H111" s="21"/>
+      <c r="I111" s="21"/>
+      <c r="J111" s="21"/>
+      <c r="K111" s="21"/>
+      <c r="L111" s="21"/>
+      <c r="M111" s="21"/>
+      <c r="N111" s="21"/>
+      <c r="O111" s="22"/>
+      <c r="P111" s="22"/>
+      <c r="Q111" s="23"/>
+      <c r="R111" s="24">
+        <v>6.1749999999999998</v>
+      </c>
+      <c r="S111" s="24">
+        <v>4.75</v>
+      </c>
+      <c r="T111" s="24">
+        <v>1</v>
+      </c>
+      <c r="U111" s="24">
+        <v>0</v>
+      </c>
+      <c r="V111" s="24"/>
+      <c r="W111" s="21"/>
+      <c r="X111" s="23"/>
+      <c r="Y111" s="19"/>
+      <c r="Z111" s="19"/>
+      <c r="AA111" s="23"/>
+      <c r="AB111" s="19"/>
+      <c r="AC111" s="23"/>
+      <c r="AD111" s="19"/>
+      <c r="AE111" s="19"/>
+      <c r="AF111" s="23"/>
     </row>
     <row r="112" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="39">
@@ -8605,13 +8651,13 @@
         <v>0</v>
       </c>
       <c r="C112" s="40" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D112" s="40" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E112" s="41" t="s">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="F112" s="41">
         <v>8</v>
@@ -8628,7 +8674,7 @@
       <c r="P112" s="42"/>
       <c r="Q112" s="39"/>
       <c r="R112" s="43">
-        <v>5.1749999999999998</v>
+        <v>4.1749999999999998</v>
       </c>
       <c r="S112" s="43">
         <v>4.5</v>
@@ -8640,7 +8686,7 @@
         <v>0</v>
       </c>
       <c r="V112" s="43" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="W112" s="40"/>
       <c r="X112" s="39"/>
@@ -8661,13 +8707,13 @@
         <v>0</v>
       </c>
       <c r="C113" s="40" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D113" s="40" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E113" s="41" t="s">
-        <v>48</v>
+        <v>249</v>
       </c>
       <c r="F113" s="41">
         <v>8</v>
@@ -8684,19 +8730,19 @@
       <c r="P113" s="42"/>
       <c r="Q113" s="39"/>
       <c r="R113" s="43">
-        <v>6.1749999999999998</v>
+        <v>5.1749999999999998</v>
       </c>
       <c r="S113" s="43">
         <v>4.5</v>
       </c>
       <c r="T113" s="43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U113" s="43">
         <v>0</v>
       </c>
       <c r="V113" s="43" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="W113" s="40"/>
       <c r="X113" s="39"/>
@@ -8708,6 +8754,62 @@
       <c r="AD113" s="39"/>
       <c r="AE113" s="39"/>
       <c r="AF113" s="39"/>
+    </row>
+    <row r="114" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="39">
+        <v>1</v>
+      </c>
+      <c r="B114" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C114" s="40" t="s">
+        <v>277</v>
+      </c>
+      <c r="D114" s="40" t="s">
+        <v>346</v>
+      </c>
+      <c r="E114" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="F114" s="41">
+        <v>8</v>
+      </c>
+      <c r="G114" s="40"/>
+      <c r="H114" s="40"/>
+      <c r="I114" s="40"/>
+      <c r="J114" s="40"/>
+      <c r="K114" s="40"/>
+      <c r="L114" s="40"/>
+      <c r="M114" s="40"/>
+      <c r="N114" s="40"/>
+      <c r="O114" s="42"/>
+      <c r="P114" s="42"/>
+      <c r="Q114" s="39"/>
+      <c r="R114" s="43">
+        <v>6.1749999999999998</v>
+      </c>
+      <c r="S114" s="43">
+        <v>4.5</v>
+      </c>
+      <c r="T114" s="43">
+        <v>1</v>
+      </c>
+      <c r="U114" s="43">
+        <v>0</v>
+      </c>
+      <c r="V114" s="43" t="s">
+        <v>279</v>
+      </c>
+      <c r="W114" s="40"/>
+      <c r="X114" s="39"/>
+      <c r="Y114" s="39"/>
+      <c r="Z114" s="39"/>
+      <c r="AA114" s="39"/>
+      <c r="AB114" s="39"/>
+      <c r="AC114" s="39"/>
+      <c r="AD114" s="39"/>
+      <c r="AE114" s="39"/>
+      <c r="AF114" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8720,31 +8822,31 @@
           <x14:formula1>
             <xm:f>Tables!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>V114:V144</xm:sqref>
+          <xm:sqref>V115:V145</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{84DDF0C9-6F1B-446E-8995-2373E65B88E2}">
           <x14:formula1>
             <xm:f>Tables!$C$2:$C$6</xm:f>
           </x14:formula1>
-          <xm:sqref>Z2:Z113 AE2:AE113</xm:sqref>
+          <xm:sqref>AE7:AE114 Z7:Z114 Z2:Z4 AE2:AE4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{7E235E07-1A6D-41FA-8E32-72A730AFA7A4}">
           <x14:formula1>
             <xm:f>Tables!$E$2:$E$16</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F113</xm:sqref>
+          <xm:sqref>F7:F114 F2:F4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{CB9126B2-6946-4B52-89A3-562F1BE6DC4E}">
           <x14:formula1>
             <xm:f>Tables!$A$2:$A$13</xm:f>
           </x14:formula1>
-          <xm:sqref>AF2:AF113 AA2:AA113 V2:V113</xm:sqref>
+          <xm:sqref>AA7:AA114 V7:V114 AF7:AF114 AF2:AF4 AA2:AA4 V2:V4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{D07B0AA9-91AB-4733-9EAB-5035421C071A}">
           <x14:formula1>
             <xm:f>Tables!$G$2:$G$6</xm:f>
           </x14:formula1>
-          <xm:sqref>Y2:Y113 AD2:AD113</xm:sqref>
+          <xm:sqref>AD7:AD114 Y7:Y114 Y2:Y4 AD2:AD4</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -8772,7 +8874,7 @@
   <sheetData>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="54" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B2" s="55"/>
       <c r="C2" s="55"/>
@@ -8798,13 +8900,13 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="57" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B4" s="57"/>
       <c r="C4" s="57"/>
       <c r="D4" s="57"/>
       <c r="F4" s="58" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G4" s="58"/>
       <c r="H4" s="58"/>
@@ -8819,49 +8921,49 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B5" s="38" t="s">
+        <v>233</v>
+      </c>
+      <c r="C5" s="38" t="s">
         <v>234</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="D5" s="38" t="s">
         <v>235</v>
       </c>
-      <c r="D5" s="38" t="s">
-        <v>236</v>
-      </c>
       <c r="F5" s="38" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G5" s="38" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H5" s="38" t="s">
+        <v>237</v>
+      </c>
+      <c r="I5" s="38" t="s">
         <v>238</v>
       </c>
-      <c r="I5" s="38" t="s">
+      <c r="J5" s="38" t="s">
         <v>239</v>
       </c>
-      <c r="J5" s="38" t="s">
+      <c r="K5" s="38" t="s">
         <v>240</v>
       </c>
-      <c r="K5" s="38" t="s">
+      <c r="L5" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="L5" s="38" t="s">
+      <c r="M5" s="38" t="s">
         <v>242</v>
       </c>
-      <c r="M5" s="38" t="s">
+      <c r="N5" s="38" t="s">
         <v>243</v>
-      </c>
-      <c r="N5" s="38" t="s">
-        <v>244</v>
       </c>
       <c r="O5" s="38" t="s">
         <v>10</v>
       </c>
       <c r="P5" s="38" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -8930,7 +9032,7 @@
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
       <c r="F9" s="59" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G9" s="60"/>
       <c r="H9" s="60"/>
@@ -8948,7 +9050,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F10" s="65" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G10" s="60"/>
       <c r="H10" s="60"/>
@@ -8957,7 +9059,7 @@
       <c r="K10" s="60"/>
       <c r="L10" s="60"/>
       <c r="M10" s="63" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N10" s="63"/>
       <c r="O10" s="64"/>
@@ -8967,7 +9069,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F11" s="62" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G11" s="60"/>
       <c r="H11" s="60"/>
@@ -9016,69 +9118,69 @@
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="66" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B3" s="66"/>
       <c r="C3" s="66"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
+        <v>246</v>
+      </c>
+      <c r="B4" s="38" t="s">
         <v>247</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="C4" s="38" t="s">
         <v>248</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B5" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>254</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="37" t="s">
+        <v>257</v>
+      </c>
+      <c r="B6" s="37" t="s">
         <v>258</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="C6" s="37" t="s">
         <v>259</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="37" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
@@ -9111,7 +9213,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="39" t="s">
@@ -9119,14 +9221,14 @@
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="40" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="45" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="I1" s="42" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9147,10 +9249,10 @@
         <v>6</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="I3" s="47" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -9161,13 +9263,13 @@
         <v>29</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="I4" s="47" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -9181,7 +9283,7 @@
         <v>8</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="I5" s="47" t="s">
         <v>5</v>
@@ -9189,16 +9291,16 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>27</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="I6" s="47" t="s">
         <v>7</v>
@@ -9212,7 +9314,7 @@
         <v>9</v>
       </c>
       <c r="I7" s="47" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -9220,7 +9322,7 @@
         <v>25</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I8" s="47" t="s">
         <v>10</v>
@@ -9228,13 +9330,13 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E9" s="16">
         <v>10</v>
       </c>
       <c r="I9" s="47" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -9242,10 +9344,10 @@
         <v>22</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I10" s="51" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -9256,7 +9358,7 @@
         <v>11</v>
       </c>
       <c r="I11" s="47" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -9264,7 +9366,7 @@
         <v>24</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I12" s="47" t="s">
         <v>18</v>
@@ -9272,21 +9374,21 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="53" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="E13" s="16">
         <v>12</v>
       </c>
       <c r="I13" s="47" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E14" s="16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I14" s="47" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -9294,12 +9396,12 @@
         <v>14</v>
       </c>
       <c r="I15" s="47" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E16" s="46" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I16" s="51" t="s">
         <v>3</v>
@@ -9307,7 +9409,7 @@
     </row>
     <row r="17" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I17" s="47" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="18" spans="9:9" x14ac:dyDescent="0.25">
@@ -9317,17 +9419,17 @@
     </row>
     <row r="19" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I19" s="47" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="20" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I20" s="47" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="21" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I21" s="47" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="22" spans="9:9" x14ac:dyDescent="0.25">
@@ -9337,12 +9439,12 @@
     </row>
     <row r="23" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I23" s="47" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="24" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I24" s="47" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="25" spans="9:9" x14ac:dyDescent="0.25">
@@ -9357,7 +9459,7 @@
     </row>
     <row r="27" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I27" s="47" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="28" spans="9:9" x14ac:dyDescent="0.25">
@@ -9367,22 +9469,22 @@
     </row>
     <row r="29" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I29" s="51" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="30" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I30" s="47" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="31" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I31" s="47" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="32" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I32" s="47" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="33" spans="9:9" x14ac:dyDescent="0.25">
@@ -9392,7 +9494,7 @@
     </row>
     <row r="34" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I34" s="47" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="35" spans="9:9" x14ac:dyDescent="0.25">
@@ -9407,32 +9509,32 @@
     </row>
     <row r="37" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I37" s="47" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="38" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I38" s="47" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="39" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I39" s="47" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="40" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I40" s="47" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="41" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I41" s="47" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="42" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I42" s="47" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="43" spans="9:9" x14ac:dyDescent="0.25">
@@ -9442,12 +9544,12 @@
     </row>
     <row r="44" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I44" s="47" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="45" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I45" s="47" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="46" spans="9:9" x14ac:dyDescent="0.25">
@@ -9457,7 +9559,7 @@
     </row>
     <row r="47" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I47" s="47" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="48" spans="9:9" x14ac:dyDescent="0.25">
@@ -9467,7 +9569,7 @@
     </row>
     <row r="49" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I49" s="52" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
